--- a/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-trend-2.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-trend-2.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="5" r:id="rId1"/>
     <sheet name="_settings" sheetId="2" r:id="rId2"/>
     <sheet name="_input" sheetId="1" r:id="rId3"/>
+    <sheet name="input" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="trendChartDataSource" localSheetId="2">OFFSET(_input!$C2,0,0,COUNTA(_input!$A:$A)-1, 2)</definedName>
+    <definedName name="trendChartDataSource" localSheetId="3">OFFSET(input!$A1,0,0,input!$D1, 2)</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,18 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,21 +170,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>custId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ims/cs/baidu/cust/lineChart.action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0;[Red]#,##0"/>
-  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -485,8 +474,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -682,7 +671,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>_input!$D$2</c:f>
+              <c:f>input!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -693,7 +682,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>_input!$C$3</c:f>
+              <c:f>input!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -704,9 +693,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>_input!$D$3</c:f>
+              <c:f>input!$C$2</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;[Red]#,##0</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -716,11 +705,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81404672"/>
-        <c:axId val="81406208"/>
+        <c:axId val="86057728"/>
+        <c:axId val="86059264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81404672"/>
+        <c:axId val="86057728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -729,23 +718,23 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81406208"/>
+        <c:crossAx val="86059264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81406208"/>
+        <c:axId val="86059264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0;[Red]#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81404672"/>
+        <c:crossAx val="86057728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -763,7 +752,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.7500000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.7500000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000001221" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001221" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -774,13 +763,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57148</xdr:colOff>
+      <xdr:colOff>57149</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1107,9 +1096,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:S19"/>
+  <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1127,28 +1116,21 @@
     <col min="12" max="12" width="6.25" customWidth="1"/>
     <col min="13" max="13" width="6" customWidth="1"/>
     <col min="14" max="14" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="3.75" customHeight="1">
+    <row r="1" spans="2:14" ht="3.75" customHeight="1">
       <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="2:19" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="2:14" ht="15.75" customHeight="1">
       <c r="B2" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="19" spans="19:19">
-      <c r="S19" t="s">
+    <row r="18" spans="14:14">
+      <c r="N18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1244,10 +1226,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -1259,10 +1241,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
@@ -1347,21 +1329,21 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" thickBot="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" customHeight="1" thickBot="1">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1371,11 +1353,8 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" thickBot="1">
+    </row>
+    <row r="3" spans="1:3" ht="14.25" thickBot="1">
       <c r="A3" s="20">
         <v>0</v>
       </c>
@@ -1385,8 +1364,7751 @@
       <c r="C3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="25">
-        <f>IF($B3=0,0,$A3*100/$B3)</f>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:D552"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1">
+        <f>COUNTA(_input!$A:$A)-1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A2" s="21" t="str">
+        <f>_input!C3</f>
+        <v>-</v>
+      </c>
+      <c r="B2" s="25">
+        <f>$C2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="20">
+        <f>VALUE(IF(_input!$A3=0,0,_input!$A3*100/_input!$B3))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A3" s="21">
+        <f>_input!C4</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="25">
+        <f t="shared" ref="B3:B66" si="0">$C3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="20">
+        <f>VALUE(IF(_input!$A4=0,0,_input!$A4*100/_input!$B4))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A4" s="21">
+        <f>_input!C5</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="20">
+        <f>VALUE(IF(_input!$A5=0,0,_input!$A5*100/_input!$B5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A5" s="21">
+        <f>_input!C6</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="20">
+        <f>VALUE(IF(_input!$A6=0,0,_input!$A6*100/_input!$B6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A6" s="21">
+        <f>_input!C7</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="20">
+        <f>VALUE(IF(_input!$A7=0,0,_input!$A7*100/_input!$B7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A7" s="21">
+        <f>_input!C8</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="20">
+        <f>VALUE(IF(_input!$A8=0,0,_input!$A8*100/_input!$B8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A8" s="21">
+        <f>_input!C9</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="20">
+        <f>VALUE(IF(_input!$A9=0,0,_input!$A9*100/_input!$B9))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A9" s="21">
+        <f>_input!C10</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="20">
+        <f>VALUE(IF(_input!$A10=0,0,_input!$A10*100/_input!$B10))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A10" s="21">
+        <f>_input!C11</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="20">
+        <f>VALUE(IF(_input!$A11=0,0,_input!$A11*100/_input!$B11))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A11" s="21">
+        <f>_input!C12</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="20">
+        <f>VALUE(IF(_input!$A12=0,0,_input!$A12*100/_input!$B12))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A12" s="21">
+        <f>_input!C13</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="20">
+        <f>VALUE(IF(_input!$A13=0,0,_input!$A13*100/_input!$B13))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A13" s="21">
+        <f>_input!C14</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="20">
+        <f>VALUE(IF(_input!$A14=0,0,_input!$A14*100/_input!$B14))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A14" s="21">
+        <f>_input!C15</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="20">
+        <f>VALUE(IF(_input!$A15=0,0,_input!$A15*100/_input!$B15))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A15" s="21">
+        <f>_input!C16</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="20">
+        <f>VALUE(IF(_input!$A16=0,0,_input!$A16*100/_input!$B16))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A16" s="21">
+        <f>_input!C17</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="20">
+        <f>VALUE(IF(_input!$A17=0,0,_input!$A17*100/_input!$B17))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A17" s="21">
+        <f>_input!C18</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="20">
+        <f>VALUE(IF(_input!$A18=0,0,_input!$A18*100/_input!$B18))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A18" s="21">
+        <f>_input!C19</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="20">
+        <f>VALUE(IF(_input!$A19=0,0,_input!$A19*100/_input!$B19))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A19" s="21">
+        <f>_input!C20</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="20">
+        <f>VALUE(IF(_input!$A20=0,0,_input!$A20*100/_input!$B20))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A20" s="21">
+        <f>_input!C21</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="20">
+        <f>VALUE(IF(_input!$A21=0,0,_input!$A21*100/_input!$B21))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A21" s="21">
+        <f>_input!C22</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="20">
+        <f>VALUE(IF(_input!$A22=0,0,_input!$A22*100/_input!$B22))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A22" s="21">
+        <f>_input!C23</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="20">
+        <f>VALUE(IF(_input!$A23=0,0,_input!$A23*100/_input!$B23))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A23" s="21">
+        <f>_input!C24</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="20">
+        <f>VALUE(IF(_input!$A24=0,0,_input!$A24*100/_input!$B24))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A24" s="21">
+        <f>_input!C25</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="20">
+        <f>VALUE(IF(_input!$A25=0,0,_input!$A25*100/_input!$B25))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A25" s="21">
+        <f>_input!C26</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="20">
+        <f>VALUE(IF(_input!$A26=0,0,_input!$A26*100/_input!$B26))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A26" s="21">
+        <f>_input!C27</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="20">
+        <f>VALUE(IF(_input!$A27=0,0,_input!$A27*100/_input!$B27))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A27" s="21">
+        <f>_input!C28</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="20">
+        <f>VALUE(IF(_input!$A28=0,0,_input!$A28*100/_input!$B28))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A28" s="21">
+        <f>_input!C29</f>
+        <v>0</v>
+      </c>
+      <c r="B28" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="20">
+        <f>VALUE(IF(_input!$A29=0,0,_input!$A29*100/_input!$B29))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A29" s="21">
+        <f>_input!C30</f>
+        <v>0</v>
+      </c>
+      <c r="B29" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="20">
+        <f>VALUE(IF(_input!$A30=0,0,_input!$A30*100/_input!$B30))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A30" s="21">
+        <f>_input!C31</f>
+        <v>0</v>
+      </c>
+      <c r="B30" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="20">
+        <f>VALUE(IF(_input!$A31=0,0,_input!$A31*100/_input!$B31))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A31" s="21">
+        <f>_input!C32</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="20">
+        <f>VALUE(IF(_input!$A32=0,0,_input!$A32*100/_input!$B32))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A32" s="21">
+        <f>_input!C33</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="20">
+        <f>VALUE(IF(_input!$A33=0,0,_input!$A33*100/_input!$B33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A33" s="21">
+        <f>_input!C34</f>
+        <v>0</v>
+      </c>
+      <c r="B33" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="20">
+        <f>VALUE(IF(_input!$A34=0,0,_input!$A34*100/_input!$B34))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A34" s="21">
+        <f>_input!C35</f>
+        <v>0</v>
+      </c>
+      <c r="B34" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="20">
+        <f>VALUE(IF(_input!$A35=0,0,_input!$A35*100/_input!$B35))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A35" s="21">
+        <f>_input!C36</f>
+        <v>0</v>
+      </c>
+      <c r="B35" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="20">
+        <f>VALUE(IF(_input!$A36=0,0,_input!$A36*100/_input!$B36))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A36" s="21">
+        <f>_input!C37</f>
+        <v>0</v>
+      </c>
+      <c r="B36" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="20">
+        <f>VALUE(IF(_input!$A37=0,0,_input!$A37*100/_input!$B37))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A37" s="21">
+        <f>_input!C38</f>
+        <v>0</v>
+      </c>
+      <c r="B37" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="20">
+        <f>VALUE(IF(_input!$A38=0,0,_input!$A38*100/_input!$B38))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A38" s="21">
+        <f>_input!C39</f>
+        <v>0</v>
+      </c>
+      <c r="B38" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="20">
+        <f>VALUE(IF(_input!$A39=0,0,_input!$A39*100/_input!$B39))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A39" s="21">
+        <f>_input!C40</f>
+        <v>0</v>
+      </c>
+      <c r="B39" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="20">
+        <f>VALUE(IF(_input!$A40=0,0,_input!$A40*100/_input!$B40))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A40" s="21">
+        <f>_input!C41</f>
+        <v>0</v>
+      </c>
+      <c r="B40" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="20">
+        <f>VALUE(IF(_input!$A41=0,0,_input!$A41*100/_input!$B41))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A41" s="21">
+        <f>_input!C42</f>
+        <v>0</v>
+      </c>
+      <c r="B41" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="20">
+        <f>VALUE(IF(_input!$A42=0,0,_input!$A42*100/_input!$B42))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A42" s="21">
+        <f>_input!C43</f>
+        <v>0</v>
+      </c>
+      <c r="B42" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="20">
+        <f>VALUE(IF(_input!$A43=0,0,_input!$A43*100/_input!$B43))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A43" s="21">
+        <f>_input!C44</f>
+        <v>0</v>
+      </c>
+      <c r="B43" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="20">
+        <f>VALUE(IF(_input!$A44=0,0,_input!$A44*100/_input!$B44))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A44" s="21">
+        <f>_input!C45</f>
+        <v>0</v>
+      </c>
+      <c r="B44" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="20">
+        <f>VALUE(IF(_input!$A45=0,0,_input!$A45*100/_input!$B45))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A45" s="21">
+        <f>_input!C46</f>
+        <v>0</v>
+      </c>
+      <c r="B45" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="20">
+        <f>VALUE(IF(_input!$A46=0,0,_input!$A46*100/_input!$B46))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A46" s="21">
+        <f>_input!C47</f>
+        <v>0</v>
+      </c>
+      <c r="B46" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="20">
+        <f>VALUE(IF(_input!$A47=0,0,_input!$A47*100/_input!$B47))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A47" s="21">
+        <f>_input!C48</f>
+        <v>0</v>
+      </c>
+      <c r="B47" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="20">
+        <f>VALUE(IF(_input!$A48=0,0,_input!$A48*100/_input!$B48))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A48" s="21">
+        <f>_input!C49</f>
+        <v>0</v>
+      </c>
+      <c r="B48" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="20">
+        <f>VALUE(IF(_input!$A49=0,0,_input!$A49*100/_input!$B49))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A49" s="21">
+        <f>_input!C50</f>
+        <v>0</v>
+      </c>
+      <c r="B49" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="20">
+        <f>VALUE(IF(_input!$A50=0,0,_input!$A50*100/_input!$B50))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A50" s="21">
+        <f>_input!C51</f>
+        <v>0</v>
+      </c>
+      <c r="B50" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="20">
+        <f>VALUE(IF(_input!$A51=0,0,_input!$A51*100/_input!$B51))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A51" s="21">
+        <f>_input!C52</f>
+        <v>0</v>
+      </c>
+      <c r="B51" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C51" s="20">
+        <f>VALUE(IF(_input!$A52=0,0,_input!$A52*100/_input!$B52))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A52" s="21">
+        <f>_input!C53</f>
+        <v>0</v>
+      </c>
+      <c r="B52" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C52" s="20">
+        <f>VALUE(IF(_input!$A53=0,0,_input!$A53*100/_input!$B53))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A53" s="21">
+        <f>_input!C54</f>
+        <v>0</v>
+      </c>
+      <c r="B53" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C53" s="20">
+        <f>VALUE(IF(_input!$A54=0,0,_input!$A54*100/_input!$B54))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A54" s="21">
+        <f>_input!C55</f>
+        <v>0</v>
+      </c>
+      <c r="B54" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="20">
+        <f>VALUE(IF(_input!$A55=0,0,_input!$A55*100/_input!$B55))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A55" s="21">
+        <f>_input!C56</f>
+        <v>0</v>
+      </c>
+      <c r="B55" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C55" s="20">
+        <f>VALUE(IF(_input!$A56=0,0,_input!$A56*100/_input!$B56))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A56" s="21">
+        <f>_input!C57</f>
+        <v>0</v>
+      </c>
+      <c r="B56" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="20">
+        <f>VALUE(IF(_input!$A57=0,0,_input!$A57*100/_input!$B57))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A57" s="21">
+        <f>_input!C58</f>
+        <v>0</v>
+      </c>
+      <c r="B57" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="20">
+        <f>VALUE(IF(_input!$A58=0,0,_input!$A58*100/_input!$B58))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A58" s="21">
+        <f>_input!C59</f>
+        <v>0</v>
+      </c>
+      <c r="B58" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="20">
+        <f>VALUE(IF(_input!$A59=0,0,_input!$A59*100/_input!$B59))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A59" s="21">
+        <f>_input!C60</f>
+        <v>0</v>
+      </c>
+      <c r="B59" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="20">
+        <f>VALUE(IF(_input!$A60=0,0,_input!$A60*100/_input!$B60))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A60" s="21">
+        <f>_input!C61</f>
+        <v>0</v>
+      </c>
+      <c r="B60" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C60" s="20">
+        <f>VALUE(IF(_input!$A61=0,0,_input!$A61*100/_input!$B61))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A61" s="21">
+        <f>_input!C62</f>
+        <v>0</v>
+      </c>
+      <c r="B61" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C61" s="20">
+        <f>VALUE(IF(_input!$A62=0,0,_input!$A62*100/_input!$B62))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A62" s="21">
+        <f>_input!C63</f>
+        <v>0</v>
+      </c>
+      <c r="B62" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="20">
+        <f>VALUE(IF(_input!$A63=0,0,_input!$A63*100/_input!$B63))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A63" s="21">
+        <f>_input!C64</f>
+        <v>0</v>
+      </c>
+      <c r="B63" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="20">
+        <f>VALUE(IF(_input!$A64=0,0,_input!$A64*100/_input!$B64))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A64" s="21">
+        <f>_input!C65</f>
+        <v>0</v>
+      </c>
+      <c r="B64" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C64" s="20">
+        <f>VALUE(IF(_input!$A65=0,0,_input!$A65*100/_input!$B65))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A65" s="21">
+        <f>_input!C66</f>
+        <v>0</v>
+      </c>
+      <c r="B65" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C65" s="20">
+        <f>VALUE(IF(_input!$A66=0,0,_input!$A66*100/_input!$B66))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A66" s="21">
+        <f>_input!C67</f>
+        <v>0</v>
+      </c>
+      <c r="B66" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C66" s="20">
+        <f>VALUE(IF(_input!$A67=0,0,_input!$A67*100/_input!$B67))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A67" s="21">
+        <f>_input!C68</f>
+        <v>0</v>
+      </c>
+      <c r="B67" s="25">
+        <f t="shared" ref="B67:B130" si="1">$C67</f>
+        <v>0</v>
+      </c>
+      <c r="C67" s="20">
+        <f>VALUE(IF(_input!$A68=0,0,_input!$A68*100/_input!$B68))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A68" s="21">
+        <f>_input!C69</f>
+        <v>0</v>
+      </c>
+      <c r="B68" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C68" s="20">
+        <f>VALUE(IF(_input!$A69=0,0,_input!$A69*100/_input!$B69))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A69" s="21">
+        <f>_input!C70</f>
+        <v>0</v>
+      </c>
+      <c r="B69" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C69" s="20">
+        <f>VALUE(IF(_input!$A70=0,0,_input!$A70*100/_input!$B70))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A70" s="21">
+        <f>_input!C71</f>
+        <v>0</v>
+      </c>
+      <c r="B70" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C70" s="20">
+        <f>VALUE(IF(_input!$A71=0,0,_input!$A71*100/_input!$B71))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A71" s="21">
+        <f>_input!C72</f>
+        <v>0</v>
+      </c>
+      <c r="B71" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C71" s="20">
+        <f>VALUE(IF(_input!$A72=0,0,_input!$A72*100/_input!$B72))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A72" s="21">
+        <f>_input!C73</f>
+        <v>0</v>
+      </c>
+      <c r="B72" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C72" s="20">
+        <f>VALUE(IF(_input!$A73=0,0,_input!$A73*100/_input!$B73))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A73" s="21">
+        <f>_input!C74</f>
+        <v>0</v>
+      </c>
+      <c r="B73" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C73" s="20">
+        <f>VALUE(IF(_input!$A74=0,0,_input!$A74*100/_input!$B74))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A74" s="21">
+        <f>_input!C75</f>
+        <v>0</v>
+      </c>
+      <c r="B74" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C74" s="20">
+        <f>VALUE(IF(_input!$A75=0,0,_input!$A75*100/_input!$B75))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A75" s="21">
+        <f>_input!C76</f>
+        <v>0</v>
+      </c>
+      <c r="B75" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C75" s="20">
+        <f>VALUE(IF(_input!$A76=0,0,_input!$A76*100/_input!$B76))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A76" s="21">
+        <f>_input!C77</f>
+        <v>0</v>
+      </c>
+      <c r="B76" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C76" s="20">
+        <f>VALUE(IF(_input!$A77=0,0,_input!$A77*100/_input!$B77))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A77" s="21">
+        <f>_input!C78</f>
+        <v>0</v>
+      </c>
+      <c r="B77" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C77" s="20">
+        <f>VALUE(IF(_input!$A78=0,0,_input!$A78*100/_input!$B78))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A78" s="21">
+        <f>_input!C79</f>
+        <v>0</v>
+      </c>
+      <c r="B78" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C78" s="20">
+        <f>VALUE(IF(_input!$A79=0,0,_input!$A79*100/_input!$B79))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A79" s="21">
+        <f>_input!C80</f>
+        <v>0</v>
+      </c>
+      <c r="B79" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C79" s="20">
+        <f>VALUE(IF(_input!$A80=0,0,_input!$A80*100/_input!$B80))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A80" s="21">
+        <f>_input!C81</f>
+        <v>0</v>
+      </c>
+      <c r="B80" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C80" s="20">
+        <f>VALUE(IF(_input!$A81=0,0,_input!$A81*100/_input!$B81))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A81" s="21">
+        <f>_input!C82</f>
+        <v>0</v>
+      </c>
+      <c r="B81" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C81" s="20">
+        <f>VALUE(IF(_input!$A82=0,0,_input!$A82*100/_input!$B82))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A82" s="21">
+        <f>_input!C83</f>
+        <v>0</v>
+      </c>
+      <c r="B82" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C82" s="20">
+        <f>VALUE(IF(_input!$A83=0,0,_input!$A83*100/_input!$B83))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A83" s="21">
+        <f>_input!C84</f>
+        <v>0</v>
+      </c>
+      <c r="B83" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C83" s="20">
+        <f>VALUE(IF(_input!$A84=0,0,_input!$A84*100/_input!$B84))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A84" s="21">
+        <f>_input!C85</f>
+        <v>0</v>
+      </c>
+      <c r="B84" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C84" s="20">
+        <f>VALUE(IF(_input!$A85=0,0,_input!$A85*100/_input!$B85))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A85" s="21">
+        <f>_input!C86</f>
+        <v>0</v>
+      </c>
+      <c r="B85" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C85" s="20">
+        <f>VALUE(IF(_input!$A86=0,0,_input!$A86*100/_input!$B86))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A86" s="21">
+        <f>_input!C87</f>
+        <v>0</v>
+      </c>
+      <c r="B86" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C86" s="20">
+        <f>VALUE(IF(_input!$A87=0,0,_input!$A87*100/_input!$B87))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A87" s="21">
+        <f>_input!C88</f>
+        <v>0</v>
+      </c>
+      <c r="B87" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C87" s="20">
+        <f>VALUE(IF(_input!$A88=0,0,_input!$A88*100/_input!$B88))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A88" s="21">
+        <f>_input!C89</f>
+        <v>0</v>
+      </c>
+      <c r="B88" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C88" s="20">
+        <f>VALUE(IF(_input!$A89=0,0,_input!$A89*100/_input!$B89))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A89" s="21">
+        <f>_input!C90</f>
+        <v>0</v>
+      </c>
+      <c r="B89" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C89" s="20">
+        <f>VALUE(IF(_input!$A90=0,0,_input!$A90*100/_input!$B90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A90" s="21">
+        <f>_input!C91</f>
+        <v>0</v>
+      </c>
+      <c r="B90" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C90" s="20">
+        <f>VALUE(IF(_input!$A91=0,0,_input!$A91*100/_input!$B91))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A91" s="21">
+        <f>_input!C92</f>
+        <v>0</v>
+      </c>
+      <c r="B91" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C91" s="20">
+        <f>VALUE(IF(_input!$A92=0,0,_input!$A92*100/_input!$B92))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A92" s="21">
+        <f>_input!C93</f>
+        <v>0</v>
+      </c>
+      <c r="B92" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C92" s="20">
+        <f>VALUE(IF(_input!$A93=0,0,_input!$A93*100/_input!$B93))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A93" s="21">
+        <f>_input!C94</f>
+        <v>0</v>
+      </c>
+      <c r="B93" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C93" s="20">
+        <f>VALUE(IF(_input!$A94=0,0,_input!$A94*100/_input!$B94))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A94" s="21">
+        <f>_input!C95</f>
+        <v>0</v>
+      </c>
+      <c r="B94" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C94" s="20">
+        <f>VALUE(IF(_input!$A95=0,0,_input!$A95*100/_input!$B95))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A95" s="21">
+        <f>_input!C96</f>
+        <v>0</v>
+      </c>
+      <c r="B95" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C95" s="20">
+        <f>VALUE(IF(_input!$A96=0,0,_input!$A96*100/_input!$B96))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A96" s="21">
+        <f>_input!C97</f>
+        <v>0</v>
+      </c>
+      <c r="B96" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C96" s="20">
+        <f>VALUE(IF(_input!$A97=0,0,_input!$A97*100/_input!$B97))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A97" s="21">
+        <f>_input!C98</f>
+        <v>0</v>
+      </c>
+      <c r="B97" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C97" s="20">
+        <f>VALUE(IF(_input!$A98=0,0,_input!$A98*100/_input!$B98))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A98" s="21">
+        <f>_input!C99</f>
+        <v>0</v>
+      </c>
+      <c r="B98" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C98" s="20">
+        <f>VALUE(IF(_input!$A99=0,0,_input!$A99*100/_input!$B99))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A99" s="21">
+        <f>_input!C100</f>
+        <v>0</v>
+      </c>
+      <c r="B99" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C99" s="20">
+        <f>VALUE(IF(_input!$A100=0,0,_input!$A100*100/_input!$B100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A100" s="21">
+        <f>_input!C101</f>
+        <v>0</v>
+      </c>
+      <c r="B100" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C100" s="20">
+        <f>VALUE(IF(_input!$A101=0,0,_input!$A101*100/_input!$B101))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A101" s="21">
+        <f>_input!C102</f>
+        <v>0</v>
+      </c>
+      <c r="B101" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C101" s="20">
+        <f>VALUE(IF(_input!$A102=0,0,_input!$A102*100/_input!$B102))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A102" s="21">
+        <f>_input!C103</f>
+        <v>0</v>
+      </c>
+      <c r="B102" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C102" s="20">
+        <f>VALUE(IF(_input!$A103=0,0,_input!$A103*100/_input!$B103))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A103" s="21">
+        <f>_input!C104</f>
+        <v>0</v>
+      </c>
+      <c r="B103" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C103" s="20">
+        <f>VALUE(IF(_input!$A104=0,0,_input!$A104*100/_input!$B104))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A104" s="21">
+        <f>_input!C105</f>
+        <v>0</v>
+      </c>
+      <c r="B104" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C104" s="20">
+        <f>VALUE(IF(_input!$A105=0,0,_input!$A105*100/_input!$B105))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A105" s="21">
+        <f>_input!C106</f>
+        <v>0</v>
+      </c>
+      <c r="B105" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C105" s="20">
+        <f>VALUE(IF(_input!$A106=0,0,_input!$A106*100/_input!$B106))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A106" s="21">
+        <f>_input!C107</f>
+        <v>0</v>
+      </c>
+      <c r="B106" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C106" s="20">
+        <f>VALUE(IF(_input!$A107=0,0,_input!$A107*100/_input!$B107))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A107" s="21">
+        <f>_input!C108</f>
+        <v>0</v>
+      </c>
+      <c r="B107" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C107" s="20">
+        <f>VALUE(IF(_input!$A108=0,0,_input!$A108*100/_input!$B108))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A108" s="21">
+        <f>_input!C109</f>
+        <v>0</v>
+      </c>
+      <c r="B108" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C108" s="20">
+        <f>VALUE(IF(_input!$A109=0,0,_input!$A109*100/_input!$B109))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A109" s="21">
+        <f>_input!C110</f>
+        <v>0</v>
+      </c>
+      <c r="B109" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C109" s="20">
+        <f>VALUE(IF(_input!$A110=0,0,_input!$A110*100/_input!$B110))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A110" s="21">
+        <f>_input!C111</f>
+        <v>0</v>
+      </c>
+      <c r="B110" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C110" s="20">
+        <f>VALUE(IF(_input!$A111=0,0,_input!$A111*100/_input!$B111))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A111" s="21">
+        <f>_input!C112</f>
+        <v>0</v>
+      </c>
+      <c r="B111" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C111" s="20">
+        <f>VALUE(IF(_input!$A112=0,0,_input!$A112*100/_input!$B112))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A112" s="21">
+        <f>_input!C113</f>
+        <v>0</v>
+      </c>
+      <c r="B112" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C112" s="20">
+        <f>VALUE(IF(_input!$A113=0,0,_input!$A113*100/_input!$B113))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A113" s="21">
+        <f>_input!C114</f>
+        <v>0</v>
+      </c>
+      <c r="B113" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C113" s="20">
+        <f>VALUE(IF(_input!$A114=0,0,_input!$A114*100/_input!$B114))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A114" s="21">
+        <f>_input!C115</f>
+        <v>0</v>
+      </c>
+      <c r="B114" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C114" s="20">
+        <f>VALUE(IF(_input!$A115=0,0,_input!$A115*100/_input!$B115))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A115" s="21">
+        <f>_input!C116</f>
+        <v>0</v>
+      </c>
+      <c r="B115" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C115" s="20">
+        <f>VALUE(IF(_input!$A116=0,0,_input!$A116*100/_input!$B116))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A116" s="21">
+        <f>_input!C117</f>
+        <v>0</v>
+      </c>
+      <c r="B116" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C116" s="20">
+        <f>VALUE(IF(_input!$A117=0,0,_input!$A117*100/_input!$B117))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A117" s="21">
+        <f>_input!C118</f>
+        <v>0</v>
+      </c>
+      <c r="B117" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C117" s="20">
+        <f>VALUE(IF(_input!$A118=0,0,_input!$A118*100/_input!$B118))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A118" s="21">
+        <f>_input!C119</f>
+        <v>0</v>
+      </c>
+      <c r="B118" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C118" s="20">
+        <f>VALUE(IF(_input!$A119=0,0,_input!$A119*100/_input!$B119))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A119" s="21">
+        <f>_input!C120</f>
+        <v>0</v>
+      </c>
+      <c r="B119" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C119" s="20">
+        <f>VALUE(IF(_input!$A120=0,0,_input!$A120*100/_input!$B120))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A120" s="21">
+        <f>_input!C121</f>
+        <v>0</v>
+      </c>
+      <c r="B120" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C120" s="20">
+        <f>VALUE(IF(_input!$A121=0,0,_input!$A121*100/_input!$B121))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A121" s="21">
+        <f>_input!C122</f>
+        <v>0</v>
+      </c>
+      <c r="B121" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C121" s="20">
+        <f>VALUE(IF(_input!$A122=0,0,_input!$A122*100/_input!$B122))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A122" s="21">
+        <f>_input!C123</f>
+        <v>0</v>
+      </c>
+      <c r="B122" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C122" s="20">
+        <f>VALUE(IF(_input!$A123=0,0,_input!$A123*100/_input!$B123))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A123" s="21">
+        <f>_input!C124</f>
+        <v>0</v>
+      </c>
+      <c r="B123" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C123" s="20">
+        <f>VALUE(IF(_input!$A124=0,0,_input!$A124*100/_input!$B124))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A124" s="21">
+        <f>_input!C125</f>
+        <v>0</v>
+      </c>
+      <c r="B124" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C124" s="20">
+        <f>VALUE(IF(_input!$A125=0,0,_input!$A125*100/_input!$B125))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A125" s="21">
+        <f>_input!C126</f>
+        <v>0</v>
+      </c>
+      <c r="B125" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C125" s="20">
+        <f>VALUE(IF(_input!$A126=0,0,_input!$A126*100/_input!$B126))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A126" s="21">
+        <f>_input!C127</f>
+        <v>0</v>
+      </c>
+      <c r="B126" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C126" s="20">
+        <f>VALUE(IF(_input!$A127=0,0,_input!$A127*100/_input!$B127))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A127" s="21">
+        <f>_input!C128</f>
+        <v>0</v>
+      </c>
+      <c r="B127" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C127" s="20">
+        <f>VALUE(IF(_input!$A128=0,0,_input!$A128*100/_input!$B128))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A128" s="21">
+        <f>_input!C129</f>
+        <v>0</v>
+      </c>
+      <c r="B128" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C128" s="20">
+        <f>VALUE(IF(_input!$A129=0,0,_input!$A129*100/_input!$B129))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A129" s="21">
+        <f>_input!C130</f>
+        <v>0</v>
+      </c>
+      <c r="B129" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C129" s="20">
+        <f>VALUE(IF(_input!$A130=0,0,_input!$A130*100/_input!$B130))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A130" s="21">
+        <f>_input!C131</f>
+        <v>0</v>
+      </c>
+      <c r="B130" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C130" s="20">
+        <f>VALUE(IF(_input!$A131=0,0,_input!$A131*100/_input!$B131))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A131" s="21">
+        <f>_input!C132</f>
+        <v>0</v>
+      </c>
+      <c r="B131" s="25">
+        <f t="shared" ref="B131:B194" si="2">$C131</f>
+        <v>0</v>
+      </c>
+      <c r="C131" s="20">
+        <f>VALUE(IF(_input!$A132=0,0,_input!$A132*100/_input!$B132))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A132" s="21">
+        <f>_input!C133</f>
+        <v>0</v>
+      </c>
+      <c r="B132" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C132" s="20">
+        <f>VALUE(IF(_input!$A133=0,0,_input!$A133*100/_input!$B133))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A133" s="21">
+        <f>_input!C134</f>
+        <v>0</v>
+      </c>
+      <c r="B133" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C133" s="20">
+        <f>VALUE(IF(_input!$A134=0,0,_input!$A134*100/_input!$B134))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A134" s="21">
+        <f>_input!C135</f>
+        <v>0</v>
+      </c>
+      <c r="B134" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C134" s="20">
+        <f>VALUE(IF(_input!$A135=0,0,_input!$A135*100/_input!$B135))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A135" s="21">
+        <f>_input!C136</f>
+        <v>0</v>
+      </c>
+      <c r="B135" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C135" s="20">
+        <f>VALUE(IF(_input!$A136=0,0,_input!$A136*100/_input!$B136))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A136" s="21">
+        <f>_input!C137</f>
+        <v>0</v>
+      </c>
+      <c r="B136" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C136" s="20">
+        <f>VALUE(IF(_input!$A137=0,0,_input!$A137*100/_input!$B137))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A137" s="21">
+        <f>_input!C138</f>
+        <v>0</v>
+      </c>
+      <c r="B137" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C137" s="20">
+        <f>VALUE(IF(_input!$A138=0,0,_input!$A138*100/_input!$B138))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A138" s="21">
+        <f>_input!C139</f>
+        <v>0</v>
+      </c>
+      <c r="B138" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C138" s="20">
+        <f>VALUE(IF(_input!$A139=0,0,_input!$A139*100/_input!$B139))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A139" s="21">
+        <f>_input!C140</f>
+        <v>0</v>
+      </c>
+      <c r="B139" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C139" s="20">
+        <f>VALUE(IF(_input!$A140=0,0,_input!$A140*100/_input!$B140))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A140" s="21">
+        <f>_input!C141</f>
+        <v>0</v>
+      </c>
+      <c r="B140" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C140" s="20">
+        <f>VALUE(IF(_input!$A141=0,0,_input!$A141*100/_input!$B141))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A141" s="21">
+        <f>_input!C142</f>
+        <v>0</v>
+      </c>
+      <c r="B141" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C141" s="20">
+        <f>VALUE(IF(_input!$A142=0,0,_input!$A142*100/_input!$B142))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A142" s="21">
+        <f>_input!C143</f>
+        <v>0</v>
+      </c>
+      <c r="B142" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C142" s="20">
+        <f>VALUE(IF(_input!$A143=0,0,_input!$A143*100/_input!$B143))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A143" s="21">
+        <f>_input!C144</f>
+        <v>0</v>
+      </c>
+      <c r="B143" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C143" s="20">
+        <f>VALUE(IF(_input!$A144=0,0,_input!$A144*100/_input!$B144))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A144" s="21">
+        <f>_input!C145</f>
+        <v>0</v>
+      </c>
+      <c r="B144" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C144" s="20">
+        <f>VALUE(IF(_input!$A145=0,0,_input!$A145*100/_input!$B145))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A145" s="21">
+        <f>_input!C146</f>
+        <v>0</v>
+      </c>
+      <c r="B145" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C145" s="20">
+        <f>VALUE(IF(_input!$A146=0,0,_input!$A146*100/_input!$B146))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A146" s="21">
+        <f>_input!C147</f>
+        <v>0</v>
+      </c>
+      <c r="B146" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C146" s="20">
+        <f>VALUE(IF(_input!$A147=0,0,_input!$A147*100/_input!$B147))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A147" s="21">
+        <f>_input!C148</f>
+        <v>0</v>
+      </c>
+      <c r="B147" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C147" s="20">
+        <f>VALUE(IF(_input!$A148=0,0,_input!$A148*100/_input!$B148))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A148" s="21">
+        <f>_input!C149</f>
+        <v>0</v>
+      </c>
+      <c r="B148" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C148" s="20">
+        <f>VALUE(IF(_input!$A149=0,0,_input!$A149*100/_input!$B149))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A149" s="21">
+        <f>_input!C150</f>
+        <v>0</v>
+      </c>
+      <c r="B149" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C149" s="20">
+        <f>VALUE(IF(_input!$A150=0,0,_input!$A150*100/_input!$B150))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A150" s="21">
+        <f>_input!C151</f>
+        <v>0</v>
+      </c>
+      <c r="B150" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C150" s="20">
+        <f>VALUE(IF(_input!$A151=0,0,_input!$A151*100/_input!$B151))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A151" s="21">
+        <f>_input!C152</f>
+        <v>0</v>
+      </c>
+      <c r="B151" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C151" s="20">
+        <f>VALUE(IF(_input!$A152=0,0,_input!$A152*100/_input!$B152))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A152" s="21">
+        <f>_input!C153</f>
+        <v>0</v>
+      </c>
+      <c r="B152" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C152" s="20">
+        <f>VALUE(IF(_input!$A153=0,0,_input!$A153*100/_input!$B153))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A153" s="21">
+        <f>_input!C154</f>
+        <v>0</v>
+      </c>
+      <c r="B153" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C153" s="20">
+        <f>VALUE(IF(_input!$A154=0,0,_input!$A154*100/_input!$B154))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A154" s="21">
+        <f>_input!C155</f>
+        <v>0</v>
+      </c>
+      <c r="B154" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C154" s="20">
+        <f>VALUE(IF(_input!$A155=0,0,_input!$A155*100/_input!$B155))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A155" s="21">
+        <f>_input!C156</f>
+        <v>0</v>
+      </c>
+      <c r="B155" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C155" s="20">
+        <f>VALUE(IF(_input!$A156=0,0,_input!$A156*100/_input!$B156))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A156" s="21">
+        <f>_input!C157</f>
+        <v>0</v>
+      </c>
+      <c r="B156" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C156" s="20">
+        <f>VALUE(IF(_input!$A157=0,0,_input!$A157*100/_input!$B157))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A157" s="21">
+        <f>_input!C158</f>
+        <v>0</v>
+      </c>
+      <c r="B157" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C157" s="20">
+        <f>VALUE(IF(_input!$A158=0,0,_input!$A158*100/_input!$B158))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A158" s="21">
+        <f>_input!C159</f>
+        <v>0</v>
+      </c>
+      <c r="B158" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C158" s="20">
+        <f>VALUE(IF(_input!$A159=0,0,_input!$A159*100/_input!$B159))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A159" s="21">
+        <f>_input!C160</f>
+        <v>0</v>
+      </c>
+      <c r="B159" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C159" s="20">
+        <f>VALUE(IF(_input!$A160=0,0,_input!$A160*100/_input!$B160))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A160" s="21">
+        <f>_input!C161</f>
+        <v>0</v>
+      </c>
+      <c r="B160" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C160" s="20">
+        <f>VALUE(IF(_input!$A161=0,0,_input!$A161*100/_input!$B161))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A161" s="21">
+        <f>_input!C162</f>
+        <v>0</v>
+      </c>
+      <c r="B161" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C161" s="20">
+        <f>VALUE(IF(_input!$A162=0,0,_input!$A162*100/_input!$B162))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A162" s="21">
+        <f>_input!C163</f>
+        <v>0</v>
+      </c>
+      <c r="B162" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C162" s="20">
+        <f>VALUE(IF(_input!$A163=0,0,_input!$A163*100/_input!$B163))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A163" s="21">
+        <f>_input!C164</f>
+        <v>0</v>
+      </c>
+      <c r="B163" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C163" s="20">
+        <f>VALUE(IF(_input!$A164=0,0,_input!$A164*100/_input!$B164))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A164" s="21">
+        <f>_input!C165</f>
+        <v>0</v>
+      </c>
+      <c r="B164" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C164" s="20">
+        <f>VALUE(IF(_input!$A165=0,0,_input!$A165*100/_input!$B165))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A165" s="21">
+        <f>_input!C166</f>
+        <v>0</v>
+      </c>
+      <c r="B165" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C165" s="20">
+        <f>VALUE(IF(_input!$A166=0,0,_input!$A166*100/_input!$B166))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A166" s="21">
+        <f>_input!C167</f>
+        <v>0</v>
+      </c>
+      <c r="B166" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C166" s="20">
+        <f>VALUE(IF(_input!$A167=0,0,_input!$A167*100/_input!$B167))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A167" s="21">
+        <f>_input!C168</f>
+        <v>0</v>
+      </c>
+      <c r="B167" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C167" s="20">
+        <f>VALUE(IF(_input!$A168=0,0,_input!$A168*100/_input!$B168))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A168" s="21">
+        <f>_input!C169</f>
+        <v>0</v>
+      </c>
+      <c r="B168" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C168" s="20">
+        <f>VALUE(IF(_input!$A169=0,0,_input!$A169*100/_input!$B169))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A169" s="21">
+        <f>_input!C170</f>
+        <v>0</v>
+      </c>
+      <c r="B169" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C169" s="20">
+        <f>VALUE(IF(_input!$A170=0,0,_input!$A170*100/_input!$B170))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A170" s="21">
+        <f>_input!C171</f>
+        <v>0</v>
+      </c>
+      <c r="B170" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C170" s="20">
+        <f>VALUE(IF(_input!$A171=0,0,_input!$A171*100/_input!$B171))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A171" s="21">
+        <f>_input!C172</f>
+        <v>0</v>
+      </c>
+      <c r="B171" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C171" s="20">
+        <f>VALUE(IF(_input!$A172=0,0,_input!$A172*100/_input!$B172))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A172" s="21">
+        <f>_input!C173</f>
+        <v>0</v>
+      </c>
+      <c r="B172" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C172" s="20">
+        <f>VALUE(IF(_input!$A173=0,0,_input!$A173*100/_input!$B173))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A173" s="21">
+        <f>_input!C174</f>
+        <v>0</v>
+      </c>
+      <c r="B173" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C173" s="20">
+        <f>VALUE(IF(_input!$A174=0,0,_input!$A174*100/_input!$B174))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A174" s="21">
+        <f>_input!C175</f>
+        <v>0</v>
+      </c>
+      <c r="B174" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C174" s="20">
+        <f>VALUE(IF(_input!$A175=0,0,_input!$A175*100/_input!$B175))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A175" s="21">
+        <f>_input!C176</f>
+        <v>0</v>
+      </c>
+      <c r="B175" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C175" s="20">
+        <f>VALUE(IF(_input!$A176=0,0,_input!$A176*100/_input!$B176))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A176" s="21">
+        <f>_input!C177</f>
+        <v>0</v>
+      </c>
+      <c r="B176" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C176" s="20">
+        <f>VALUE(IF(_input!$A177=0,0,_input!$A177*100/_input!$B177))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A177" s="21">
+        <f>_input!C178</f>
+        <v>0</v>
+      </c>
+      <c r="B177" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C177" s="20">
+        <f>VALUE(IF(_input!$A178=0,0,_input!$A178*100/_input!$B178))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A178" s="21">
+        <f>_input!C179</f>
+        <v>0</v>
+      </c>
+      <c r="B178" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C178" s="20">
+        <f>VALUE(IF(_input!$A179=0,0,_input!$A179*100/_input!$B179))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A179" s="21">
+        <f>_input!C180</f>
+        <v>0</v>
+      </c>
+      <c r="B179" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C179" s="20">
+        <f>VALUE(IF(_input!$A180=0,0,_input!$A180*100/_input!$B180))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A180" s="21">
+        <f>_input!C181</f>
+        <v>0</v>
+      </c>
+      <c r="B180" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C180" s="20">
+        <f>VALUE(IF(_input!$A181=0,0,_input!$A181*100/_input!$B181))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A181" s="21">
+        <f>_input!C182</f>
+        <v>0</v>
+      </c>
+      <c r="B181" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C181" s="20">
+        <f>VALUE(IF(_input!$A182=0,0,_input!$A182*100/_input!$B182))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A182" s="21">
+        <f>_input!C183</f>
+        <v>0</v>
+      </c>
+      <c r="B182" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C182" s="20">
+        <f>VALUE(IF(_input!$A183=0,0,_input!$A183*100/_input!$B183))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A183" s="21">
+        <f>_input!C184</f>
+        <v>0</v>
+      </c>
+      <c r="B183" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C183" s="20">
+        <f>VALUE(IF(_input!$A184=0,0,_input!$A184*100/_input!$B184))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A184" s="21">
+        <f>_input!C185</f>
+        <v>0</v>
+      </c>
+      <c r="B184" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C184" s="20">
+        <f>VALUE(IF(_input!$A185=0,0,_input!$A185*100/_input!$B185))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A185" s="21">
+        <f>_input!C186</f>
+        <v>0</v>
+      </c>
+      <c r="B185" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C185" s="20">
+        <f>VALUE(IF(_input!$A186=0,0,_input!$A186*100/_input!$B186))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A186" s="21">
+        <f>_input!C187</f>
+        <v>0</v>
+      </c>
+      <c r="B186" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C186" s="20">
+        <f>VALUE(IF(_input!$A187=0,0,_input!$A187*100/_input!$B187))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A187" s="21">
+        <f>_input!C188</f>
+        <v>0</v>
+      </c>
+      <c r="B187" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C187" s="20">
+        <f>VALUE(IF(_input!$A188=0,0,_input!$A188*100/_input!$B188))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A188" s="21">
+        <f>_input!C189</f>
+        <v>0</v>
+      </c>
+      <c r="B188" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C188" s="20">
+        <f>VALUE(IF(_input!$A189=0,0,_input!$A189*100/_input!$B189))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A189" s="21">
+        <f>_input!C190</f>
+        <v>0</v>
+      </c>
+      <c r="B189" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C189" s="20">
+        <f>VALUE(IF(_input!$A190=0,0,_input!$A190*100/_input!$B190))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A190" s="21">
+        <f>_input!C191</f>
+        <v>0</v>
+      </c>
+      <c r="B190" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C190" s="20">
+        <f>VALUE(IF(_input!$A191=0,0,_input!$A191*100/_input!$B191))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A191" s="21">
+        <f>_input!C192</f>
+        <v>0</v>
+      </c>
+      <c r="B191" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C191" s="20">
+        <f>VALUE(IF(_input!$A192=0,0,_input!$A192*100/_input!$B192))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A192" s="21">
+        <f>_input!C193</f>
+        <v>0</v>
+      </c>
+      <c r="B192" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C192" s="20">
+        <f>VALUE(IF(_input!$A193=0,0,_input!$A193*100/_input!$B193))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A193" s="21">
+        <f>_input!C194</f>
+        <v>0</v>
+      </c>
+      <c r="B193" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C193" s="20">
+        <f>VALUE(IF(_input!$A194=0,0,_input!$A194*100/_input!$B194))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A194" s="21">
+        <f>_input!C195</f>
+        <v>0</v>
+      </c>
+      <c r="B194" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C194" s="20">
+        <f>VALUE(IF(_input!$A195=0,0,_input!$A195*100/_input!$B195))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A195" s="21">
+        <f>_input!C196</f>
+        <v>0</v>
+      </c>
+      <c r="B195" s="25">
+        <f t="shared" ref="B195:B258" si="3">$C195</f>
+        <v>0</v>
+      </c>
+      <c r="C195" s="20">
+        <f>VALUE(IF(_input!$A196=0,0,_input!$A196*100/_input!$B196))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A196" s="21">
+        <f>_input!C197</f>
+        <v>0</v>
+      </c>
+      <c r="B196" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C196" s="20">
+        <f>VALUE(IF(_input!$A197=0,0,_input!$A197*100/_input!$B197))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A197" s="21">
+        <f>_input!C198</f>
+        <v>0</v>
+      </c>
+      <c r="B197" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C197" s="20">
+        <f>VALUE(IF(_input!$A198=0,0,_input!$A198*100/_input!$B198))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A198" s="21">
+        <f>_input!C199</f>
+        <v>0</v>
+      </c>
+      <c r="B198" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C198" s="20">
+        <f>VALUE(IF(_input!$A199=0,0,_input!$A199*100/_input!$B199))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A199" s="21">
+        <f>_input!C200</f>
+        <v>0</v>
+      </c>
+      <c r="B199" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C199" s="20">
+        <f>VALUE(IF(_input!$A200=0,0,_input!$A200*100/_input!$B200))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A200" s="21">
+        <f>_input!C201</f>
+        <v>0</v>
+      </c>
+      <c r="B200" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C200" s="20">
+        <f>VALUE(IF(_input!$A201=0,0,_input!$A201*100/_input!$B201))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A201" s="21">
+        <f>_input!C202</f>
+        <v>0</v>
+      </c>
+      <c r="B201" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C201" s="20">
+        <f>VALUE(IF(_input!$A202=0,0,_input!$A202*100/_input!$B202))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A202" s="21">
+        <f>_input!C203</f>
+        <v>0</v>
+      </c>
+      <c r="B202" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C202" s="20">
+        <f>VALUE(IF(_input!$A203=0,0,_input!$A203*100/_input!$B203))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A203" s="21">
+        <f>_input!C204</f>
+        <v>0</v>
+      </c>
+      <c r="B203" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C203" s="20">
+        <f>VALUE(IF(_input!$A204=0,0,_input!$A204*100/_input!$B204))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A204" s="21">
+        <f>_input!C205</f>
+        <v>0</v>
+      </c>
+      <c r="B204" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C204" s="20">
+        <f>VALUE(IF(_input!$A205=0,0,_input!$A205*100/_input!$B205))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A205" s="21">
+        <f>_input!C206</f>
+        <v>0</v>
+      </c>
+      <c r="B205" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C205" s="20">
+        <f>VALUE(IF(_input!$A206=0,0,_input!$A206*100/_input!$B206))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A206" s="21">
+        <f>_input!C207</f>
+        <v>0</v>
+      </c>
+      <c r="B206" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C206" s="20">
+        <f>VALUE(IF(_input!$A207=0,0,_input!$A207*100/_input!$B207))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A207" s="21">
+        <f>_input!C208</f>
+        <v>0</v>
+      </c>
+      <c r="B207" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C207" s="20">
+        <f>VALUE(IF(_input!$A208=0,0,_input!$A208*100/_input!$B208))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A208" s="21">
+        <f>_input!C209</f>
+        <v>0</v>
+      </c>
+      <c r="B208" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C208" s="20">
+        <f>VALUE(IF(_input!$A209=0,0,_input!$A209*100/_input!$B209))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A209" s="21">
+        <f>_input!C210</f>
+        <v>0</v>
+      </c>
+      <c r="B209" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C209" s="20">
+        <f>VALUE(IF(_input!$A210=0,0,_input!$A210*100/_input!$B210))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A210" s="21">
+        <f>_input!C211</f>
+        <v>0</v>
+      </c>
+      <c r="B210" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C210" s="20">
+        <f>VALUE(IF(_input!$A211=0,0,_input!$A211*100/_input!$B211))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A211" s="21">
+        <f>_input!C212</f>
+        <v>0</v>
+      </c>
+      <c r="B211" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C211" s="20">
+        <f>VALUE(IF(_input!$A212=0,0,_input!$A212*100/_input!$B212))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A212" s="21">
+        <f>_input!C213</f>
+        <v>0</v>
+      </c>
+      <c r="B212" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C212" s="20">
+        <f>VALUE(IF(_input!$A213=0,0,_input!$A213*100/_input!$B213))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A213" s="21">
+        <f>_input!C214</f>
+        <v>0</v>
+      </c>
+      <c r="B213" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C213" s="20">
+        <f>VALUE(IF(_input!$A214=0,0,_input!$A214*100/_input!$B214))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A214" s="21">
+        <f>_input!C215</f>
+        <v>0</v>
+      </c>
+      <c r="B214" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C214" s="20">
+        <f>VALUE(IF(_input!$A215=0,0,_input!$A215*100/_input!$B215))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A215" s="21">
+        <f>_input!C216</f>
+        <v>0</v>
+      </c>
+      <c r="B215" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C215" s="20">
+        <f>VALUE(IF(_input!$A216=0,0,_input!$A216*100/_input!$B216))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A216" s="21">
+        <f>_input!C217</f>
+        <v>0</v>
+      </c>
+      <c r="B216" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C216" s="20">
+        <f>VALUE(IF(_input!$A217=0,0,_input!$A217*100/_input!$B217))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A217" s="21">
+        <f>_input!C218</f>
+        <v>0</v>
+      </c>
+      <c r="B217" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C217" s="20">
+        <f>VALUE(IF(_input!$A218=0,0,_input!$A218*100/_input!$B218))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A218" s="21">
+        <f>_input!C219</f>
+        <v>0</v>
+      </c>
+      <c r="B218" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C218" s="20">
+        <f>VALUE(IF(_input!$A219=0,0,_input!$A219*100/_input!$B219))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A219" s="21">
+        <f>_input!C220</f>
+        <v>0</v>
+      </c>
+      <c r="B219" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C219" s="20">
+        <f>VALUE(IF(_input!$A220=0,0,_input!$A220*100/_input!$B220))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A220" s="21">
+        <f>_input!C221</f>
+        <v>0</v>
+      </c>
+      <c r="B220" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C220" s="20">
+        <f>VALUE(IF(_input!$A221=0,0,_input!$A221*100/_input!$B221))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A221" s="21">
+        <f>_input!C222</f>
+        <v>0</v>
+      </c>
+      <c r="B221" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C221" s="20">
+        <f>VALUE(IF(_input!$A222=0,0,_input!$A222*100/_input!$B222))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A222" s="21">
+        <f>_input!C223</f>
+        <v>0</v>
+      </c>
+      <c r="B222" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C222" s="20">
+        <f>VALUE(IF(_input!$A223=0,0,_input!$A223*100/_input!$B223))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A223" s="21">
+        <f>_input!C224</f>
+        <v>0</v>
+      </c>
+      <c r="B223" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C223" s="20">
+        <f>VALUE(IF(_input!$A224=0,0,_input!$A224*100/_input!$B224))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A224" s="21">
+        <f>_input!C225</f>
+        <v>0</v>
+      </c>
+      <c r="B224" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C224" s="20">
+        <f>VALUE(IF(_input!$A225=0,0,_input!$A225*100/_input!$B225))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A225" s="21">
+        <f>_input!C226</f>
+        <v>0</v>
+      </c>
+      <c r="B225" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C225" s="20">
+        <f>VALUE(IF(_input!$A226=0,0,_input!$A226*100/_input!$B226))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A226" s="21">
+        <f>_input!C227</f>
+        <v>0</v>
+      </c>
+      <c r="B226" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C226" s="20">
+        <f>VALUE(IF(_input!$A227=0,0,_input!$A227*100/_input!$B227))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A227" s="21">
+        <f>_input!C228</f>
+        <v>0</v>
+      </c>
+      <c r="B227" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C227" s="20">
+        <f>VALUE(IF(_input!$A228=0,0,_input!$A228*100/_input!$B228))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A228" s="21">
+        <f>_input!C229</f>
+        <v>0</v>
+      </c>
+      <c r="B228" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C228" s="20">
+        <f>VALUE(IF(_input!$A229=0,0,_input!$A229*100/_input!$B229))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A229" s="21">
+        <f>_input!C230</f>
+        <v>0</v>
+      </c>
+      <c r="B229" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C229" s="20">
+        <f>VALUE(IF(_input!$A230=0,0,_input!$A230*100/_input!$B230))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A230" s="21">
+        <f>_input!C231</f>
+        <v>0</v>
+      </c>
+      <c r="B230" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C230" s="20">
+        <f>VALUE(IF(_input!$A231=0,0,_input!$A231*100/_input!$B231))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A231" s="21">
+        <f>_input!C232</f>
+        <v>0</v>
+      </c>
+      <c r="B231" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C231" s="20">
+        <f>VALUE(IF(_input!$A232=0,0,_input!$A232*100/_input!$B232))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A232" s="21">
+        <f>_input!C233</f>
+        <v>0</v>
+      </c>
+      <c r="B232" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C232" s="20">
+        <f>VALUE(IF(_input!$A233=0,0,_input!$A233*100/_input!$B233))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A233" s="21">
+        <f>_input!C234</f>
+        <v>0</v>
+      </c>
+      <c r="B233" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C233" s="20">
+        <f>VALUE(IF(_input!$A234=0,0,_input!$A234*100/_input!$B234))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A234" s="21">
+        <f>_input!C235</f>
+        <v>0</v>
+      </c>
+      <c r="B234" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C234" s="20">
+        <f>VALUE(IF(_input!$A235=0,0,_input!$A235*100/_input!$B235))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A235" s="21">
+        <f>_input!C236</f>
+        <v>0</v>
+      </c>
+      <c r="B235" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C235" s="20">
+        <f>VALUE(IF(_input!$A236=0,0,_input!$A236*100/_input!$B236))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A236" s="21">
+        <f>_input!C237</f>
+        <v>0</v>
+      </c>
+      <c r="B236" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C236" s="20">
+        <f>VALUE(IF(_input!$A237=0,0,_input!$A237*100/_input!$B237))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A237" s="21">
+        <f>_input!C238</f>
+        <v>0</v>
+      </c>
+      <c r="B237" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C237" s="20">
+        <f>VALUE(IF(_input!$A238=0,0,_input!$A238*100/_input!$B238))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A238" s="21">
+        <f>_input!C239</f>
+        <v>0</v>
+      </c>
+      <c r="B238" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C238" s="20">
+        <f>VALUE(IF(_input!$A239=0,0,_input!$A239*100/_input!$B239))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A239" s="21">
+        <f>_input!C240</f>
+        <v>0</v>
+      </c>
+      <c r="B239" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C239" s="20">
+        <f>VALUE(IF(_input!$A240=0,0,_input!$A240*100/_input!$B240))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A240" s="21">
+        <f>_input!C241</f>
+        <v>0</v>
+      </c>
+      <c r="B240" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C240" s="20">
+        <f>VALUE(IF(_input!$A241=0,0,_input!$A241*100/_input!$B241))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A241" s="21">
+        <f>_input!C242</f>
+        <v>0</v>
+      </c>
+      <c r="B241" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C241" s="20">
+        <f>VALUE(IF(_input!$A242=0,0,_input!$A242*100/_input!$B242))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A242" s="21">
+        <f>_input!C243</f>
+        <v>0</v>
+      </c>
+      <c r="B242" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C242" s="20">
+        <f>VALUE(IF(_input!$A243=0,0,_input!$A243*100/_input!$B243))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A243" s="21">
+        <f>_input!C244</f>
+        <v>0</v>
+      </c>
+      <c r="B243" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C243" s="20">
+        <f>VALUE(IF(_input!$A244=0,0,_input!$A244*100/_input!$B244))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A244" s="21">
+        <f>_input!C245</f>
+        <v>0</v>
+      </c>
+      <c r="B244" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C244" s="20">
+        <f>VALUE(IF(_input!$A245=0,0,_input!$A245*100/_input!$B245))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A245" s="21">
+        <f>_input!C246</f>
+        <v>0</v>
+      </c>
+      <c r="B245" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C245" s="20">
+        <f>VALUE(IF(_input!$A246=0,0,_input!$A246*100/_input!$B246))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A246" s="21">
+        <f>_input!C247</f>
+        <v>0</v>
+      </c>
+      <c r="B246" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C246" s="20">
+        <f>VALUE(IF(_input!$A247=0,0,_input!$A247*100/_input!$B247))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A247" s="21">
+        <f>_input!C248</f>
+        <v>0</v>
+      </c>
+      <c r="B247" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C247" s="20">
+        <f>VALUE(IF(_input!$A248=0,0,_input!$A248*100/_input!$B248))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A248" s="21">
+        <f>_input!C249</f>
+        <v>0</v>
+      </c>
+      <c r="B248" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C248" s="20">
+        <f>VALUE(IF(_input!$A249=0,0,_input!$A249*100/_input!$B249))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A249" s="21">
+        <f>_input!C250</f>
+        <v>0</v>
+      </c>
+      <c r="B249" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C249" s="20">
+        <f>VALUE(IF(_input!$A250=0,0,_input!$A250*100/_input!$B250))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A250" s="21">
+        <f>_input!C251</f>
+        <v>0</v>
+      </c>
+      <c r="B250" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C250" s="20">
+        <f>VALUE(IF(_input!$A251=0,0,_input!$A251*100/_input!$B251))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A251" s="21">
+        <f>_input!C252</f>
+        <v>0</v>
+      </c>
+      <c r="B251" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C251" s="20">
+        <f>VALUE(IF(_input!$A252=0,0,_input!$A252*100/_input!$B252))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A252" s="21">
+        <f>_input!C253</f>
+        <v>0</v>
+      </c>
+      <c r="B252" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C252" s="20">
+        <f>VALUE(IF(_input!$A253=0,0,_input!$A253*100/_input!$B253))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A253" s="21">
+        <f>_input!C254</f>
+        <v>0</v>
+      </c>
+      <c r="B253" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C253" s="20">
+        <f>VALUE(IF(_input!$A254=0,0,_input!$A254*100/_input!$B254))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A254" s="21">
+        <f>_input!C255</f>
+        <v>0</v>
+      </c>
+      <c r="B254" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C254" s="20">
+        <f>VALUE(IF(_input!$A255=0,0,_input!$A255*100/_input!$B255))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A255" s="21">
+        <f>_input!C256</f>
+        <v>0</v>
+      </c>
+      <c r="B255" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C255" s="20">
+        <f>VALUE(IF(_input!$A256=0,0,_input!$A256*100/_input!$B256))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A256" s="21">
+        <f>_input!C257</f>
+        <v>0</v>
+      </c>
+      <c r="B256" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C256" s="20">
+        <f>VALUE(IF(_input!$A257=0,0,_input!$A257*100/_input!$B257))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A257" s="21">
+        <f>_input!C258</f>
+        <v>0</v>
+      </c>
+      <c r="B257" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C257" s="20">
+        <f>VALUE(IF(_input!$A258=0,0,_input!$A258*100/_input!$B258))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A258" s="21">
+        <f>_input!C259</f>
+        <v>0</v>
+      </c>
+      <c r="B258" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C258" s="20">
+        <f>VALUE(IF(_input!$A259=0,0,_input!$A259*100/_input!$B259))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A259" s="21">
+        <f>_input!C260</f>
+        <v>0</v>
+      </c>
+      <c r="B259" s="25">
+        <f t="shared" ref="B259:B322" si="4">$C259</f>
+        <v>0</v>
+      </c>
+      <c r="C259" s="20">
+        <f>VALUE(IF(_input!$A260=0,0,_input!$A260*100/_input!$B260))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A260" s="21">
+        <f>_input!C261</f>
+        <v>0</v>
+      </c>
+      <c r="B260" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C260" s="20">
+        <f>VALUE(IF(_input!$A261=0,0,_input!$A261*100/_input!$B261))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A261" s="21">
+        <f>_input!C262</f>
+        <v>0</v>
+      </c>
+      <c r="B261" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C261" s="20">
+        <f>VALUE(IF(_input!$A262=0,0,_input!$A262*100/_input!$B262))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A262" s="21">
+        <f>_input!C263</f>
+        <v>0</v>
+      </c>
+      <c r="B262" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C262" s="20">
+        <f>VALUE(IF(_input!$A263=0,0,_input!$A263*100/_input!$B263))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A263" s="21">
+        <f>_input!C264</f>
+        <v>0</v>
+      </c>
+      <c r="B263" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C263" s="20">
+        <f>VALUE(IF(_input!$A264=0,0,_input!$A264*100/_input!$B264))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A264" s="21">
+        <f>_input!C265</f>
+        <v>0</v>
+      </c>
+      <c r="B264" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C264" s="20">
+        <f>VALUE(IF(_input!$A265=0,0,_input!$A265*100/_input!$B265))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A265" s="21">
+        <f>_input!C266</f>
+        <v>0</v>
+      </c>
+      <c r="B265" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C265" s="20">
+        <f>VALUE(IF(_input!$A266=0,0,_input!$A266*100/_input!$B266))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A266" s="21">
+        <f>_input!C267</f>
+        <v>0</v>
+      </c>
+      <c r="B266" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C266" s="20">
+        <f>VALUE(IF(_input!$A267=0,0,_input!$A267*100/_input!$B267))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A267" s="21">
+        <f>_input!C268</f>
+        <v>0</v>
+      </c>
+      <c r="B267" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C267" s="20">
+        <f>VALUE(IF(_input!$A268=0,0,_input!$A268*100/_input!$B268))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A268" s="21">
+        <f>_input!C269</f>
+        <v>0</v>
+      </c>
+      <c r="B268" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C268" s="20">
+        <f>VALUE(IF(_input!$A269=0,0,_input!$A269*100/_input!$B269))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A269" s="21">
+        <f>_input!C270</f>
+        <v>0</v>
+      </c>
+      <c r="B269" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C269" s="20">
+        <f>VALUE(IF(_input!$A270=0,0,_input!$A270*100/_input!$B270))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A270" s="21">
+        <f>_input!C271</f>
+        <v>0</v>
+      </c>
+      <c r="B270" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C270" s="20">
+        <f>VALUE(IF(_input!$A271=0,0,_input!$A271*100/_input!$B271))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A271" s="21">
+        <f>_input!C272</f>
+        <v>0</v>
+      </c>
+      <c r="B271" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C271" s="20">
+        <f>VALUE(IF(_input!$A272=0,0,_input!$A272*100/_input!$B272))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A272" s="21">
+        <f>_input!C273</f>
+        <v>0</v>
+      </c>
+      <c r="B272" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C272" s="20">
+        <f>VALUE(IF(_input!$A273=0,0,_input!$A273*100/_input!$B273))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A273" s="21">
+        <f>_input!C274</f>
+        <v>0</v>
+      </c>
+      <c r="B273" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C273" s="20">
+        <f>VALUE(IF(_input!$A274=0,0,_input!$A274*100/_input!$B274))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A274" s="21">
+        <f>_input!C275</f>
+        <v>0</v>
+      </c>
+      <c r="B274" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C274" s="20">
+        <f>VALUE(IF(_input!$A275=0,0,_input!$A275*100/_input!$B275))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A275" s="21">
+        <f>_input!C276</f>
+        <v>0</v>
+      </c>
+      <c r="B275" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C275" s="20">
+        <f>VALUE(IF(_input!$A276=0,0,_input!$A276*100/_input!$B276))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A276" s="21">
+        <f>_input!C277</f>
+        <v>0</v>
+      </c>
+      <c r="B276" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C276" s="20">
+        <f>VALUE(IF(_input!$A277=0,0,_input!$A277*100/_input!$B277))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A277" s="21">
+        <f>_input!C278</f>
+        <v>0</v>
+      </c>
+      <c r="B277" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C277" s="20">
+        <f>VALUE(IF(_input!$A278=0,0,_input!$A278*100/_input!$B278))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A278" s="21">
+        <f>_input!C279</f>
+        <v>0</v>
+      </c>
+      <c r="B278" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C278" s="20">
+        <f>VALUE(IF(_input!$A279=0,0,_input!$A279*100/_input!$B279))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A279" s="21">
+        <f>_input!C280</f>
+        <v>0</v>
+      </c>
+      <c r="B279" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C279" s="20">
+        <f>VALUE(IF(_input!$A280=0,0,_input!$A280*100/_input!$B280))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A280" s="21">
+        <f>_input!C281</f>
+        <v>0</v>
+      </c>
+      <c r="B280" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C280" s="20">
+        <f>VALUE(IF(_input!$A281=0,0,_input!$A281*100/_input!$B281))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A281" s="21">
+        <f>_input!C282</f>
+        <v>0</v>
+      </c>
+      <c r="B281" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C281" s="20">
+        <f>VALUE(IF(_input!$A282=0,0,_input!$A282*100/_input!$B282))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A282" s="21">
+        <f>_input!C283</f>
+        <v>0</v>
+      </c>
+      <c r="B282" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C282" s="20">
+        <f>VALUE(IF(_input!$A283=0,0,_input!$A283*100/_input!$B283))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A283" s="21">
+        <f>_input!C284</f>
+        <v>0</v>
+      </c>
+      <c r="B283" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C283" s="20">
+        <f>VALUE(IF(_input!$A284=0,0,_input!$A284*100/_input!$B284))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A284" s="21">
+        <f>_input!C285</f>
+        <v>0</v>
+      </c>
+      <c r="B284" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C284" s="20">
+        <f>VALUE(IF(_input!$A285=0,0,_input!$A285*100/_input!$B285))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A285" s="21">
+        <f>_input!C286</f>
+        <v>0</v>
+      </c>
+      <c r="B285" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C285" s="20">
+        <f>VALUE(IF(_input!$A286=0,0,_input!$A286*100/_input!$B286))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A286" s="21">
+        <f>_input!C287</f>
+        <v>0</v>
+      </c>
+      <c r="B286" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C286" s="20">
+        <f>VALUE(IF(_input!$A287=0,0,_input!$A287*100/_input!$B287))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A287" s="21">
+        <f>_input!C288</f>
+        <v>0</v>
+      </c>
+      <c r="B287" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C287" s="20">
+        <f>VALUE(IF(_input!$A288=0,0,_input!$A288*100/_input!$B288))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A288" s="21">
+        <f>_input!C289</f>
+        <v>0</v>
+      </c>
+      <c r="B288" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C288" s="20">
+        <f>VALUE(IF(_input!$A289=0,0,_input!$A289*100/_input!$B289))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A289" s="21">
+        <f>_input!C290</f>
+        <v>0</v>
+      </c>
+      <c r="B289" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C289" s="20">
+        <f>VALUE(IF(_input!$A290=0,0,_input!$A290*100/_input!$B290))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A290" s="21">
+        <f>_input!C291</f>
+        <v>0</v>
+      </c>
+      <c r="B290" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C290" s="20">
+        <f>VALUE(IF(_input!$A291=0,0,_input!$A291*100/_input!$B291))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A291" s="21">
+        <f>_input!C292</f>
+        <v>0</v>
+      </c>
+      <c r="B291" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C291" s="20">
+        <f>VALUE(IF(_input!$A292=0,0,_input!$A292*100/_input!$B292))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A292" s="21">
+        <f>_input!C293</f>
+        <v>0</v>
+      </c>
+      <c r="B292" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C292" s="20">
+        <f>VALUE(IF(_input!$A293=0,0,_input!$A293*100/_input!$B293))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A293" s="21">
+        <f>_input!C294</f>
+        <v>0</v>
+      </c>
+      <c r="B293" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C293" s="20">
+        <f>VALUE(IF(_input!$A294=0,0,_input!$A294*100/_input!$B294))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A294" s="21">
+        <f>_input!C295</f>
+        <v>0</v>
+      </c>
+      <c r="B294" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C294" s="20">
+        <f>VALUE(IF(_input!$A295=0,0,_input!$A295*100/_input!$B295))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A295" s="21">
+        <f>_input!C296</f>
+        <v>0</v>
+      </c>
+      <c r="B295" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C295" s="20">
+        <f>VALUE(IF(_input!$A296=0,0,_input!$A296*100/_input!$B296))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A296" s="21">
+        <f>_input!C297</f>
+        <v>0</v>
+      </c>
+      <c r="B296" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C296" s="20">
+        <f>VALUE(IF(_input!$A297=0,0,_input!$A297*100/_input!$B297))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A297" s="21">
+        <f>_input!C298</f>
+        <v>0</v>
+      </c>
+      <c r="B297" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C297" s="20">
+        <f>VALUE(IF(_input!$A298=0,0,_input!$A298*100/_input!$B298))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A298" s="21">
+        <f>_input!C299</f>
+        <v>0</v>
+      </c>
+      <c r="B298" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C298" s="20">
+        <f>VALUE(IF(_input!$A299=0,0,_input!$A299*100/_input!$B299))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A299" s="21">
+        <f>_input!C300</f>
+        <v>0</v>
+      </c>
+      <c r="B299" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C299" s="20">
+        <f>VALUE(IF(_input!$A300=0,0,_input!$A300*100/_input!$B300))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A300" s="21">
+        <f>_input!C301</f>
+        <v>0</v>
+      </c>
+      <c r="B300" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C300" s="20">
+        <f>VALUE(IF(_input!$A301=0,0,_input!$A301*100/_input!$B301))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A301" s="21">
+        <f>_input!C302</f>
+        <v>0</v>
+      </c>
+      <c r="B301" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C301" s="20">
+        <f>VALUE(IF(_input!$A302=0,0,_input!$A302*100/_input!$B302))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A302" s="21">
+        <f>_input!C303</f>
+        <v>0</v>
+      </c>
+      <c r="B302" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C302" s="20">
+        <f>VALUE(IF(_input!$A303=0,0,_input!$A303*100/_input!$B303))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A303" s="21">
+        <f>_input!C304</f>
+        <v>0</v>
+      </c>
+      <c r="B303" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C303" s="20">
+        <f>VALUE(IF(_input!$A304=0,0,_input!$A304*100/_input!$B304))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A304" s="21">
+        <f>_input!C305</f>
+        <v>0</v>
+      </c>
+      <c r="B304" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C304" s="20">
+        <f>VALUE(IF(_input!$A305=0,0,_input!$A305*100/_input!$B305))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A305" s="21">
+        <f>_input!C306</f>
+        <v>0</v>
+      </c>
+      <c r="B305" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C305" s="20">
+        <f>VALUE(IF(_input!$A306=0,0,_input!$A306*100/_input!$B306))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A306" s="21">
+        <f>_input!C307</f>
+        <v>0</v>
+      </c>
+      <c r="B306" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C306" s="20">
+        <f>VALUE(IF(_input!$A307=0,0,_input!$A307*100/_input!$B307))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A307" s="21">
+        <f>_input!C308</f>
+        <v>0</v>
+      </c>
+      <c r="B307" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C307" s="20">
+        <f>VALUE(IF(_input!$A308=0,0,_input!$A308*100/_input!$B308))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A308" s="21">
+        <f>_input!C309</f>
+        <v>0</v>
+      </c>
+      <c r="B308" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C308" s="20">
+        <f>VALUE(IF(_input!$A309=0,0,_input!$A309*100/_input!$B309))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A309" s="21">
+        <f>_input!C310</f>
+        <v>0</v>
+      </c>
+      <c r="B309" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C309" s="20">
+        <f>VALUE(IF(_input!$A310=0,0,_input!$A310*100/_input!$B310))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A310" s="21">
+        <f>_input!C311</f>
+        <v>0</v>
+      </c>
+      <c r="B310" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C310" s="20">
+        <f>VALUE(IF(_input!$A311=0,0,_input!$A311*100/_input!$B311))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A311" s="21">
+        <f>_input!C312</f>
+        <v>0</v>
+      </c>
+      <c r="B311" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C311" s="20">
+        <f>VALUE(IF(_input!$A312=0,0,_input!$A312*100/_input!$B312))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A312" s="21">
+        <f>_input!C313</f>
+        <v>0</v>
+      </c>
+      <c r="B312" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C312" s="20">
+        <f>VALUE(IF(_input!$A313=0,0,_input!$A313*100/_input!$B313))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A313" s="21">
+        <f>_input!C314</f>
+        <v>0</v>
+      </c>
+      <c r="B313" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C313" s="20">
+        <f>VALUE(IF(_input!$A314=0,0,_input!$A314*100/_input!$B314))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A314" s="21">
+        <f>_input!C315</f>
+        <v>0</v>
+      </c>
+      <c r="B314" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C314" s="20">
+        <f>VALUE(IF(_input!$A315=0,0,_input!$A315*100/_input!$B315))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A315" s="21">
+        <f>_input!C316</f>
+        <v>0</v>
+      </c>
+      <c r="B315" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C315" s="20">
+        <f>VALUE(IF(_input!$A316=0,0,_input!$A316*100/_input!$B316))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A316" s="21">
+        <f>_input!C317</f>
+        <v>0</v>
+      </c>
+      <c r="B316" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C316" s="20">
+        <f>VALUE(IF(_input!$A317=0,0,_input!$A317*100/_input!$B317))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A317" s="21">
+        <f>_input!C318</f>
+        <v>0</v>
+      </c>
+      <c r="B317" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C317" s="20">
+        <f>VALUE(IF(_input!$A318=0,0,_input!$A318*100/_input!$B318))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A318" s="21">
+        <f>_input!C319</f>
+        <v>0</v>
+      </c>
+      <c r="B318" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C318" s="20">
+        <f>VALUE(IF(_input!$A319=0,0,_input!$A319*100/_input!$B319))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A319" s="21">
+        <f>_input!C320</f>
+        <v>0</v>
+      </c>
+      <c r="B319" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C319" s="20">
+        <f>VALUE(IF(_input!$A320=0,0,_input!$A320*100/_input!$B320))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A320" s="21">
+        <f>_input!C321</f>
+        <v>0</v>
+      </c>
+      <c r="B320" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C320" s="20">
+        <f>VALUE(IF(_input!$A321=0,0,_input!$A321*100/_input!$B321))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A321" s="21">
+        <f>_input!C322</f>
+        <v>0</v>
+      </c>
+      <c r="B321" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C321" s="20">
+        <f>VALUE(IF(_input!$A322=0,0,_input!$A322*100/_input!$B322))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A322" s="21">
+        <f>_input!C323</f>
+        <v>0</v>
+      </c>
+      <c r="B322" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C322" s="20">
+        <f>VALUE(IF(_input!$A323=0,0,_input!$A323*100/_input!$B323))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A323" s="21">
+        <f>_input!C324</f>
+        <v>0</v>
+      </c>
+      <c r="B323" s="25">
+        <f t="shared" ref="B323:B386" si="5">$C323</f>
+        <v>0</v>
+      </c>
+      <c r="C323" s="20">
+        <f>VALUE(IF(_input!$A324=0,0,_input!$A324*100/_input!$B324))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A324" s="21">
+        <f>_input!C325</f>
+        <v>0</v>
+      </c>
+      <c r="B324" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C324" s="20">
+        <f>VALUE(IF(_input!$A325=0,0,_input!$A325*100/_input!$B325))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A325" s="21">
+        <f>_input!C326</f>
+        <v>0</v>
+      </c>
+      <c r="B325" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C325" s="20">
+        <f>VALUE(IF(_input!$A326=0,0,_input!$A326*100/_input!$B326))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A326" s="21">
+        <f>_input!C327</f>
+        <v>0</v>
+      </c>
+      <c r="B326" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C326" s="20">
+        <f>VALUE(IF(_input!$A327=0,0,_input!$A327*100/_input!$B327))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A327" s="21">
+        <f>_input!C328</f>
+        <v>0</v>
+      </c>
+      <c r="B327" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C327" s="20">
+        <f>VALUE(IF(_input!$A328=0,0,_input!$A328*100/_input!$B328))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A328" s="21">
+        <f>_input!C329</f>
+        <v>0</v>
+      </c>
+      <c r="B328" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C328" s="20">
+        <f>VALUE(IF(_input!$A329=0,0,_input!$A329*100/_input!$B329))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A329" s="21">
+        <f>_input!C330</f>
+        <v>0</v>
+      </c>
+      <c r="B329" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C329" s="20">
+        <f>VALUE(IF(_input!$A330=0,0,_input!$A330*100/_input!$B330))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A330" s="21">
+        <f>_input!C331</f>
+        <v>0</v>
+      </c>
+      <c r="B330" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C330" s="20">
+        <f>VALUE(IF(_input!$A331=0,0,_input!$A331*100/_input!$B331))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A331" s="21">
+        <f>_input!C332</f>
+        <v>0</v>
+      </c>
+      <c r="B331" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C331" s="20">
+        <f>VALUE(IF(_input!$A332=0,0,_input!$A332*100/_input!$B332))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A332" s="21">
+        <f>_input!C333</f>
+        <v>0</v>
+      </c>
+      <c r="B332" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C332" s="20">
+        <f>VALUE(IF(_input!$A333=0,0,_input!$A333*100/_input!$B333))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A333" s="21">
+        <f>_input!C334</f>
+        <v>0</v>
+      </c>
+      <c r="B333" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C333" s="20">
+        <f>VALUE(IF(_input!$A334=0,0,_input!$A334*100/_input!$B334))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A334" s="21">
+        <f>_input!C335</f>
+        <v>0</v>
+      </c>
+      <c r="B334" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C334" s="20">
+        <f>VALUE(IF(_input!$A335=0,0,_input!$A335*100/_input!$B335))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A335" s="21">
+        <f>_input!C336</f>
+        <v>0</v>
+      </c>
+      <c r="B335" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C335" s="20">
+        <f>VALUE(IF(_input!$A336=0,0,_input!$A336*100/_input!$B336))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A336" s="21">
+        <f>_input!C337</f>
+        <v>0</v>
+      </c>
+      <c r="B336" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C336" s="20">
+        <f>VALUE(IF(_input!$A337=0,0,_input!$A337*100/_input!$B337))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A337" s="21">
+        <f>_input!C338</f>
+        <v>0</v>
+      </c>
+      <c r="B337" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C337" s="20">
+        <f>VALUE(IF(_input!$A338=0,0,_input!$A338*100/_input!$B338))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A338" s="21">
+        <f>_input!C339</f>
+        <v>0</v>
+      </c>
+      <c r="B338" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C338" s="20">
+        <f>VALUE(IF(_input!$A339=0,0,_input!$A339*100/_input!$B339))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A339" s="21">
+        <f>_input!C340</f>
+        <v>0</v>
+      </c>
+      <c r="B339" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C339" s="20">
+        <f>VALUE(IF(_input!$A340=0,0,_input!$A340*100/_input!$B340))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A340" s="21">
+        <f>_input!C341</f>
+        <v>0</v>
+      </c>
+      <c r="B340" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C340" s="20">
+        <f>VALUE(IF(_input!$A341=0,0,_input!$A341*100/_input!$B341))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A341" s="21">
+        <f>_input!C342</f>
+        <v>0</v>
+      </c>
+      <c r="B341" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C341" s="20">
+        <f>VALUE(IF(_input!$A342=0,0,_input!$A342*100/_input!$B342))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A342" s="21">
+        <f>_input!C343</f>
+        <v>0</v>
+      </c>
+      <c r="B342" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C342" s="20">
+        <f>VALUE(IF(_input!$A343=0,0,_input!$A343*100/_input!$B343))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A343" s="21">
+        <f>_input!C344</f>
+        <v>0</v>
+      </c>
+      <c r="B343" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C343" s="20">
+        <f>VALUE(IF(_input!$A344=0,0,_input!$A344*100/_input!$B344))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A344" s="21">
+        <f>_input!C345</f>
+        <v>0</v>
+      </c>
+      <c r="B344" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C344" s="20">
+        <f>VALUE(IF(_input!$A345=0,0,_input!$A345*100/_input!$B345))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A345" s="21">
+        <f>_input!C346</f>
+        <v>0</v>
+      </c>
+      <c r="B345" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C345" s="20">
+        <f>VALUE(IF(_input!$A346=0,0,_input!$A346*100/_input!$B346))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A346" s="21">
+        <f>_input!C347</f>
+        <v>0</v>
+      </c>
+      <c r="B346" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C346" s="20">
+        <f>VALUE(IF(_input!$A347=0,0,_input!$A347*100/_input!$B347))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A347" s="21">
+        <f>_input!C348</f>
+        <v>0</v>
+      </c>
+      <c r="B347" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C347" s="20">
+        <f>VALUE(IF(_input!$A348=0,0,_input!$A348*100/_input!$B348))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A348" s="21">
+        <f>_input!C349</f>
+        <v>0</v>
+      </c>
+      <c r="B348" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C348" s="20">
+        <f>VALUE(IF(_input!$A349=0,0,_input!$A349*100/_input!$B349))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A349" s="21">
+        <f>_input!C350</f>
+        <v>0</v>
+      </c>
+      <c r="B349" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C349" s="20">
+        <f>VALUE(IF(_input!$A350=0,0,_input!$A350*100/_input!$B350))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A350" s="21">
+        <f>_input!C351</f>
+        <v>0</v>
+      </c>
+      <c r="B350" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C350" s="20">
+        <f>VALUE(IF(_input!$A351=0,0,_input!$A351*100/_input!$B351))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A351" s="21">
+        <f>_input!C352</f>
+        <v>0</v>
+      </c>
+      <c r="B351" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C351" s="20">
+        <f>VALUE(IF(_input!$A352=0,0,_input!$A352*100/_input!$B352))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A352" s="21">
+        <f>_input!C353</f>
+        <v>0</v>
+      </c>
+      <c r="B352" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C352" s="20">
+        <f>VALUE(IF(_input!$A353=0,0,_input!$A353*100/_input!$B353))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A353" s="21">
+        <f>_input!C354</f>
+        <v>0</v>
+      </c>
+      <c r="B353" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C353" s="20">
+        <f>VALUE(IF(_input!$A354=0,0,_input!$A354*100/_input!$B354))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A354" s="21">
+        <f>_input!C355</f>
+        <v>0</v>
+      </c>
+      <c r="B354" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C354" s="20">
+        <f>VALUE(IF(_input!$A355=0,0,_input!$A355*100/_input!$B355))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A355" s="21">
+        <f>_input!C356</f>
+        <v>0</v>
+      </c>
+      <c r="B355" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C355" s="20">
+        <f>VALUE(IF(_input!$A356=0,0,_input!$A356*100/_input!$B356))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A356" s="21">
+        <f>_input!C357</f>
+        <v>0</v>
+      </c>
+      <c r="B356" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C356" s="20">
+        <f>VALUE(IF(_input!$A357=0,0,_input!$A357*100/_input!$B357))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A357" s="21">
+        <f>_input!C358</f>
+        <v>0</v>
+      </c>
+      <c r="B357" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C357" s="20">
+        <f>VALUE(IF(_input!$A358=0,0,_input!$A358*100/_input!$B358))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A358" s="21">
+        <f>_input!C359</f>
+        <v>0</v>
+      </c>
+      <c r="B358" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C358" s="20">
+        <f>VALUE(IF(_input!$A359=0,0,_input!$A359*100/_input!$B359))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A359" s="21">
+        <f>_input!C360</f>
+        <v>0</v>
+      </c>
+      <c r="B359" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C359" s="20">
+        <f>VALUE(IF(_input!$A360=0,0,_input!$A360*100/_input!$B360))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A360" s="21">
+        <f>_input!C361</f>
+        <v>0</v>
+      </c>
+      <c r="B360" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C360" s="20">
+        <f>VALUE(IF(_input!$A361=0,0,_input!$A361*100/_input!$B361))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A361" s="21">
+        <f>_input!C362</f>
+        <v>0</v>
+      </c>
+      <c r="B361" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C361" s="20">
+        <f>VALUE(IF(_input!$A362=0,0,_input!$A362*100/_input!$B362))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A362" s="21">
+        <f>_input!C363</f>
+        <v>0</v>
+      </c>
+      <c r="B362" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C362" s="20">
+        <f>VALUE(IF(_input!$A363=0,0,_input!$A363*100/_input!$B363))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A363" s="21">
+        <f>_input!C364</f>
+        <v>0</v>
+      </c>
+      <c r="B363" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C363" s="20">
+        <f>VALUE(IF(_input!$A364=0,0,_input!$A364*100/_input!$B364))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A364" s="21">
+        <f>_input!C365</f>
+        <v>0</v>
+      </c>
+      <c r="B364" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C364" s="20">
+        <f>VALUE(IF(_input!$A365=0,0,_input!$A365*100/_input!$B365))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A365" s="21">
+        <f>_input!C366</f>
+        <v>0</v>
+      </c>
+      <c r="B365" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C365" s="20">
+        <f>VALUE(IF(_input!$A366=0,0,_input!$A366*100/_input!$B366))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A366" s="21">
+        <f>_input!C367</f>
+        <v>0</v>
+      </c>
+      <c r="B366" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C366" s="20">
+        <f>VALUE(IF(_input!$A367=0,0,_input!$A367*100/_input!$B367))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A367" s="21">
+        <f>_input!C368</f>
+        <v>0</v>
+      </c>
+      <c r="B367" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C367" s="20">
+        <f>VALUE(IF(_input!$A368=0,0,_input!$A368*100/_input!$B368))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A368" s="21">
+        <f>_input!C369</f>
+        <v>0</v>
+      </c>
+      <c r="B368" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C368" s="20">
+        <f>VALUE(IF(_input!$A369=0,0,_input!$A369*100/_input!$B369))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A369" s="21">
+        <f>_input!C370</f>
+        <v>0</v>
+      </c>
+      <c r="B369" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C369" s="20">
+        <f>VALUE(IF(_input!$A370=0,0,_input!$A370*100/_input!$B370))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A370" s="21">
+        <f>_input!C371</f>
+        <v>0</v>
+      </c>
+      <c r="B370" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C370" s="20">
+        <f>VALUE(IF(_input!$A371=0,0,_input!$A371*100/_input!$B371))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A371" s="21">
+        <f>_input!C372</f>
+        <v>0</v>
+      </c>
+      <c r="B371" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C371" s="20">
+        <f>VALUE(IF(_input!$A372=0,0,_input!$A372*100/_input!$B372))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A372" s="21">
+        <f>_input!C373</f>
+        <v>0</v>
+      </c>
+      <c r="B372" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C372" s="20">
+        <f>VALUE(IF(_input!$A373=0,0,_input!$A373*100/_input!$B373))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A373" s="21">
+        <f>_input!C374</f>
+        <v>0</v>
+      </c>
+      <c r="B373" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C373" s="20">
+        <f>VALUE(IF(_input!$A374=0,0,_input!$A374*100/_input!$B374))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A374" s="21">
+        <f>_input!C375</f>
+        <v>0</v>
+      </c>
+      <c r="B374" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C374" s="20">
+        <f>VALUE(IF(_input!$A375=0,0,_input!$A375*100/_input!$B375))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A375" s="21">
+        <f>_input!C376</f>
+        <v>0</v>
+      </c>
+      <c r="B375" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C375" s="20">
+        <f>VALUE(IF(_input!$A376=0,0,_input!$A376*100/_input!$B376))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A376" s="21">
+        <f>_input!C377</f>
+        <v>0</v>
+      </c>
+      <c r="B376" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C376" s="20">
+        <f>VALUE(IF(_input!$A377=0,0,_input!$A377*100/_input!$B377))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A377" s="21">
+        <f>_input!C378</f>
+        <v>0</v>
+      </c>
+      <c r="B377" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C377" s="20">
+        <f>VALUE(IF(_input!$A378=0,0,_input!$A378*100/_input!$B378))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A378" s="21">
+        <f>_input!C379</f>
+        <v>0</v>
+      </c>
+      <c r="B378" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C378" s="20">
+        <f>VALUE(IF(_input!$A379=0,0,_input!$A379*100/_input!$B379))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A379" s="21">
+        <f>_input!C380</f>
+        <v>0</v>
+      </c>
+      <c r="B379" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C379" s="20">
+        <f>VALUE(IF(_input!$A380=0,0,_input!$A380*100/_input!$B380))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A380" s="21">
+        <f>_input!C381</f>
+        <v>0</v>
+      </c>
+      <c r="B380" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C380" s="20">
+        <f>VALUE(IF(_input!$A381=0,0,_input!$A381*100/_input!$B381))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A381" s="21">
+        <f>_input!C382</f>
+        <v>0</v>
+      </c>
+      <c r="B381" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C381" s="20">
+        <f>VALUE(IF(_input!$A382=0,0,_input!$A382*100/_input!$B382))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A382" s="21">
+        <f>_input!C383</f>
+        <v>0</v>
+      </c>
+      <c r="B382" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C382" s="20">
+        <f>VALUE(IF(_input!$A383=0,0,_input!$A383*100/_input!$B383))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A383" s="21">
+        <f>_input!C384</f>
+        <v>0</v>
+      </c>
+      <c r="B383" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C383" s="20">
+        <f>VALUE(IF(_input!$A384=0,0,_input!$A384*100/_input!$B384))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A384" s="21">
+        <f>_input!C385</f>
+        <v>0</v>
+      </c>
+      <c r="B384" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C384" s="20">
+        <f>VALUE(IF(_input!$A385=0,0,_input!$A385*100/_input!$B385))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A385" s="21">
+        <f>_input!C386</f>
+        <v>0</v>
+      </c>
+      <c r="B385" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C385" s="20">
+        <f>VALUE(IF(_input!$A386=0,0,_input!$A386*100/_input!$B386))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A386" s="21">
+        <f>_input!C387</f>
+        <v>0</v>
+      </c>
+      <c r="B386" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C386" s="20">
+        <f>VALUE(IF(_input!$A387=0,0,_input!$A387*100/_input!$B387))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A387" s="21">
+        <f>_input!C388</f>
+        <v>0</v>
+      </c>
+      <c r="B387" s="25">
+        <f t="shared" ref="B387:B450" si="6">$C387</f>
+        <v>0</v>
+      </c>
+      <c r="C387" s="20">
+        <f>VALUE(IF(_input!$A388=0,0,_input!$A388*100/_input!$B388))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A388" s="21">
+        <f>_input!C389</f>
+        <v>0</v>
+      </c>
+      <c r="B388" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C388" s="20">
+        <f>VALUE(IF(_input!$A389=0,0,_input!$A389*100/_input!$B389))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A389" s="21">
+        <f>_input!C390</f>
+        <v>0</v>
+      </c>
+      <c r="B389" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C389" s="20">
+        <f>VALUE(IF(_input!$A390=0,0,_input!$A390*100/_input!$B390))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A390" s="21">
+        <f>_input!C391</f>
+        <v>0</v>
+      </c>
+      <c r="B390" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C390" s="20">
+        <f>VALUE(IF(_input!$A391=0,0,_input!$A391*100/_input!$B391))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A391" s="21">
+        <f>_input!C392</f>
+        <v>0</v>
+      </c>
+      <c r="B391" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C391" s="20">
+        <f>VALUE(IF(_input!$A392=0,0,_input!$A392*100/_input!$B392))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A392" s="21">
+        <f>_input!C393</f>
+        <v>0</v>
+      </c>
+      <c r="B392" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C392" s="20">
+        <f>VALUE(IF(_input!$A393=0,0,_input!$A393*100/_input!$B393))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A393" s="21">
+        <f>_input!C394</f>
+        <v>0</v>
+      </c>
+      <c r="B393" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C393" s="20">
+        <f>VALUE(IF(_input!$A394=0,0,_input!$A394*100/_input!$B394))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A394" s="21">
+        <f>_input!C395</f>
+        <v>0</v>
+      </c>
+      <c r="B394" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C394" s="20">
+        <f>VALUE(IF(_input!$A395=0,0,_input!$A395*100/_input!$B395))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A395" s="21">
+        <f>_input!C396</f>
+        <v>0</v>
+      </c>
+      <c r="B395" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C395" s="20">
+        <f>VALUE(IF(_input!$A396=0,0,_input!$A396*100/_input!$B396))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A396" s="21">
+        <f>_input!C397</f>
+        <v>0</v>
+      </c>
+      <c r="B396" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C396" s="20">
+        <f>VALUE(IF(_input!$A397=0,0,_input!$A397*100/_input!$B397))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A397" s="21">
+        <f>_input!C398</f>
+        <v>0</v>
+      </c>
+      <c r="B397" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C397" s="20">
+        <f>VALUE(IF(_input!$A398=0,0,_input!$A398*100/_input!$B398))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A398" s="21">
+        <f>_input!C399</f>
+        <v>0</v>
+      </c>
+      <c r="B398" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C398" s="20">
+        <f>VALUE(IF(_input!$A399=0,0,_input!$A399*100/_input!$B399))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A399" s="21">
+        <f>_input!C400</f>
+        <v>0</v>
+      </c>
+      <c r="B399" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C399" s="20">
+        <f>VALUE(IF(_input!$A400=0,0,_input!$A400*100/_input!$B400))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A400" s="21">
+        <f>_input!C401</f>
+        <v>0</v>
+      </c>
+      <c r="B400" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C400" s="20">
+        <f>VALUE(IF(_input!$A401=0,0,_input!$A401*100/_input!$B401))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A401" s="21">
+        <f>_input!C402</f>
+        <v>0</v>
+      </c>
+      <c r="B401" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C401" s="20">
+        <f>VALUE(IF(_input!$A402=0,0,_input!$A402*100/_input!$B402))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A402" s="21">
+        <f>_input!C403</f>
+        <v>0</v>
+      </c>
+      <c r="B402" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C402" s="20">
+        <f>VALUE(IF(_input!$A403=0,0,_input!$A403*100/_input!$B403))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A403" s="21">
+        <f>_input!C404</f>
+        <v>0</v>
+      </c>
+      <c r="B403" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C403" s="20">
+        <f>VALUE(IF(_input!$A404=0,0,_input!$A404*100/_input!$B404))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A404" s="21">
+        <f>_input!C405</f>
+        <v>0</v>
+      </c>
+      <c r="B404" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C404" s="20">
+        <f>VALUE(IF(_input!$A405=0,0,_input!$A405*100/_input!$B405))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A405" s="21">
+        <f>_input!C406</f>
+        <v>0</v>
+      </c>
+      <c r="B405" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C405" s="20">
+        <f>VALUE(IF(_input!$A406=0,0,_input!$A406*100/_input!$B406))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A406" s="21">
+        <f>_input!C407</f>
+        <v>0</v>
+      </c>
+      <c r="B406" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C406" s="20">
+        <f>VALUE(IF(_input!$A407=0,0,_input!$A407*100/_input!$B407))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A407" s="21">
+        <f>_input!C408</f>
+        <v>0</v>
+      </c>
+      <c r="B407" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C407" s="20">
+        <f>VALUE(IF(_input!$A408=0,0,_input!$A408*100/_input!$B408))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A408" s="21">
+        <f>_input!C409</f>
+        <v>0</v>
+      </c>
+      <c r="B408" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C408" s="20">
+        <f>VALUE(IF(_input!$A409=0,0,_input!$A409*100/_input!$B409))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A409" s="21">
+        <f>_input!C410</f>
+        <v>0</v>
+      </c>
+      <c r="B409" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C409" s="20">
+        <f>VALUE(IF(_input!$A410=0,0,_input!$A410*100/_input!$B410))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A410" s="21">
+        <f>_input!C411</f>
+        <v>0</v>
+      </c>
+      <c r="B410" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C410" s="20">
+        <f>VALUE(IF(_input!$A411=0,0,_input!$A411*100/_input!$B411))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A411" s="21">
+        <f>_input!C412</f>
+        <v>0</v>
+      </c>
+      <c r="B411" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C411" s="20">
+        <f>VALUE(IF(_input!$A412=0,0,_input!$A412*100/_input!$B412))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A412" s="21">
+        <f>_input!C413</f>
+        <v>0</v>
+      </c>
+      <c r="B412" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C412" s="20">
+        <f>VALUE(IF(_input!$A413=0,0,_input!$A413*100/_input!$B413))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A413" s="21">
+        <f>_input!C414</f>
+        <v>0</v>
+      </c>
+      <c r="B413" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C413" s="20">
+        <f>VALUE(IF(_input!$A414=0,0,_input!$A414*100/_input!$B414))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A414" s="21">
+        <f>_input!C415</f>
+        <v>0</v>
+      </c>
+      <c r="B414" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C414" s="20">
+        <f>VALUE(IF(_input!$A415=0,0,_input!$A415*100/_input!$B415))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A415" s="21">
+        <f>_input!C416</f>
+        <v>0</v>
+      </c>
+      <c r="B415" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C415" s="20">
+        <f>VALUE(IF(_input!$A416=0,0,_input!$A416*100/_input!$B416))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A416" s="21">
+        <f>_input!C417</f>
+        <v>0</v>
+      </c>
+      <c r="B416" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C416" s="20">
+        <f>VALUE(IF(_input!$A417=0,0,_input!$A417*100/_input!$B417))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A417" s="21">
+        <f>_input!C418</f>
+        <v>0</v>
+      </c>
+      <c r="B417" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C417" s="20">
+        <f>VALUE(IF(_input!$A418=0,0,_input!$A418*100/_input!$B418))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A418" s="21">
+        <f>_input!C419</f>
+        <v>0</v>
+      </c>
+      <c r="B418" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C418" s="20">
+        <f>VALUE(IF(_input!$A419=0,0,_input!$A419*100/_input!$B419))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A419" s="21">
+        <f>_input!C420</f>
+        <v>0</v>
+      </c>
+      <c r="B419" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C419" s="20">
+        <f>VALUE(IF(_input!$A420=0,0,_input!$A420*100/_input!$B420))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A420" s="21">
+        <f>_input!C421</f>
+        <v>0</v>
+      </c>
+      <c r="B420" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C420" s="20">
+        <f>VALUE(IF(_input!$A421=0,0,_input!$A421*100/_input!$B421))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A421" s="21">
+        <f>_input!C422</f>
+        <v>0</v>
+      </c>
+      <c r="B421" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C421" s="20">
+        <f>VALUE(IF(_input!$A422=0,0,_input!$A422*100/_input!$B422))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A422" s="21">
+        <f>_input!C423</f>
+        <v>0</v>
+      </c>
+      <c r="B422" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C422" s="20">
+        <f>VALUE(IF(_input!$A423=0,0,_input!$A423*100/_input!$B423))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A423" s="21">
+        <f>_input!C424</f>
+        <v>0</v>
+      </c>
+      <c r="B423" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C423" s="20">
+        <f>VALUE(IF(_input!$A424=0,0,_input!$A424*100/_input!$B424))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A424" s="21">
+        <f>_input!C425</f>
+        <v>0</v>
+      </c>
+      <c r="B424" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C424" s="20">
+        <f>VALUE(IF(_input!$A425=0,0,_input!$A425*100/_input!$B425))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A425" s="21">
+        <f>_input!C426</f>
+        <v>0</v>
+      </c>
+      <c r="B425" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C425" s="20">
+        <f>VALUE(IF(_input!$A426=0,0,_input!$A426*100/_input!$B426))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A426" s="21">
+        <f>_input!C427</f>
+        <v>0</v>
+      </c>
+      <c r="B426" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C426" s="20">
+        <f>VALUE(IF(_input!$A427=0,0,_input!$A427*100/_input!$B427))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A427" s="21">
+        <f>_input!C428</f>
+        <v>0</v>
+      </c>
+      <c r="B427" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C427" s="20">
+        <f>VALUE(IF(_input!$A428=0,0,_input!$A428*100/_input!$B428))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A428" s="21">
+        <f>_input!C429</f>
+        <v>0</v>
+      </c>
+      <c r="B428" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C428" s="20">
+        <f>VALUE(IF(_input!$A429=0,0,_input!$A429*100/_input!$B429))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A429" s="21">
+        <f>_input!C430</f>
+        <v>0</v>
+      </c>
+      <c r="B429" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C429" s="20">
+        <f>VALUE(IF(_input!$A430=0,0,_input!$A430*100/_input!$B430))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A430" s="21">
+        <f>_input!C431</f>
+        <v>0</v>
+      </c>
+      <c r="B430" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C430" s="20">
+        <f>VALUE(IF(_input!$A431=0,0,_input!$A431*100/_input!$B431))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A431" s="21">
+        <f>_input!C432</f>
+        <v>0</v>
+      </c>
+      <c r="B431" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C431" s="20">
+        <f>VALUE(IF(_input!$A432=0,0,_input!$A432*100/_input!$B432))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A432" s="21">
+        <f>_input!C433</f>
+        <v>0</v>
+      </c>
+      <c r="B432" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C432" s="20">
+        <f>VALUE(IF(_input!$A433=0,0,_input!$A433*100/_input!$B433))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A433" s="21">
+        <f>_input!C434</f>
+        <v>0</v>
+      </c>
+      <c r="B433" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C433" s="20">
+        <f>VALUE(IF(_input!$A434=0,0,_input!$A434*100/_input!$B434))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A434" s="21">
+        <f>_input!C435</f>
+        <v>0</v>
+      </c>
+      <c r="B434" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C434" s="20">
+        <f>VALUE(IF(_input!$A435=0,0,_input!$A435*100/_input!$B435))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A435" s="21">
+        <f>_input!C436</f>
+        <v>0</v>
+      </c>
+      <c r="B435" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C435" s="20">
+        <f>VALUE(IF(_input!$A436=0,0,_input!$A436*100/_input!$B436))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A436" s="21">
+        <f>_input!C437</f>
+        <v>0</v>
+      </c>
+      <c r="B436" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C436" s="20">
+        <f>VALUE(IF(_input!$A437=0,0,_input!$A437*100/_input!$B437))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A437" s="21">
+        <f>_input!C438</f>
+        <v>0</v>
+      </c>
+      <c r="B437" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C437" s="20">
+        <f>VALUE(IF(_input!$A438=0,0,_input!$A438*100/_input!$B438))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A438" s="21">
+        <f>_input!C439</f>
+        <v>0</v>
+      </c>
+      <c r="B438" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C438" s="20">
+        <f>VALUE(IF(_input!$A439=0,0,_input!$A439*100/_input!$B439))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A439" s="21">
+        <f>_input!C440</f>
+        <v>0</v>
+      </c>
+      <c r="B439" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C439" s="20">
+        <f>VALUE(IF(_input!$A440=0,0,_input!$A440*100/_input!$B440))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A440" s="21">
+        <f>_input!C441</f>
+        <v>0</v>
+      </c>
+      <c r="B440" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C440" s="20">
+        <f>VALUE(IF(_input!$A441=0,0,_input!$A441*100/_input!$B441))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A441" s="21">
+        <f>_input!C442</f>
+        <v>0</v>
+      </c>
+      <c r="B441" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C441" s="20">
+        <f>VALUE(IF(_input!$A442=0,0,_input!$A442*100/_input!$B442))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A442" s="21">
+        <f>_input!C443</f>
+        <v>0</v>
+      </c>
+      <c r="B442" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C442" s="20">
+        <f>VALUE(IF(_input!$A443=0,0,_input!$A443*100/_input!$B443))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A443" s="21">
+        <f>_input!C444</f>
+        <v>0</v>
+      </c>
+      <c r="B443" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C443" s="20">
+        <f>VALUE(IF(_input!$A444=0,0,_input!$A444*100/_input!$B444))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A444" s="21">
+        <f>_input!C445</f>
+        <v>0</v>
+      </c>
+      <c r="B444" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C444" s="20">
+        <f>VALUE(IF(_input!$A445=0,0,_input!$A445*100/_input!$B445))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A445" s="21">
+        <f>_input!C446</f>
+        <v>0</v>
+      </c>
+      <c r="B445" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C445" s="20">
+        <f>VALUE(IF(_input!$A446=0,0,_input!$A446*100/_input!$B446))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A446" s="21">
+        <f>_input!C447</f>
+        <v>0</v>
+      </c>
+      <c r="B446" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C446" s="20">
+        <f>VALUE(IF(_input!$A447=0,0,_input!$A447*100/_input!$B447))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A447" s="21">
+        <f>_input!C448</f>
+        <v>0</v>
+      </c>
+      <c r="B447" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C447" s="20">
+        <f>VALUE(IF(_input!$A448=0,0,_input!$A448*100/_input!$B448))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A448" s="21">
+        <f>_input!C449</f>
+        <v>0</v>
+      </c>
+      <c r="B448" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C448" s="20">
+        <f>VALUE(IF(_input!$A449=0,0,_input!$A449*100/_input!$B449))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A449" s="21">
+        <f>_input!C450</f>
+        <v>0</v>
+      </c>
+      <c r="B449" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C449" s="20">
+        <f>VALUE(IF(_input!$A450=0,0,_input!$A450*100/_input!$B450))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A450" s="21">
+        <f>_input!C451</f>
+        <v>0</v>
+      </c>
+      <c r="B450" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C450" s="20">
+        <f>VALUE(IF(_input!$A451=0,0,_input!$A451*100/_input!$B451))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A451" s="21">
+        <f>_input!C452</f>
+        <v>0</v>
+      </c>
+      <c r="B451" s="25">
+        <f t="shared" ref="B451:B514" si="7">$C451</f>
+        <v>0</v>
+      </c>
+      <c r="C451" s="20">
+        <f>VALUE(IF(_input!$A452=0,0,_input!$A452*100/_input!$B452))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A452" s="21">
+        <f>_input!C453</f>
+        <v>0</v>
+      </c>
+      <c r="B452" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C452" s="20">
+        <f>VALUE(IF(_input!$A453=0,0,_input!$A453*100/_input!$B453))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A453" s="21">
+        <f>_input!C454</f>
+        <v>0</v>
+      </c>
+      <c r="B453" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C453" s="20">
+        <f>VALUE(IF(_input!$A454=0,0,_input!$A454*100/_input!$B454))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A454" s="21">
+        <f>_input!C455</f>
+        <v>0</v>
+      </c>
+      <c r="B454" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C454" s="20">
+        <f>VALUE(IF(_input!$A455=0,0,_input!$A455*100/_input!$B455))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A455" s="21">
+        <f>_input!C456</f>
+        <v>0</v>
+      </c>
+      <c r="B455" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C455" s="20">
+        <f>VALUE(IF(_input!$A456=0,0,_input!$A456*100/_input!$B456))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A456" s="21">
+        <f>_input!C457</f>
+        <v>0</v>
+      </c>
+      <c r="B456" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C456" s="20">
+        <f>VALUE(IF(_input!$A457=0,0,_input!$A457*100/_input!$B457))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A457" s="21">
+        <f>_input!C458</f>
+        <v>0</v>
+      </c>
+      <c r="B457" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C457" s="20">
+        <f>VALUE(IF(_input!$A458=0,0,_input!$A458*100/_input!$B458))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A458" s="21">
+        <f>_input!C459</f>
+        <v>0</v>
+      </c>
+      <c r="B458" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C458" s="20">
+        <f>VALUE(IF(_input!$A459=0,0,_input!$A459*100/_input!$B459))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A459" s="21">
+        <f>_input!C460</f>
+        <v>0</v>
+      </c>
+      <c r="B459" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C459" s="20">
+        <f>VALUE(IF(_input!$A460=0,0,_input!$A460*100/_input!$B460))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A460" s="21">
+        <f>_input!C461</f>
+        <v>0</v>
+      </c>
+      <c r="B460" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C460" s="20">
+        <f>VALUE(IF(_input!$A461=0,0,_input!$A461*100/_input!$B461))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A461" s="21">
+        <f>_input!C462</f>
+        <v>0</v>
+      </c>
+      <c r="B461" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C461" s="20">
+        <f>VALUE(IF(_input!$A462=0,0,_input!$A462*100/_input!$B462))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A462" s="21">
+        <f>_input!C463</f>
+        <v>0</v>
+      </c>
+      <c r="B462" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C462" s="20">
+        <f>VALUE(IF(_input!$A463=0,0,_input!$A463*100/_input!$B463))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A463" s="21">
+        <f>_input!C464</f>
+        <v>0</v>
+      </c>
+      <c r="B463" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C463" s="20">
+        <f>VALUE(IF(_input!$A464=0,0,_input!$A464*100/_input!$B464))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A464" s="21">
+        <f>_input!C465</f>
+        <v>0</v>
+      </c>
+      <c r="B464" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C464" s="20">
+        <f>VALUE(IF(_input!$A465=0,0,_input!$A465*100/_input!$B465))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A465" s="21">
+        <f>_input!C466</f>
+        <v>0</v>
+      </c>
+      <c r="B465" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C465" s="20">
+        <f>VALUE(IF(_input!$A466=0,0,_input!$A466*100/_input!$B466))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A466" s="21">
+        <f>_input!C467</f>
+        <v>0</v>
+      </c>
+      <c r="B466" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C466" s="20">
+        <f>VALUE(IF(_input!$A467=0,0,_input!$A467*100/_input!$B467))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A467" s="21">
+        <f>_input!C468</f>
+        <v>0</v>
+      </c>
+      <c r="B467" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C467" s="20">
+        <f>VALUE(IF(_input!$A468=0,0,_input!$A468*100/_input!$B468))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A468" s="21">
+        <f>_input!C469</f>
+        <v>0</v>
+      </c>
+      <c r="B468" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C468" s="20">
+        <f>VALUE(IF(_input!$A469=0,0,_input!$A469*100/_input!$B469))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A469" s="21">
+        <f>_input!C470</f>
+        <v>0</v>
+      </c>
+      <c r="B469" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C469" s="20">
+        <f>VALUE(IF(_input!$A470=0,0,_input!$A470*100/_input!$B470))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A470" s="21">
+        <f>_input!C471</f>
+        <v>0</v>
+      </c>
+      <c r="B470" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C470" s="20">
+        <f>VALUE(IF(_input!$A471=0,0,_input!$A471*100/_input!$B471))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A471" s="21">
+        <f>_input!C472</f>
+        <v>0</v>
+      </c>
+      <c r="B471" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C471" s="20">
+        <f>VALUE(IF(_input!$A472=0,0,_input!$A472*100/_input!$B472))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A472" s="21">
+        <f>_input!C473</f>
+        <v>0</v>
+      </c>
+      <c r="B472" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C472" s="20">
+        <f>VALUE(IF(_input!$A473=0,0,_input!$A473*100/_input!$B473))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A473" s="21">
+        <f>_input!C474</f>
+        <v>0</v>
+      </c>
+      <c r="B473" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C473" s="20">
+        <f>VALUE(IF(_input!$A474=0,0,_input!$A474*100/_input!$B474))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A474" s="21">
+        <f>_input!C475</f>
+        <v>0</v>
+      </c>
+      <c r="B474" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C474" s="20">
+        <f>VALUE(IF(_input!$A475=0,0,_input!$A475*100/_input!$B475))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A475" s="21">
+        <f>_input!C476</f>
+        <v>0</v>
+      </c>
+      <c r="B475" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C475" s="20">
+        <f>VALUE(IF(_input!$A476=0,0,_input!$A476*100/_input!$B476))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A476" s="21">
+        <f>_input!C477</f>
+        <v>0</v>
+      </c>
+      <c r="B476" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C476" s="20">
+        <f>VALUE(IF(_input!$A477=0,0,_input!$A477*100/_input!$B477))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A477" s="21">
+        <f>_input!C478</f>
+        <v>0</v>
+      </c>
+      <c r="B477" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C477" s="20">
+        <f>VALUE(IF(_input!$A478=0,0,_input!$A478*100/_input!$B478))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A478" s="21">
+        <f>_input!C479</f>
+        <v>0</v>
+      </c>
+      <c r="B478" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C478" s="20">
+        <f>VALUE(IF(_input!$A479=0,0,_input!$A479*100/_input!$B479))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A479" s="21">
+        <f>_input!C480</f>
+        <v>0</v>
+      </c>
+      <c r="B479" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C479" s="20">
+        <f>VALUE(IF(_input!$A480=0,0,_input!$A480*100/_input!$B480))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A480" s="21">
+        <f>_input!C481</f>
+        <v>0</v>
+      </c>
+      <c r="B480" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C480" s="20">
+        <f>VALUE(IF(_input!$A481=0,0,_input!$A481*100/_input!$B481))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A481" s="21">
+        <f>_input!C482</f>
+        <v>0</v>
+      </c>
+      <c r="B481" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C481" s="20">
+        <f>VALUE(IF(_input!$A482=0,0,_input!$A482*100/_input!$B482))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A482" s="21">
+        <f>_input!C483</f>
+        <v>0</v>
+      </c>
+      <c r="B482" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C482" s="20">
+        <f>VALUE(IF(_input!$A483=0,0,_input!$A483*100/_input!$B483))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A483" s="21">
+        <f>_input!C484</f>
+        <v>0</v>
+      </c>
+      <c r="B483" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C483" s="20">
+        <f>VALUE(IF(_input!$A484=0,0,_input!$A484*100/_input!$B484))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A484" s="21">
+        <f>_input!C485</f>
+        <v>0</v>
+      </c>
+      <c r="B484" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C484" s="20">
+        <f>VALUE(IF(_input!$A485=0,0,_input!$A485*100/_input!$B485))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A485" s="21">
+        <f>_input!C486</f>
+        <v>0</v>
+      </c>
+      <c r="B485" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C485" s="20">
+        <f>VALUE(IF(_input!$A486=0,0,_input!$A486*100/_input!$B486))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A486" s="21">
+        <f>_input!C487</f>
+        <v>0</v>
+      </c>
+      <c r="B486" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C486" s="20">
+        <f>VALUE(IF(_input!$A487=0,0,_input!$A487*100/_input!$B487))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A487" s="21">
+        <f>_input!C488</f>
+        <v>0</v>
+      </c>
+      <c r="B487" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C487" s="20">
+        <f>VALUE(IF(_input!$A488=0,0,_input!$A488*100/_input!$B488))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A488" s="21">
+        <f>_input!C489</f>
+        <v>0</v>
+      </c>
+      <c r="B488" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C488" s="20">
+        <f>VALUE(IF(_input!$A489=0,0,_input!$A489*100/_input!$B489))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A489" s="21">
+        <f>_input!C490</f>
+        <v>0</v>
+      </c>
+      <c r="B489" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C489" s="20">
+        <f>VALUE(IF(_input!$A490=0,0,_input!$A490*100/_input!$B490))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A490" s="21">
+        <f>_input!C491</f>
+        <v>0</v>
+      </c>
+      <c r="B490" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C490" s="20">
+        <f>VALUE(IF(_input!$A491=0,0,_input!$A491*100/_input!$B491))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A491" s="21">
+        <f>_input!C492</f>
+        <v>0</v>
+      </c>
+      <c r="B491" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C491" s="20">
+        <f>VALUE(IF(_input!$A492=0,0,_input!$A492*100/_input!$B492))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A492" s="21">
+        <f>_input!C493</f>
+        <v>0</v>
+      </c>
+      <c r="B492" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C492" s="20">
+        <f>VALUE(IF(_input!$A493=0,0,_input!$A493*100/_input!$B493))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A493" s="21">
+        <f>_input!C494</f>
+        <v>0</v>
+      </c>
+      <c r="B493" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C493" s="20">
+        <f>VALUE(IF(_input!$A494=0,0,_input!$A494*100/_input!$B494))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A494" s="21">
+        <f>_input!C495</f>
+        <v>0</v>
+      </c>
+      <c r="B494" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C494" s="20">
+        <f>VALUE(IF(_input!$A495=0,0,_input!$A495*100/_input!$B495))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A495" s="21">
+        <f>_input!C496</f>
+        <v>0</v>
+      </c>
+      <c r="B495" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C495" s="20">
+        <f>VALUE(IF(_input!$A496=0,0,_input!$A496*100/_input!$B496))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A496" s="21">
+        <f>_input!C497</f>
+        <v>0</v>
+      </c>
+      <c r="B496" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C496" s="20">
+        <f>VALUE(IF(_input!$A497=0,0,_input!$A497*100/_input!$B497))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A497" s="21">
+        <f>_input!C498</f>
+        <v>0</v>
+      </c>
+      <c r="B497" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C497" s="20">
+        <f>VALUE(IF(_input!$A498=0,0,_input!$A498*100/_input!$B498))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A498" s="21">
+        <f>_input!C499</f>
+        <v>0</v>
+      </c>
+      <c r="B498" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C498" s="20">
+        <f>VALUE(IF(_input!$A499=0,0,_input!$A499*100/_input!$B499))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A499" s="21">
+        <f>_input!C500</f>
+        <v>0</v>
+      </c>
+      <c r="B499" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C499" s="20">
+        <f>VALUE(IF(_input!$A500=0,0,_input!$A500*100/_input!$B500))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A500" s="21">
+        <f>_input!C501</f>
+        <v>0</v>
+      </c>
+      <c r="B500" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C500" s="20">
+        <f>VALUE(IF(_input!$A501=0,0,_input!$A501*100/_input!$B501))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A501" s="21">
+        <f>_input!C502</f>
+        <v>0</v>
+      </c>
+      <c r="B501" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C501" s="20">
+        <f>VALUE(IF(_input!$A502=0,0,_input!$A502*100/_input!$B502))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A502" s="21">
+        <f>_input!C503</f>
+        <v>0</v>
+      </c>
+      <c r="B502" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C502" s="20">
+        <f>VALUE(IF(_input!$A503=0,0,_input!$A503*100/_input!$B503))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A503" s="21">
+        <f>_input!C504</f>
+        <v>0</v>
+      </c>
+      <c r="B503" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C503" s="20">
+        <f>VALUE(IF(_input!$A504=0,0,_input!$A504*100/_input!$B504))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A504" s="21">
+        <f>_input!C505</f>
+        <v>0</v>
+      </c>
+      <c r="B504" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C504" s="20">
+        <f>VALUE(IF(_input!$A505=0,0,_input!$A505*100/_input!$B505))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A505" s="21">
+        <f>_input!C506</f>
+        <v>0</v>
+      </c>
+      <c r="B505" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C505" s="20">
+        <f>VALUE(IF(_input!$A506=0,0,_input!$A506*100/_input!$B506))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A506" s="21">
+        <f>_input!C507</f>
+        <v>0</v>
+      </c>
+      <c r="B506" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C506" s="20">
+        <f>VALUE(IF(_input!$A507=0,0,_input!$A507*100/_input!$B507))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A507" s="21">
+        <f>_input!C508</f>
+        <v>0</v>
+      </c>
+      <c r="B507" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C507" s="20">
+        <f>VALUE(IF(_input!$A508=0,0,_input!$A508*100/_input!$B508))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A508" s="21">
+        <f>_input!C509</f>
+        <v>0</v>
+      </c>
+      <c r="B508" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C508" s="20">
+        <f>VALUE(IF(_input!$A509=0,0,_input!$A509*100/_input!$B509))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A509" s="21">
+        <f>_input!C510</f>
+        <v>0</v>
+      </c>
+      <c r="B509" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C509" s="20">
+        <f>VALUE(IF(_input!$A510=0,0,_input!$A510*100/_input!$B510))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A510" s="21">
+        <f>_input!C511</f>
+        <v>0</v>
+      </c>
+      <c r="B510" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C510" s="20">
+        <f>VALUE(IF(_input!$A511=0,0,_input!$A511*100/_input!$B511))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A511" s="21">
+        <f>_input!C512</f>
+        <v>0</v>
+      </c>
+      <c r="B511" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C511" s="20">
+        <f>VALUE(IF(_input!$A512=0,0,_input!$A512*100/_input!$B512))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A512" s="21">
+        <f>_input!C513</f>
+        <v>0</v>
+      </c>
+      <c r="B512" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C512" s="20">
+        <f>VALUE(IF(_input!$A513=0,0,_input!$A513*100/_input!$B513))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A513" s="21">
+        <f>_input!C514</f>
+        <v>0</v>
+      </c>
+      <c r="B513" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C513" s="20">
+        <f>VALUE(IF(_input!$A514=0,0,_input!$A514*100/_input!$B514))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A514" s="21">
+        <f>_input!C515</f>
+        <v>0</v>
+      </c>
+      <c r="B514" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C514" s="20">
+        <f>VALUE(IF(_input!$A515=0,0,_input!$A515*100/_input!$B515))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A515" s="21">
+        <f>_input!C516</f>
+        <v>0</v>
+      </c>
+      <c r="B515" s="25">
+        <f t="shared" ref="B515:B552" si="8">$C515</f>
+        <v>0</v>
+      </c>
+      <c r="C515" s="20">
+        <f>VALUE(IF(_input!$A516=0,0,_input!$A516*100/_input!$B516))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A516" s="21">
+        <f>_input!C517</f>
+        <v>0</v>
+      </c>
+      <c r="B516" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C516" s="20">
+        <f>VALUE(IF(_input!$A517=0,0,_input!$A517*100/_input!$B517))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A517" s="21">
+        <f>_input!C518</f>
+        <v>0</v>
+      </c>
+      <c r="B517" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C517" s="20">
+        <f>VALUE(IF(_input!$A518=0,0,_input!$A518*100/_input!$B518))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A518" s="21">
+        <f>_input!C519</f>
+        <v>0</v>
+      </c>
+      <c r="B518" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C518" s="20">
+        <f>VALUE(IF(_input!$A519=0,0,_input!$A519*100/_input!$B519))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A519" s="21">
+        <f>_input!C520</f>
+        <v>0</v>
+      </c>
+      <c r="B519" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C519" s="20">
+        <f>VALUE(IF(_input!$A520=0,0,_input!$A520*100/_input!$B520))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A520" s="21">
+        <f>_input!C521</f>
+        <v>0</v>
+      </c>
+      <c r="B520" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C520" s="20">
+        <f>VALUE(IF(_input!$A521=0,0,_input!$A521*100/_input!$B521))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A521" s="21">
+        <f>_input!C522</f>
+        <v>0</v>
+      </c>
+      <c r="B521" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C521" s="20">
+        <f>VALUE(IF(_input!$A522=0,0,_input!$A522*100/_input!$B522))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A522" s="21">
+        <f>_input!C523</f>
+        <v>0</v>
+      </c>
+      <c r="B522" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C522" s="20">
+        <f>VALUE(IF(_input!$A523=0,0,_input!$A523*100/_input!$B523))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A523" s="21">
+        <f>_input!C524</f>
+        <v>0</v>
+      </c>
+      <c r="B523" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C523" s="20">
+        <f>VALUE(IF(_input!$A524=0,0,_input!$A524*100/_input!$B524))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A524" s="21">
+        <f>_input!C525</f>
+        <v>0</v>
+      </c>
+      <c r="B524" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C524" s="20">
+        <f>VALUE(IF(_input!$A525=0,0,_input!$A525*100/_input!$B525))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A525" s="21">
+        <f>_input!C526</f>
+        <v>0</v>
+      </c>
+      <c r="B525" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C525" s="20">
+        <f>VALUE(IF(_input!$A526=0,0,_input!$A526*100/_input!$B526))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A526" s="21">
+        <f>_input!C527</f>
+        <v>0</v>
+      </c>
+      <c r="B526" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C526" s="20">
+        <f>VALUE(IF(_input!$A527=0,0,_input!$A527*100/_input!$B527))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A527" s="21">
+        <f>_input!C528</f>
+        <v>0</v>
+      </c>
+      <c r="B527" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C527" s="20">
+        <f>VALUE(IF(_input!$A528=0,0,_input!$A528*100/_input!$B528))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A528" s="21">
+        <f>_input!C529</f>
+        <v>0</v>
+      </c>
+      <c r="B528" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C528" s="20">
+        <f>VALUE(IF(_input!$A529=0,0,_input!$A529*100/_input!$B529))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A529" s="21">
+        <f>_input!C530</f>
+        <v>0</v>
+      </c>
+      <c r="B529" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C529" s="20">
+        <f>VALUE(IF(_input!$A530=0,0,_input!$A530*100/_input!$B530))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A530" s="21">
+        <f>_input!C531</f>
+        <v>0</v>
+      </c>
+      <c r="B530" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C530" s="20">
+        <f>VALUE(IF(_input!$A531=0,0,_input!$A531*100/_input!$B531))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A531" s="21">
+        <f>_input!C532</f>
+        <v>0</v>
+      </c>
+      <c r="B531" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C531" s="20">
+        <f>VALUE(IF(_input!$A532=0,0,_input!$A532*100/_input!$B532))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A532" s="21">
+        <f>_input!C533</f>
+        <v>0</v>
+      </c>
+      <c r="B532" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C532" s="20">
+        <f>VALUE(IF(_input!$A533=0,0,_input!$A533*100/_input!$B533))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A533" s="21">
+        <f>_input!C534</f>
+        <v>0</v>
+      </c>
+      <c r="B533" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C533" s="20">
+        <f>VALUE(IF(_input!$A534=0,0,_input!$A534*100/_input!$B534))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A534" s="21">
+        <f>_input!C535</f>
+        <v>0</v>
+      </c>
+      <c r="B534" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C534" s="20">
+        <f>VALUE(IF(_input!$A535=0,0,_input!$A535*100/_input!$B535))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A535" s="21">
+        <f>_input!C536</f>
+        <v>0</v>
+      </c>
+      <c r="B535" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C535" s="20">
+        <f>VALUE(IF(_input!$A536=0,0,_input!$A536*100/_input!$B536))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A536" s="21">
+        <f>_input!C537</f>
+        <v>0</v>
+      </c>
+      <c r="B536" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C536" s="20">
+        <f>VALUE(IF(_input!$A537=0,0,_input!$A537*100/_input!$B537))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A537" s="21">
+        <f>_input!C538</f>
+        <v>0</v>
+      </c>
+      <c r="B537" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C537" s="20">
+        <f>VALUE(IF(_input!$A538=0,0,_input!$A538*100/_input!$B538))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A538" s="21">
+        <f>_input!C539</f>
+        <v>0</v>
+      </c>
+      <c r="B538" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C538" s="20">
+        <f>VALUE(IF(_input!$A539=0,0,_input!$A539*100/_input!$B539))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A539" s="21">
+        <f>_input!C540</f>
+        <v>0</v>
+      </c>
+      <c r="B539" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C539" s="20">
+        <f>VALUE(IF(_input!$A540=0,0,_input!$A540*100/_input!$B540))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A540" s="21">
+        <f>_input!C541</f>
+        <v>0</v>
+      </c>
+      <c r="B540" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C540" s="20">
+        <f>VALUE(IF(_input!$A541=0,0,_input!$A541*100/_input!$B541))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A541" s="21">
+        <f>_input!C542</f>
+        <v>0</v>
+      </c>
+      <c r="B541" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C541" s="20">
+        <f>VALUE(IF(_input!$A542=0,0,_input!$A542*100/_input!$B542))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A542" s="21">
+        <f>_input!C543</f>
+        <v>0</v>
+      </c>
+      <c r="B542" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C542" s="20">
+        <f>VALUE(IF(_input!$A543=0,0,_input!$A543*100/_input!$B543))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A543" s="21">
+        <f>_input!C544</f>
+        <v>0</v>
+      </c>
+      <c r="B543" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C543" s="20">
+        <f>VALUE(IF(_input!$A544=0,0,_input!$A544*100/_input!$B544))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A544" s="21">
+        <f>_input!C545</f>
+        <v>0</v>
+      </c>
+      <c r="B544" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C544" s="20">
+        <f>VALUE(IF(_input!$A545=0,0,_input!$A545*100/_input!$B545))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A545" s="21">
+        <f>_input!C546</f>
+        <v>0</v>
+      </c>
+      <c r="B545" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C545" s="20">
+        <f>VALUE(IF(_input!$A546=0,0,_input!$A546*100/_input!$B546))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A546" s="21">
+        <f>_input!C547</f>
+        <v>0</v>
+      </c>
+      <c r="B546" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C546" s="20">
+        <f>VALUE(IF(_input!$A547=0,0,_input!$A547*100/_input!$B547))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A547" s="21">
+        <f>_input!C548</f>
+        <v>0</v>
+      </c>
+      <c r="B547" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C547" s="20">
+        <f>VALUE(IF(_input!$A548=0,0,_input!$A548*100/_input!$B548))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A548" s="21">
+        <f>_input!C549</f>
+        <v>0</v>
+      </c>
+      <c r="B548" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C548" s="20">
+        <f>VALUE(IF(_input!$A549=0,0,_input!$A549*100/_input!$B549))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A549" s="21">
+        <f>_input!C550</f>
+        <v>0</v>
+      </c>
+      <c r="B549" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C549" s="20">
+        <f>VALUE(IF(_input!$A550=0,0,_input!$A550*100/_input!$B550))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A550" s="21">
+        <f>_input!C551</f>
+        <v>0</v>
+      </c>
+      <c r="B550" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C550" s="20">
+        <f>VALUE(IF(_input!$A551=0,0,_input!$A551*100/_input!$B551))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A551" s="21">
+        <f>_input!C552</f>
+        <v>0</v>
+      </c>
+      <c r="B551" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C551" s="20">
+        <f>VALUE(IF(_input!$A552=0,0,_input!$A552*100/_input!$B552))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A552" s="21">
+        <f>_input!C553</f>
+        <v>0</v>
+      </c>
+      <c r="B552" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C552" s="20">
+        <f>VALUE(IF(_input!$A553=0,0,_input!$A553*100/_input!$B553))</f>
         <v>0</v>
       </c>
     </row>

--- a/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-trend-2.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-trend-2.xlsx
@@ -705,11 +705,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86057728"/>
-        <c:axId val="86059264"/>
+        <c:axId val="81929728"/>
+        <c:axId val="81931264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86057728"/>
+        <c:axId val="81929728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,14 +718,14 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86059264"/>
+        <c:crossAx val="81931264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86059264"/>
+        <c:axId val="81931264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,7 +734,7 @@
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86057728"/>
+        <c:crossAx val="81929728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -752,7 +752,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000001221" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001221" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000001232" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001232" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="20">
-        <f>VALUE(IF(_input!$A3=0,0,_input!$A3*100/_input!$B3))</f>
+        <f>VALUE(IF(_input!$B3=0,0,_input!$A3*100/_input!$B3))</f>
         <v>0</v>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="20">
-        <f>VALUE(IF(_input!$A4=0,0,_input!$A4*100/_input!$B4))</f>
+        <f>VALUE(IF(_input!$B4=0,0,_input!$A4*100/_input!$B4))</f>
         <v>0</v>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="20">
-        <f>VALUE(IF(_input!$A5=0,0,_input!$A5*100/_input!$B5))</f>
+        <f>VALUE(IF(_input!$B5=0,0,_input!$A5*100/_input!$B5))</f>
         <v>0</v>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="20">
-        <f>VALUE(IF(_input!$A6=0,0,_input!$A6*100/_input!$B6))</f>
+        <f>VALUE(IF(_input!$B6=0,0,_input!$A6*100/_input!$B6))</f>
         <v>0</v>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="20">
-        <f>VALUE(IF(_input!$A7=0,0,_input!$A7*100/_input!$B7))</f>
+        <f>VALUE(IF(_input!$B7=0,0,_input!$A7*100/_input!$B7))</f>
         <v>0</v>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="20">
-        <f>VALUE(IF(_input!$A8=0,0,_input!$A8*100/_input!$B8))</f>
+        <f>VALUE(IF(_input!$B8=0,0,_input!$A8*100/_input!$B8))</f>
         <v>0</v>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="20">
-        <f>VALUE(IF(_input!$A9=0,0,_input!$A9*100/_input!$B9))</f>
+        <f>VALUE(IF(_input!$B9=0,0,_input!$A9*100/_input!$B9))</f>
         <v>0</v>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="20">
-        <f>VALUE(IF(_input!$A10=0,0,_input!$A10*100/_input!$B10))</f>
+        <f>VALUE(IF(_input!$B10=0,0,_input!$A10*100/_input!$B10))</f>
         <v>0</v>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="20">
-        <f>VALUE(IF(_input!$A11=0,0,_input!$A11*100/_input!$B11))</f>
+        <f>VALUE(IF(_input!$B11=0,0,_input!$A11*100/_input!$B11))</f>
         <v>0</v>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="20">
-        <f>VALUE(IF(_input!$A12=0,0,_input!$A12*100/_input!$B12))</f>
+        <f>VALUE(IF(_input!$B12=0,0,_input!$A12*100/_input!$B12))</f>
         <v>0</v>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="20">
-        <f>VALUE(IF(_input!$A13=0,0,_input!$A13*100/_input!$B13))</f>
+        <f>VALUE(IF(_input!$B13=0,0,_input!$A13*100/_input!$B13))</f>
         <v>0</v>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="20">
-        <f>VALUE(IF(_input!$A14=0,0,_input!$A14*100/_input!$B14))</f>
+        <f>VALUE(IF(_input!$B14=0,0,_input!$A14*100/_input!$B14))</f>
         <v>0</v>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="20">
-        <f>VALUE(IF(_input!$A15=0,0,_input!$A15*100/_input!$B15))</f>
+        <f>VALUE(IF(_input!$B15=0,0,_input!$A15*100/_input!$B15))</f>
         <v>0</v>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="20">
-        <f>VALUE(IF(_input!$A16=0,0,_input!$A16*100/_input!$B16))</f>
+        <f>VALUE(IF(_input!$B16=0,0,_input!$A16*100/_input!$B16))</f>
         <v>0</v>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="20">
-        <f>VALUE(IF(_input!$A17=0,0,_input!$A17*100/_input!$B17))</f>
+        <f>VALUE(IF(_input!$B17=0,0,_input!$A17*100/_input!$B17))</f>
         <v>0</v>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="20">
-        <f>VALUE(IF(_input!$A18=0,0,_input!$A18*100/_input!$B18))</f>
+        <f>VALUE(IF(_input!$B18=0,0,_input!$A18*100/_input!$B18))</f>
         <v>0</v>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="20">
-        <f>VALUE(IF(_input!$A19=0,0,_input!$A19*100/_input!$B19))</f>
+        <f>VALUE(IF(_input!$B19=0,0,_input!$A19*100/_input!$B19))</f>
         <v>0</v>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="20">
-        <f>VALUE(IF(_input!$A20=0,0,_input!$A20*100/_input!$B20))</f>
+        <f>VALUE(IF(_input!$B20=0,0,_input!$A20*100/_input!$B20))</f>
         <v>0</v>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="20">
-        <f>VALUE(IF(_input!$A21=0,0,_input!$A21*100/_input!$B21))</f>
+        <f>VALUE(IF(_input!$B21=0,0,_input!$A21*100/_input!$B21))</f>
         <v>0</v>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="20">
-        <f>VALUE(IF(_input!$A22=0,0,_input!$A22*100/_input!$B22))</f>
+        <f>VALUE(IF(_input!$B22=0,0,_input!$A22*100/_input!$B22))</f>
         <v>0</v>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="20">
-        <f>VALUE(IF(_input!$A23=0,0,_input!$A23*100/_input!$B23))</f>
+        <f>VALUE(IF(_input!$B23=0,0,_input!$A23*100/_input!$B23))</f>
         <v>0</v>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="20">
-        <f>VALUE(IF(_input!$A24=0,0,_input!$A24*100/_input!$B24))</f>
+        <f>VALUE(IF(_input!$B24=0,0,_input!$A24*100/_input!$B24))</f>
         <v>0</v>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="20">
-        <f>VALUE(IF(_input!$A25=0,0,_input!$A25*100/_input!$B25))</f>
+        <f>VALUE(IF(_input!$B25=0,0,_input!$A25*100/_input!$B25))</f>
         <v>0</v>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="20">
-        <f>VALUE(IF(_input!$A26=0,0,_input!$A26*100/_input!$B26))</f>
+        <f>VALUE(IF(_input!$B26=0,0,_input!$A26*100/_input!$B26))</f>
         <v>0</v>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="20">
-        <f>VALUE(IF(_input!$A27=0,0,_input!$A27*100/_input!$B27))</f>
+        <f>VALUE(IF(_input!$B27=0,0,_input!$A27*100/_input!$B27))</f>
         <v>0</v>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="20">
-        <f>VALUE(IF(_input!$A28=0,0,_input!$A28*100/_input!$B28))</f>
+        <f>VALUE(IF(_input!$B28=0,0,_input!$A28*100/_input!$B28))</f>
         <v>0</v>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="20">
-        <f>VALUE(IF(_input!$A29=0,0,_input!$A29*100/_input!$B29))</f>
+        <f>VALUE(IF(_input!$B29=0,0,_input!$A29*100/_input!$B29))</f>
         <v>0</v>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="20">
-        <f>VALUE(IF(_input!$A30=0,0,_input!$A30*100/_input!$B30))</f>
+        <f>VALUE(IF(_input!$B30=0,0,_input!$A30*100/_input!$B30))</f>
         <v>0</v>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="20">
-        <f>VALUE(IF(_input!$A31=0,0,_input!$A31*100/_input!$B31))</f>
+        <f>VALUE(IF(_input!$B31=0,0,_input!$A31*100/_input!$B31))</f>
         <v>0</v>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="20">
-        <f>VALUE(IF(_input!$A32=0,0,_input!$A32*100/_input!$B32))</f>
+        <f>VALUE(IF(_input!$B32=0,0,_input!$A32*100/_input!$B32))</f>
         <v>0</v>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="20">
-        <f>VALUE(IF(_input!$A33=0,0,_input!$A33*100/_input!$B33))</f>
+        <f>VALUE(IF(_input!$B33=0,0,_input!$A33*100/_input!$B33))</f>
         <v>0</v>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="20">
-        <f>VALUE(IF(_input!$A34=0,0,_input!$A34*100/_input!$B34))</f>
+        <f>VALUE(IF(_input!$B34=0,0,_input!$A34*100/_input!$B34))</f>
         <v>0</v>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="20">
-        <f>VALUE(IF(_input!$A35=0,0,_input!$A35*100/_input!$B35))</f>
+        <f>VALUE(IF(_input!$B35=0,0,_input!$A35*100/_input!$B35))</f>
         <v>0</v>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="20">
-        <f>VALUE(IF(_input!$A36=0,0,_input!$A36*100/_input!$B36))</f>
+        <f>VALUE(IF(_input!$B36=0,0,_input!$A36*100/_input!$B36))</f>
         <v>0</v>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="20">
-        <f>VALUE(IF(_input!$A37=0,0,_input!$A37*100/_input!$B37))</f>
+        <f>VALUE(IF(_input!$B37=0,0,_input!$A37*100/_input!$B37))</f>
         <v>0</v>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="20">
-        <f>VALUE(IF(_input!$A38=0,0,_input!$A38*100/_input!$B38))</f>
+        <f>VALUE(IF(_input!$B38=0,0,_input!$A38*100/_input!$B38))</f>
         <v>0</v>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="20">
-        <f>VALUE(IF(_input!$A39=0,0,_input!$A39*100/_input!$B39))</f>
+        <f>VALUE(IF(_input!$B39=0,0,_input!$A39*100/_input!$B39))</f>
         <v>0</v>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="20">
-        <f>VALUE(IF(_input!$A40=0,0,_input!$A40*100/_input!$B40))</f>
+        <f>VALUE(IF(_input!$B40=0,0,_input!$A40*100/_input!$B40))</f>
         <v>0</v>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="20">
-        <f>VALUE(IF(_input!$A41=0,0,_input!$A41*100/_input!$B41))</f>
+        <f>VALUE(IF(_input!$B41=0,0,_input!$A41*100/_input!$B41))</f>
         <v>0</v>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="20">
-        <f>VALUE(IF(_input!$A42=0,0,_input!$A42*100/_input!$B42))</f>
+        <f>VALUE(IF(_input!$B42=0,0,_input!$A42*100/_input!$B42))</f>
         <v>0</v>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="20">
-        <f>VALUE(IF(_input!$A43=0,0,_input!$A43*100/_input!$B43))</f>
+        <f>VALUE(IF(_input!$B43=0,0,_input!$A43*100/_input!$B43))</f>
         <v>0</v>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="20">
-        <f>VALUE(IF(_input!$A44=0,0,_input!$A44*100/_input!$B44))</f>
+        <f>VALUE(IF(_input!$B44=0,0,_input!$A44*100/_input!$B44))</f>
         <v>0</v>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="20">
-        <f>VALUE(IF(_input!$A45=0,0,_input!$A45*100/_input!$B45))</f>
+        <f>VALUE(IF(_input!$B45=0,0,_input!$A45*100/_input!$B45))</f>
         <v>0</v>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="20">
-        <f>VALUE(IF(_input!$A46=0,0,_input!$A46*100/_input!$B46))</f>
+        <f>VALUE(IF(_input!$B46=0,0,_input!$A46*100/_input!$B46))</f>
         <v>0</v>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="20">
-        <f>VALUE(IF(_input!$A47=0,0,_input!$A47*100/_input!$B47))</f>
+        <f>VALUE(IF(_input!$B47=0,0,_input!$A47*100/_input!$B47))</f>
         <v>0</v>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="20">
-        <f>VALUE(IF(_input!$A48=0,0,_input!$A48*100/_input!$B48))</f>
+        <f>VALUE(IF(_input!$B48=0,0,_input!$A48*100/_input!$B48))</f>
         <v>0</v>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="20">
-        <f>VALUE(IF(_input!$A49=0,0,_input!$A49*100/_input!$B49))</f>
+        <f>VALUE(IF(_input!$B49=0,0,_input!$A49*100/_input!$B49))</f>
         <v>0</v>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="20">
-        <f>VALUE(IF(_input!$A50=0,0,_input!$A50*100/_input!$B50))</f>
+        <f>VALUE(IF(_input!$B50=0,0,_input!$A50*100/_input!$B50))</f>
         <v>0</v>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="20">
-        <f>VALUE(IF(_input!$A51=0,0,_input!$A51*100/_input!$B51))</f>
+        <f>VALUE(IF(_input!$B51=0,0,_input!$A51*100/_input!$B51))</f>
         <v>0</v>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="20">
-        <f>VALUE(IF(_input!$A52=0,0,_input!$A52*100/_input!$B52))</f>
+        <f>VALUE(IF(_input!$B52=0,0,_input!$A52*100/_input!$B52))</f>
         <v>0</v>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="20">
-        <f>VALUE(IF(_input!$A53=0,0,_input!$A53*100/_input!$B53))</f>
+        <f>VALUE(IF(_input!$B53=0,0,_input!$A53*100/_input!$B53))</f>
         <v>0</v>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="20">
-        <f>VALUE(IF(_input!$A54=0,0,_input!$A54*100/_input!$B54))</f>
+        <f>VALUE(IF(_input!$B54=0,0,_input!$A54*100/_input!$B54))</f>
         <v>0</v>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="20">
-        <f>VALUE(IF(_input!$A55=0,0,_input!$A55*100/_input!$B55))</f>
+        <f>VALUE(IF(_input!$B55=0,0,_input!$A55*100/_input!$B55))</f>
         <v>0</v>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="20">
-        <f>VALUE(IF(_input!$A56=0,0,_input!$A56*100/_input!$B56))</f>
+        <f>VALUE(IF(_input!$B56=0,0,_input!$A56*100/_input!$B56))</f>
         <v>0</v>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="20">
-        <f>VALUE(IF(_input!$A57=0,0,_input!$A57*100/_input!$B57))</f>
+        <f>VALUE(IF(_input!$B57=0,0,_input!$A57*100/_input!$B57))</f>
         <v>0</v>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="20">
-        <f>VALUE(IF(_input!$A58=0,0,_input!$A58*100/_input!$B58))</f>
+        <f>VALUE(IF(_input!$B58=0,0,_input!$A58*100/_input!$B58))</f>
         <v>0</v>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="20">
-        <f>VALUE(IF(_input!$A59=0,0,_input!$A59*100/_input!$B59))</f>
+        <f>VALUE(IF(_input!$B59=0,0,_input!$A59*100/_input!$B59))</f>
         <v>0</v>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="20">
-        <f>VALUE(IF(_input!$A60=0,0,_input!$A60*100/_input!$B60))</f>
+        <f>VALUE(IF(_input!$B60=0,0,_input!$A60*100/_input!$B60))</f>
         <v>0</v>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="20">
-        <f>VALUE(IF(_input!$A61=0,0,_input!$A61*100/_input!$B61))</f>
+        <f>VALUE(IF(_input!$B61=0,0,_input!$A61*100/_input!$B61))</f>
         <v>0</v>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="20">
-        <f>VALUE(IF(_input!$A62=0,0,_input!$A62*100/_input!$B62))</f>
+        <f>VALUE(IF(_input!$B62=0,0,_input!$A62*100/_input!$B62))</f>
         <v>0</v>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="20">
-        <f>VALUE(IF(_input!$A63=0,0,_input!$A63*100/_input!$B63))</f>
+        <f>VALUE(IF(_input!$B63=0,0,_input!$A63*100/_input!$B63))</f>
         <v>0</v>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="20">
-        <f>VALUE(IF(_input!$A64=0,0,_input!$A64*100/_input!$B64))</f>
+        <f>VALUE(IF(_input!$B64=0,0,_input!$A64*100/_input!$B64))</f>
         <v>0</v>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="20">
-        <f>VALUE(IF(_input!$A65=0,0,_input!$A65*100/_input!$B65))</f>
+        <f>VALUE(IF(_input!$B65=0,0,_input!$A65*100/_input!$B65))</f>
         <v>0</v>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="20">
-        <f>VALUE(IF(_input!$A66=0,0,_input!$A66*100/_input!$B66))</f>
+        <f>VALUE(IF(_input!$B66=0,0,_input!$A66*100/_input!$B66))</f>
         <v>0</v>
       </c>
     </row>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="20">
-        <f>VALUE(IF(_input!$A67=0,0,_input!$A67*100/_input!$B67))</f>
+        <f>VALUE(IF(_input!$B67=0,0,_input!$A67*100/_input!$B67))</f>
         <v>0</v>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="20">
-        <f>VALUE(IF(_input!$A68=0,0,_input!$A68*100/_input!$B68))</f>
+        <f>VALUE(IF(_input!$B68=0,0,_input!$A68*100/_input!$B68))</f>
         <v>0</v>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="20">
-        <f>VALUE(IF(_input!$A69=0,0,_input!$A69*100/_input!$B69))</f>
+        <f>VALUE(IF(_input!$B69=0,0,_input!$A69*100/_input!$B69))</f>
         <v>0</v>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="20">
-        <f>VALUE(IF(_input!$A70=0,0,_input!$A70*100/_input!$B70))</f>
+        <f>VALUE(IF(_input!$B70=0,0,_input!$A70*100/_input!$B70))</f>
         <v>0</v>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="20">
-        <f>VALUE(IF(_input!$A71=0,0,_input!$A71*100/_input!$B71))</f>
+        <f>VALUE(IF(_input!$B71=0,0,_input!$A71*100/_input!$B71))</f>
         <v>0</v>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="20">
-        <f>VALUE(IF(_input!$A72=0,0,_input!$A72*100/_input!$B72))</f>
+        <f>VALUE(IF(_input!$B72=0,0,_input!$A72*100/_input!$B72))</f>
         <v>0</v>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="20">
-        <f>VALUE(IF(_input!$A73=0,0,_input!$A73*100/_input!$B73))</f>
+        <f>VALUE(IF(_input!$B73=0,0,_input!$A73*100/_input!$B73))</f>
         <v>0</v>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="20">
-        <f>VALUE(IF(_input!$A74=0,0,_input!$A74*100/_input!$B74))</f>
+        <f>VALUE(IF(_input!$B74=0,0,_input!$A74*100/_input!$B74))</f>
         <v>0</v>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="20">
-        <f>VALUE(IF(_input!$A75=0,0,_input!$A75*100/_input!$B75))</f>
+        <f>VALUE(IF(_input!$B75=0,0,_input!$A75*100/_input!$B75))</f>
         <v>0</v>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="20">
-        <f>VALUE(IF(_input!$A76=0,0,_input!$A76*100/_input!$B76))</f>
+        <f>VALUE(IF(_input!$B76=0,0,_input!$A76*100/_input!$B76))</f>
         <v>0</v>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="20">
-        <f>VALUE(IF(_input!$A77=0,0,_input!$A77*100/_input!$B77))</f>
+        <f>VALUE(IF(_input!$B77=0,0,_input!$A77*100/_input!$B77))</f>
         <v>0</v>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="C77" s="20">
-        <f>VALUE(IF(_input!$A78=0,0,_input!$A78*100/_input!$B78))</f>
+        <f>VALUE(IF(_input!$B78=0,0,_input!$A78*100/_input!$B78))</f>
         <v>0</v>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="20">
-        <f>VALUE(IF(_input!$A79=0,0,_input!$A79*100/_input!$B79))</f>
+        <f>VALUE(IF(_input!$B79=0,0,_input!$A79*100/_input!$B79))</f>
         <v>0</v>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="20">
-        <f>VALUE(IF(_input!$A80=0,0,_input!$A80*100/_input!$B80))</f>
+        <f>VALUE(IF(_input!$B80=0,0,_input!$A80*100/_input!$B80))</f>
         <v>0</v>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="20">
-        <f>VALUE(IF(_input!$A81=0,0,_input!$A81*100/_input!$B81))</f>
+        <f>VALUE(IF(_input!$B81=0,0,_input!$A81*100/_input!$B81))</f>
         <v>0</v>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="20">
-        <f>VALUE(IF(_input!$A82=0,0,_input!$A82*100/_input!$B82))</f>
+        <f>VALUE(IF(_input!$B82=0,0,_input!$A82*100/_input!$B82))</f>
         <v>0</v>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="20">
-        <f>VALUE(IF(_input!$A83=0,0,_input!$A83*100/_input!$B83))</f>
+        <f>VALUE(IF(_input!$B83=0,0,_input!$A83*100/_input!$B83))</f>
         <v>0</v>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="20">
-        <f>VALUE(IF(_input!$A84=0,0,_input!$A84*100/_input!$B84))</f>
+        <f>VALUE(IF(_input!$B84=0,0,_input!$A84*100/_input!$B84))</f>
         <v>0</v>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="20">
-        <f>VALUE(IF(_input!$A85=0,0,_input!$A85*100/_input!$B85))</f>
+        <f>VALUE(IF(_input!$B85=0,0,_input!$A85*100/_input!$B85))</f>
         <v>0</v>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="20">
-        <f>VALUE(IF(_input!$A86=0,0,_input!$A86*100/_input!$B86))</f>
+        <f>VALUE(IF(_input!$B86=0,0,_input!$A86*100/_input!$B86))</f>
         <v>0</v>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="20">
-        <f>VALUE(IF(_input!$A87=0,0,_input!$A87*100/_input!$B87))</f>
+        <f>VALUE(IF(_input!$B87=0,0,_input!$A87*100/_input!$B87))</f>
         <v>0</v>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="20">
-        <f>VALUE(IF(_input!$A88=0,0,_input!$A88*100/_input!$B88))</f>
+        <f>VALUE(IF(_input!$B88=0,0,_input!$A88*100/_input!$B88))</f>
         <v>0</v>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="20">
-        <f>VALUE(IF(_input!$A89=0,0,_input!$A89*100/_input!$B89))</f>
+        <f>VALUE(IF(_input!$B89=0,0,_input!$A89*100/_input!$B89))</f>
         <v>0</v>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="20">
-        <f>VALUE(IF(_input!$A90=0,0,_input!$A90*100/_input!$B90))</f>
+        <f>VALUE(IF(_input!$B90=0,0,_input!$A90*100/_input!$B90))</f>
         <v>0</v>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="20">
-        <f>VALUE(IF(_input!$A91=0,0,_input!$A91*100/_input!$B91))</f>
+        <f>VALUE(IF(_input!$B91=0,0,_input!$A91*100/_input!$B91))</f>
         <v>0</v>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="20">
-        <f>VALUE(IF(_input!$A92=0,0,_input!$A92*100/_input!$B92))</f>
+        <f>VALUE(IF(_input!$B92=0,0,_input!$A92*100/_input!$B92))</f>
         <v>0</v>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="20">
-        <f>VALUE(IF(_input!$A93=0,0,_input!$A93*100/_input!$B93))</f>
+        <f>VALUE(IF(_input!$B93=0,0,_input!$A93*100/_input!$B93))</f>
         <v>0</v>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="20">
-        <f>VALUE(IF(_input!$A94=0,0,_input!$A94*100/_input!$B94))</f>
+        <f>VALUE(IF(_input!$B94=0,0,_input!$A94*100/_input!$B94))</f>
         <v>0</v>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="20">
-        <f>VALUE(IF(_input!$A95=0,0,_input!$A95*100/_input!$B95))</f>
+        <f>VALUE(IF(_input!$B95=0,0,_input!$A95*100/_input!$B95))</f>
         <v>0</v>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="20">
-        <f>VALUE(IF(_input!$A96=0,0,_input!$A96*100/_input!$B96))</f>
+        <f>VALUE(IF(_input!$B96=0,0,_input!$A96*100/_input!$B96))</f>
         <v>0</v>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="20">
-        <f>VALUE(IF(_input!$A97=0,0,_input!$A97*100/_input!$B97))</f>
+        <f>VALUE(IF(_input!$B97=0,0,_input!$A97*100/_input!$B97))</f>
         <v>0</v>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="20">
-        <f>VALUE(IF(_input!$A98=0,0,_input!$A98*100/_input!$B98))</f>
+        <f>VALUE(IF(_input!$B98=0,0,_input!$A98*100/_input!$B98))</f>
         <v>0</v>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="20">
-        <f>VALUE(IF(_input!$A99=0,0,_input!$A99*100/_input!$B99))</f>
+        <f>VALUE(IF(_input!$B99=0,0,_input!$A99*100/_input!$B99))</f>
         <v>0</v>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="20">
-        <f>VALUE(IF(_input!$A100=0,0,_input!$A100*100/_input!$B100))</f>
+        <f>VALUE(IF(_input!$B100=0,0,_input!$A100*100/_input!$B100))</f>
         <v>0</v>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="20">
-        <f>VALUE(IF(_input!$A101=0,0,_input!$A101*100/_input!$B101))</f>
+        <f>VALUE(IF(_input!$B101=0,0,_input!$A101*100/_input!$B101))</f>
         <v>0</v>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="20">
-        <f>VALUE(IF(_input!$A102=0,0,_input!$A102*100/_input!$B102))</f>
+        <f>VALUE(IF(_input!$B102=0,0,_input!$A102*100/_input!$B102))</f>
         <v>0</v>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="20">
-        <f>VALUE(IF(_input!$A103=0,0,_input!$A103*100/_input!$B103))</f>
+        <f>VALUE(IF(_input!$B103=0,0,_input!$A103*100/_input!$B103))</f>
         <v>0</v>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="20">
-        <f>VALUE(IF(_input!$A104=0,0,_input!$A104*100/_input!$B104))</f>
+        <f>VALUE(IF(_input!$B104=0,0,_input!$A104*100/_input!$B104))</f>
         <v>0</v>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="20">
-        <f>VALUE(IF(_input!$A105=0,0,_input!$A105*100/_input!$B105))</f>
+        <f>VALUE(IF(_input!$B105=0,0,_input!$A105*100/_input!$B105))</f>
         <v>0</v>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="20">
-        <f>VALUE(IF(_input!$A106=0,0,_input!$A106*100/_input!$B106))</f>
+        <f>VALUE(IF(_input!$B106=0,0,_input!$A106*100/_input!$B106))</f>
         <v>0</v>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="20">
-        <f>VALUE(IF(_input!$A107=0,0,_input!$A107*100/_input!$B107))</f>
+        <f>VALUE(IF(_input!$B107=0,0,_input!$A107*100/_input!$B107))</f>
         <v>0</v>
       </c>
     </row>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="20">
-        <f>VALUE(IF(_input!$A108=0,0,_input!$A108*100/_input!$B108))</f>
+        <f>VALUE(IF(_input!$B108=0,0,_input!$A108*100/_input!$B108))</f>
         <v>0</v>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="20">
-        <f>VALUE(IF(_input!$A109=0,0,_input!$A109*100/_input!$B109))</f>
+        <f>VALUE(IF(_input!$B109=0,0,_input!$A109*100/_input!$B109))</f>
         <v>0</v>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="20">
-        <f>VALUE(IF(_input!$A110=0,0,_input!$A110*100/_input!$B110))</f>
+        <f>VALUE(IF(_input!$B110=0,0,_input!$A110*100/_input!$B110))</f>
         <v>0</v>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="20">
-        <f>VALUE(IF(_input!$A111=0,0,_input!$A111*100/_input!$B111))</f>
+        <f>VALUE(IF(_input!$B111=0,0,_input!$A111*100/_input!$B111))</f>
         <v>0</v>
       </c>
     </row>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="20">
-        <f>VALUE(IF(_input!$A112=0,0,_input!$A112*100/_input!$B112))</f>
+        <f>VALUE(IF(_input!$B112=0,0,_input!$A112*100/_input!$B112))</f>
         <v>0</v>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="20">
-        <f>VALUE(IF(_input!$A113=0,0,_input!$A113*100/_input!$B113))</f>
+        <f>VALUE(IF(_input!$B113=0,0,_input!$A113*100/_input!$B113))</f>
         <v>0</v>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="20">
-        <f>VALUE(IF(_input!$A114=0,0,_input!$A114*100/_input!$B114))</f>
+        <f>VALUE(IF(_input!$B114=0,0,_input!$A114*100/_input!$B114))</f>
         <v>0</v>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="20">
-        <f>VALUE(IF(_input!$A115=0,0,_input!$A115*100/_input!$B115))</f>
+        <f>VALUE(IF(_input!$B115=0,0,_input!$A115*100/_input!$B115))</f>
         <v>0</v>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="20">
-        <f>VALUE(IF(_input!$A116=0,0,_input!$A116*100/_input!$B116))</f>
+        <f>VALUE(IF(_input!$B116=0,0,_input!$A116*100/_input!$B116))</f>
         <v>0</v>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="20">
-        <f>VALUE(IF(_input!$A117=0,0,_input!$A117*100/_input!$B117))</f>
+        <f>VALUE(IF(_input!$B117=0,0,_input!$A117*100/_input!$B117))</f>
         <v>0</v>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="20">
-        <f>VALUE(IF(_input!$A118=0,0,_input!$A118*100/_input!$B118))</f>
+        <f>VALUE(IF(_input!$B118=0,0,_input!$A118*100/_input!$B118))</f>
         <v>0</v>
       </c>
     </row>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="20">
-        <f>VALUE(IF(_input!$A119=0,0,_input!$A119*100/_input!$B119))</f>
+        <f>VALUE(IF(_input!$B119=0,0,_input!$A119*100/_input!$B119))</f>
         <v>0</v>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="20">
-        <f>VALUE(IF(_input!$A120=0,0,_input!$A120*100/_input!$B120))</f>
+        <f>VALUE(IF(_input!$B120=0,0,_input!$A120*100/_input!$B120))</f>
         <v>0</v>
       </c>
     </row>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="20">
-        <f>VALUE(IF(_input!$A121=0,0,_input!$A121*100/_input!$B121))</f>
+        <f>VALUE(IF(_input!$B121=0,0,_input!$A121*100/_input!$B121))</f>
         <v>0</v>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="20">
-        <f>VALUE(IF(_input!$A122=0,0,_input!$A122*100/_input!$B122))</f>
+        <f>VALUE(IF(_input!$B122=0,0,_input!$A122*100/_input!$B122))</f>
         <v>0</v>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="20">
-        <f>VALUE(IF(_input!$A123=0,0,_input!$A123*100/_input!$B123))</f>
+        <f>VALUE(IF(_input!$B123=0,0,_input!$A123*100/_input!$B123))</f>
         <v>0</v>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="20">
-        <f>VALUE(IF(_input!$A124=0,0,_input!$A124*100/_input!$B124))</f>
+        <f>VALUE(IF(_input!$B124=0,0,_input!$A124*100/_input!$B124))</f>
         <v>0</v>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="20">
-        <f>VALUE(IF(_input!$A125=0,0,_input!$A125*100/_input!$B125))</f>
+        <f>VALUE(IF(_input!$B125=0,0,_input!$A125*100/_input!$B125))</f>
         <v>0</v>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="20">
-        <f>VALUE(IF(_input!$A126=0,0,_input!$A126*100/_input!$B126))</f>
+        <f>VALUE(IF(_input!$B126=0,0,_input!$A126*100/_input!$B126))</f>
         <v>0</v>
       </c>
     </row>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="20">
-        <f>VALUE(IF(_input!$A127=0,0,_input!$A127*100/_input!$B127))</f>
+        <f>VALUE(IF(_input!$B127=0,0,_input!$A127*100/_input!$B127))</f>
         <v>0</v>
       </c>
     </row>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="20">
-        <f>VALUE(IF(_input!$A128=0,0,_input!$A128*100/_input!$B128))</f>
+        <f>VALUE(IF(_input!$B128=0,0,_input!$A128*100/_input!$B128))</f>
         <v>0</v>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="20">
-        <f>VALUE(IF(_input!$A129=0,0,_input!$A129*100/_input!$B129))</f>
+        <f>VALUE(IF(_input!$B129=0,0,_input!$A129*100/_input!$B129))</f>
         <v>0</v>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="20">
-        <f>VALUE(IF(_input!$A130=0,0,_input!$A130*100/_input!$B130))</f>
+        <f>VALUE(IF(_input!$B130=0,0,_input!$A130*100/_input!$B130))</f>
         <v>0</v>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="C130" s="20">
-        <f>VALUE(IF(_input!$A131=0,0,_input!$A131*100/_input!$B131))</f>
+        <f>VALUE(IF(_input!$B131=0,0,_input!$A131*100/_input!$B131))</f>
         <v>0</v>
       </c>
     </row>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="C131" s="20">
-        <f>VALUE(IF(_input!$A132=0,0,_input!$A132*100/_input!$B132))</f>
+        <f>VALUE(IF(_input!$B132=0,0,_input!$A132*100/_input!$B132))</f>
         <v>0</v>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="20">
-        <f>VALUE(IF(_input!$A133=0,0,_input!$A133*100/_input!$B133))</f>
+        <f>VALUE(IF(_input!$B133=0,0,_input!$A133*100/_input!$B133))</f>
         <v>0</v>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="20">
-        <f>VALUE(IF(_input!$A134=0,0,_input!$A134*100/_input!$B134))</f>
+        <f>VALUE(IF(_input!$B134=0,0,_input!$A134*100/_input!$B134))</f>
         <v>0</v>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="C134" s="20">
-        <f>VALUE(IF(_input!$A135=0,0,_input!$A135*100/_input!$B135))</f>
+        <f>VALUE(IF(_input!$B135=0,0,_input!$A135*100/_input!$B135))</f>
         <v>0</v>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="C135" s="20">
-        <f>VALUE(IF(_input!$A136=0,0,_input!$A136*100/_input!$B136))</f>
+        <f>VALUE(IF(_input!$B136=0,0,_input!$A136*100/_input!$B136))</f>
         <v>0</v>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="C136" s="20">
-        <f>VALUE(IF(_input!$A137=0,0,_input!$A137*100/_input!$B137))</f>
+        <f>VALUE(IF(_input!$B137=0,0,_input!$A137*100/_input!$B137))</f>
         <v>0</v>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="C137" s="20">
-        <f>VALUE(IF(_input!$A138=0,0,_input!$A138*100/_input!$B138))</f>
+        <f>VALUE(IF(_input!$B138=0,0,_input!$A138*100/_input!$B138))</f>
         <v>0</v>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="C138" s="20">
-        <f>VALUE(IF(_input!$A139=0,0,_input!$A139*100/_input!$B139))</f>
+        <f>VALUE(IF(_input!$B139=0,0,_input!$A139*100/_input!$B139))</f>
         <v>0</v>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="C139" s="20">
-        <f>VALUE(IF(_input!$A140=0,0,_input!$A140*100/_input!$B140))</f>
+        <f>VALUE(IF(_input!$B140=0,0,_input!$A140*100/_input!$B140))</f>
         <v>0</v>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="C140" s="20">
-        <f>VALUE(IF(_input!$A141=0,0,_input!$A141*100/_input!$B141))</f>
+        <f>VALUE(IF(_input!$B141=0,0,_input!$A141*100/_input!$B141))</f>
         <v>0</v>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="C141" s="20">
-        <f>VALUE(IF(_input!$A142=0,0,_input!$A142*100/_input!$B142))</f>
+        <f>VALUE(IF(_input!$B142=0,0,_input!$A142*100/_input!$B142))</f>
         <v>0</v>
       </c>
     </row>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="C142" s="20">
-        <f>VALUE(IF(_input!$A143=0,0,_input!$A143*100/_input!$B143))</f>
+        <f>VALUE(IF(_input!$B143=0,0,_input!$A143*100/_input!$B143))</f>
         <v>0</v>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="C143" s="20">
-        <f>VALUE(IF(_input!$A144=0,0,_input!$A144*100/_input!$B144))</f>
+        <f>VALUE(IF(_input!$B144=0,0,_input!$A144*100/_input!$B144))</f>
         <v>0</v>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="C144" s="20">
-        <f>VALUE(IF(_input!$A145=0,0,_input!$A145*100/_input!$B145))</f>
+        <f>VALUE(IF(_input!$B145=0,0,_input!$A145*100/_input!$B145))</f>
         <v>0</v>
       </c>
     </row>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="C145" s="20">
-        <f>VALUE(IF(_input!$A146=0,0,_input!$A146*100/_input!$B146))</f>
+        <f>VALUE(IF(_input!$B146=0,0,_input!$A146*100/_input!$B146))</f>
         <v>0</v>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C146" s="20">
-        <f>VALUE(IF(_input!$A147=0,0,_input!$A147*100/_input!$B147))</f>
+        <f>VALUE(IF(_input!$B147=0,0,_input!$A147*100/_input!$B147))</f>
         <v>0</v>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="20">
-        <f>VALUE(IF(_input!$A148=0,0,_input!$A148*100/_input!$B148))</f>
+        <f>VALUE(IF(_input!$B148=0,0,_input!$A148*100/_input!$B148))</f>
         <v>0</v>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="20">
-        <f>VALUE(IF(_input!$A149=0,0,_input!$A149*100/_input!$B149))</f>
+        <f>VALUE(IF(_input!$B149=0,0,_input!$A149*100/_input!$B149))</f>
         <v>0</v>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="20">
-        <f>VALUE(IF(_input!$A150=0,0,_input!$A150*100/_input!$B150))</f>
+        <f>VALUE(IF(_input!$B150=0,0,_input!$A150*100/_input!$B150))</f>
         <v>0</v>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="20">
-        <f>VALUE(IF(_input!$A151=0,0,_input!$A151*100/_input!$B151))</f>
+        <f>VALUE(IF(_input!$B151=0,0,_input!$A151*100/_input!$B151))</f>
         <v>0</v>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="C151" s="20">
-        <f>VALUE(IF(_input!$A152=0,0,_input!$A152*100/_input!$B152))</f>
+        <f>VALUE(IF(_input!$B152=0,0,_input!$A152*100/_input!$B152))</f>
         <v>0</v>
       </c>
     </row>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="20">
-        <f>VALUE(IF(_input!$A153=0,0,_input!$A153*100/_input!$B153))</f>
+        <f>VALUE(IF(_input!$B153=0,0,_input!$A153*100/_input!$B153))</f>
         <v>0</v>
       </c>
     </row>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="C153" s="20">
-        <f>VALUE(IF(_input!$A154=0,0,_input!$A154*100/_input!$B154))</f>
+        <f>VALUE(IF(_input!$B154=0,0,_input!$A154*100/_input!$B154))</f>
         <v>0</v>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="C154" s="20">
-        <f>VALUE(IF(_input!$A155=0,0,_input!$A155*100/_input!$B155))</f>
+        <f>VALUE(IF(_input!$B155=0,0,_input!$A155*100/_input!$B155))</f>
         <v>0</v>
       </c>
     </row>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="C155" s="20">
-        <f>VALUE(IF(_input!$A156=0,0,_input!$A156*100/_input!$B156))</f>
+        <f>VALUE(IF(_input!$B156=0,0,_input!$A156*100/_input!$B156))</f>
         <v>0</v>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="C156" s="20">
-        <f>VALUE(IF(_input!$A157=0,0,_input!$A157*100/_input!$B157))</f>
+        <f>VALUE(IF(_input!$B157=0,0,_input!$A157*100/_input!$B157))</f>
         <v>0</v>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="C157" s="20">
-        <f>VALUE(IF(_input!$A158=0,0,_input!$A158*100/_input!$B158))</f>
+        <f>VALUE(IF(_input!$B158=0,0,_input!$A158*100/_input!$B158))</f>
         <v>0</v>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="C158" s="20">
-        <f>VALUE(IF(_input!$A159=0,0,_input!$A159*100/_input!$B159))</f>
+        <f>VALUE(IF(_input!$B159=0,0,_input!$A159*100/_input!$B159))</f>
         <v>0</v>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="C159" s="20">
-        <f>VALUE(IF(_input!$A160=0,0,_input!$A160*100/_input!$B160))</f>
+        <f>VALUE(IF(_input!$B160=0,0,_input!$A160*100/_input!$B160))</f>
         <v>0</v>
       </c>
     </row>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="C160" s="20">
-        <f>VALUE(IF(_input!$A161=0,0,_input!$A161*100/_input!$B161))</f>
+        <f>VALUE(IF(_input!$B161=0,0,_input!$A161*100/_input!$B161))</f>
         <v>0</v>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="C161" s="20">
-        <f>VALUE(IF(_input!$A162=0,0,_input!$A162*100/_input!$B162))</f>
+        <f>VALUE(IF(_input!$B162=0,0,_input!$A162*100/_input!$B162))</f>
         <v>0</v>
       </c>
     </row>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="C162" s="20">
-        <f>VALUE(IF(_input!$A163=0,0,_input!$A163*100/_input!$B163))</f>
+        <f>VALUE(IF(_input!$B163=0,0,_input!$A163*100/_input!$B163))</f>
         <v>0</v>
       </c>
     </row>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="C163" s="20">
-        <f>VALUE(IF(_input!$A164=0,0,_input!$A164*100/_input!$B164))</f>
+        <f>VALUE(IF(_input!$B164=0,0,_input!$A164*100/_input!$B164))</f>
         <v>0</v>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="C164" s="20">
-        <f>VALUE(IF(_input!$A165=0,0,_input!$A165*100/_input!$B165))</f>
+        <f>VALUE(IF(_input!$B165=0,0,_input!$A165*100/_input!$B165))</f>
         <v>0</v>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="C165" s="20">
-        <f>VALUE(IF(_input!$A166=0,0,_input!$A166*100/_input!$B166))</f>
+        <f>VALUE(IF(_input!$B166=0,0,_input!$A166*100/_input!$B166))</f>
         <v>0</v>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="C166" s="20">
-        <f>VALUE(IF(_input!$A167=0,0,_input!$A167*100/_input!$B167))</f>
+        <f>VALUE(IF(_input!$B167=0,0,_input!$A167*100/_input!$B167))</f>
         <v>0</v>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="C167" s="20">
-        <f>VALUE(IF(_input!$A168=0,0,_input!$A168*100/_input!$B168))</f>
+        <f>VALUE(IF(_input!$B168=0,0,_input!$A168*100/_input!$B168))</f>
         <v>0</v>
       </c>
     </row>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="C168" s="20">
-        <f>VALUE(IF(_input!$A169=0,0,_input!$A169*100/_input!$B169))</f>
+        <f>VALUE(IF(_input!$B169=0,0,_input!$A169*100/_input!$B169))</f>
         <v>0</v>
       </c>
     </row>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="C169" s="20">
-        <f>VALUE(IF(_input!$A170=0,0,_input!$A170*100/_input!$B170))</f>
+        <f>VALUE(IF(_input!$B170=0,0,_input!$A170*100/_input!$B170))</f>
         <v>0</v>
       </c>
     </row>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="C170" s="20">
-        <f>VALUE(IF(_input!$A171=0,0,_input!$A171*100/_input!$B171))</f>
+        <f>VALUE(IF(_input!$B171=0,0,_input!$A171*100/_input!$B171))</f>
         <v>0</v>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="C171" s="20">
-        <f>VALUE(IF(_input!$A172=0,0,_input!$A172*100/_input!$B172))</f>
+        <f>VALUE(IF(_input!$B172=0,0,_input!$A172*100/_input!$B172))</f>
         <v>0</v>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="C172" s="20">
-        <f>VALUE(IF(_input!$A173=0,0,_input!$A173*100/_input!$B173))</f>
+        <f>VALUE(IF(_input!$B173=0,0,_input!$A173*100/_input!$B173))</f>
         <v>0</v>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="C173" s="20">
-        <f>VALUE(IF(_input!$A174=0,0,_input!$A174*100/_input!$B174))</f>
+        <f>VALUE(IF(_input!$B174=0,0,_input!$A174*100/_input!$B174))</f>
         <v>0</v>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="C174" s="20">
-        <f>VALUE(IF(_input!$A175=0,0,_input!$A175*100/_input!$B175))</f>
+        <f>VALUE(IF(_input!$B175=0,0,_input!$A175*100/_input!$B175))</f>
         <v>0</v>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="C175" s="20">
-        <f>VALUE(IF(_input!$A176=0,0,_input!$A176*100/_input!$B176))</f>
+        <f>VALUE(IF(_input!$B176=0,0,_input!$A176*100/_input!$B176))</f>
         <v>0</v>
       </c>
     </row>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="20">
-        <f>VALUE(IF(_input!$A177=0,0,_input!$A177*100/_input!$B177))</f>
+        <f>VALUE(IF(_input!$B177=0,0,_input!$A177*100/_input!$B177))</f>
         <v>0</v>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="C177" s="20">
-        <f>VALUE(IF(_input!$A178=0,0,_input!$A178*100/_input!$B178))</f>
+        <f>VALUE(IF(_input!$B178=0,0,_input!$A178*100/_input!$B178))</f>
         <v>0</v>
       </c>
     </row>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="C178" s="20">
-        <f>VALUE(IF(_input!$A179=0,0,_input!$A179*100/_input!$B179))</f>
+        <f>VALUE(IF(_input!$B179=0,0,_input!$A179*100/_input!$B179))</f>
         <v>0</v>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="C179" s="20">
-        <f>VALUE(IF(_input!$A180=0,0,_input!$A180*100/_input!$B180))</f>
+        <f>VALUE(IF(_input!$B180=0,0,_input!$A180*100/_input!$B180))</f>
         <v>0</v>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C180" s="20">
-        <f>VALUE(IF(_input!$A181=0,0,_input!$A181*100/_input!$B181))</f>
+        <f>VALUE(IF(_input!$B181=0,0,_input!$A181*100/_input!$B181))</f>
         <v>0</v>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="C181" s="20">
-        <f>VALUE(IF(_input!$A182=0,0,_input!$A182*100/_input!$B182))</f>
+        <f>VALUE(IF(_input!$B182=0,0,_input!$A182*100/_input!$B182))</f>
         <v>0</v>
       </c>
     </row>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="C182" s="20">
-        <f>VALUE(IF(_input!$A183=0,0,_input!$A183*100/_input!$B183))</f>
+        <f>VALUE(IF(_input!$B183=0,0,_input!$A183*100/_input!$B183))</f>
         <v>0</v>
       </c>
     </row>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="C183" s="20">
-        <f>VALUE(IF(_input!$A184=0,0,_input!$A184*100/_input!$B184))</f>
+        <f>VALUE(IF(_input!$B184=0,0,_input!$A184*100/_input!$B184))</f>
         <v>0</v>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="C184" s="20">
-        <f>VALUE(IF(_input!$A185=0,0,_input!$A185*100/_input!$B185))</f>
+        <f>VALUE(IF(_input!$B185=0,0,_input!$A185*100/_input!$B185))</f>
         <v>0</v>
       </c>
     </row>
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="C185" s="20">
-        <f>VALUE(IF(_input!$A186=0,0,_input!$A186*100/_input!$B186))</f>
+        <f>VALUE(IF(_input!$B186=0,0,_input!$A186*100/_input!$B186))</f>
         <v>0</v>
       </c>
     </row>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="C186" s="20">
-        <f>VALUE(IF(_input!$A187=0,0,_input!$A187*100/_input!$B187))</f>
+        <f>VALUE(IF(_input!$B187=0,0,_input!$A187*100/_input!$B187))</f>
         <v>0</v>
       </c>
     </row>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="C187" s="20">
-        <f>VALUE(IF(_input!$A188=0,0,_input!$A188*100/_input!$B188))</f>
+        <f>VALUE(IF(_input!$B188=0,0,_input!$A188*100/_input!$B188))</f>
         <v>0</v>
       </c>
     </row>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="C188" s="20">
-        <f>VALUE(IF(_input!$A189=0,0,_input!$A189*100/_input!$B189))</f>
+        <f>VALUE(IF(_input!$B189=0,0,_input!$A189*100/_input!$B189))</f>
         <v>0</v>
       </c>
     </row>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="C189" s="20">
-        <f>VALUE(IF(_input!$A190=0,0,_input!$A190*100/_input!$B190))</f>
+        <f>VALUE(IF(_input!$B190=0,0,_input!$A190*100/_input!$B190))</f>
         <v>0</v>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="C190" s="20">
-        <f>VALUE(IF(_input!$A191=0,0,_input!$A191*100/_input!$B191))</f>
+        <f>VALUE(IF(_input!$B191=0,0,_input!$A191*100/_input!$B191))</f>
         <v>0</v>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="C191" s="20">
-        <f>VALUE(IF(_input!$A192=0,0,_input!$A192*100/_input!$B192))</f>
+        <f>VALUE(IF(_input!$B192=0,0,_input!$A192*100/_input!$B192))</f>
         <v>0</v>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="20">
-        <f>VALUE(IF(_input!$A193=0,0,_input!$A193*100/_input!$B193))</f>
+        <f>VALUE(IF(_input!$B193=0,0,_input!$A193*100/_input!$B193))</f>
         <v>0</v>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="C193" s="20">
-        <f>VALUE(IF(_input!$A194=0,0,_input!$A194*100/_input!$B194))</f>
+        <f>VALUE(IF(_input!$B194=0,0,_input!$A194*100/_input!$B194))</f>
         <v>0</v>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="C194" s="20">
-        <f>VALUE(IF(_input!$A195=0,0,_input!$A195*100/_input!$B195))</f>
+        <f>VALUE(IF(_input!$B195=0,0,_input!$A195*100/_input!$B195))</f>
         <v>0</v>
       </c>
     </row>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="C195" s="20">
-        <f>VALUE(IF(_input!$A196=0,0,_input!$A196*100/_input!$B196))</f>
+        <f>VALUE(IF(_input!$B196=0,0,_input!$A196*100/_input!$B196))</f>
         <v>0</v>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="C196" s="20">
-        <f>VALUE(IF(_input!$A197=0,0,_input!$A197*100/_input!$B197))</f>
+        <f>VALUE(IF(_input!$B197=0,0,_input!$A197*100/_input!$B197))</f>
         <v>0</v>
       </c>
     </row>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="C197" s="20">
-        <f>VALUE(IF(_input!$A198=0,0,_input!$A198*100/_input!$B198))</f>
+        <f>VALUE(IF(_input!$B198=0,0,_input!$A198*100/_input!$B198))</f>
         <v>0</v>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="C198" s="20">
-        <f>VALUE(IF(_input!$A199=0,0,_input!$A199*100/_input!$B199))</f>
+        <f>VALUE(IF(_input!$B199=0,0,_input!$A199*100/_input!$B199))</f>
         <v>0</v>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="C199" s="20">
-        <f>VALUE(IF(_input!$A200=0,0,_input!$A200*100/_input!$B200))</f>
+        <f>VALUE(IF(_input!$B200=0,0,_input!$A200*100/_input!$B200))</f>
         <v>0</v>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="C200" s="20">
-        <f>VALUE(IF(_input!$A201=0,0,_input!$A201*100/_input!$B201))</f>
+        <f>VALUE(IF(_input!$B201=0,0,_input!$A201*100/_input!$B201))</f>
         <v>0</v>
       </c>
     </row>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="C201" s="20">
-        <f>VALUE(IF(_input!$A202=0,0,_input!$A202*100/_input!$B202))</f>
+        <f>VALUE(IF(_input!$B202=0,0,_input!$A202*100/_input!$B202))</f>
         <v>0</v>
       </c>
     </row>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="C202" s="20">
-        <f>VALUE(IF(_input!$A203=0,0,_input!$A203*100/_input!$B203))</f>
+        <f>VALUE(IF(_input!$B203=0,0,_input!$A203*100/_input!$B203))</f>
         <v>0</v>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="C203" s="20">
-        <f>VALUE(IF(_input!$A204=0,0,_input!$A204*100/_input!$B204))</f>
+        <f>VALUE(IF(_input!$B204=0,0,_input!$A204*100/_input!$B204))</f>
         <v>0</v>
       </c>
     </row>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="C204" s="20">
-        <f>VALUE(IF(_input!$A205=0,0,_input!$A205*100/_input!$B205))</f>
+        <f>VALUE(IF(_input!$B205=0,0,_input!$A205*100/_input!$B205))</f>
         <v>0</v>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="C205" s="20">
-        <f>VALUE(IF(_input!$A206=0,0,_input!$A206*100/_input!$B206))</f>
+        <f>VALUE(IF(_input!$B206=0,0,_input!$A206*100/_input!$B206))</f>
         <v>0</v>
       </c>
     </row>
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="C206" s="20">
-        <f>VALUE(IF(_input!$A207=0,0,_input!$A207*100/_input!$B207))</f>
+        <f>VALUE(IF(_input!$B207=0,0,_input!$A207*100/_input!$B207))</f>
         <v>0</v>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="C207" s="20">
-        <f>VALUE(IF(_input!$A208=0,0,_input!$A208*100/_input!$B208))</f>
+        <f>VALUE(IF(_input!$B208=0,0,_input!$A208*100/_input!$B208))</f>
         <v>0</v>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="C208" s="20">
-        <f>VALUE(IF(_input!$A209=0,0,_input!$A209*100/_input!$B209))</f>
+        <f>VALUE(IF(_input!$B209=0,0,_input!$A209*100/_input!$B209))</f>
         <v>0</v>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="C209" s="20">
-        <f>VALUE(IF(_input!$A210=0,0,_input!$A210*100/_input!$B210))</f>
+        <f>VALUE(IF(_input!$B210=0,0,_input!$A210*100/_input!$B210))</f>
         <v>0</v>
       </c>
     </row>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="C210" s="20">
-        <f>VALUE(IF(_input!$A211=0,0,_input!$A211*100/_input!$B211))</f>
+        <f>VALUE(IF(_input!$B211=0,0,_input!$A211*100/_input!$B211))</f>
         <v>0</v>
       </c>
     </row>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="C211" s="20">
-        <f>VALUE(IF(_input!$A212=0,0,_input!$A212*100/_input!$B212))</f>
+        <f>VALUE(IF(_input!$B212=0,0,_input!$A212*100/_input!$B212))</f>
         <v>0</v>
       </c>
     </row>
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="C212" s="20">
-        <f>VALUE(IF(_input!$A213=0,0,_input!$A213*100/_input!$B213))</f>
+        <f>VALUE(IF(_input!$B213=0,0,_input!$A213*100/_input!$B213))</f>
         <v>0</v>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="C213" s="20">
-        <f>VALUE(IF(_input!$A214=0,0,_input!$A214*100/_input!$B214))</f>
+        <f>VALUE(IF(_input!$B214=0,0,_input!$A214*100/_input!$B214))</f>
         <v>0</v>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="C214" s="20">
-        <f>VALUE(IF(_input!$A215=0,0,_input!$A215*100/_input!$B215))</f>
+        <f>VALUE(IF(_input!$B215=0,0,_input!$A215*100/_input!$B215))</f>
         <v>0</v>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="C215" s="20">
-        <f>VALUE(IF(_input!$A216=0,0,_input!$A216*100/_input!$B216))</f>
+        <f>VALUE(IF(_input!$B216=0,0,_input!$A216*100/_input!$B216))</f>
         <v>0</v>
       </c>
     </row>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="C216" s="20">
-        <f>VALUE(IF(_input!$A217=0,0,_input!$A217*100/_input!$B217))</f>
+        <f>VALUE(IF(_input!$B217=0,0,_input!$A217*100/_input!$B217))</f>
         <v>0</v>
       </c>
     </row>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="C217" s="20">
-        <f>VALUE(IF(_input!$A218=0,0,_input!$A218*100/_input!$B218))</f>
+        <f>VALUE(IF(_input!$B218=0,0,_input!$A218*100/_input!$B218))</f>
         <v>0</v>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="C218" s="20">
-        <f>VALUE(IF(_input!$A219=0,0,_input!$A219*100/_input!$B219))</f>
+        <f>VALUE(IF(_input!$B219=0,0,_input!$A219*100/_input!$B219))</f>
         <v>0</v>
       </c>
     </row>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="C219" s="20">
-        <f>VALUE(IF(_input!$A220=0,0,_input!$A220*100/_input!$B220))</f>
+        <f>VALUE(IF(_input!$B220=0,0,_input!$A220*100/_input!$B220))</f>
         <v>0</v>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="C220" s="20">
-        <f>VALUE(IF(_input!$A221=0,0,_input!$A221*100/_input!$B221))</f>
+        <f>VALUE(IF(_input!$B221=0,0,_input!$A221*100/_input!$B221))</f>
         <v>0</v>
       </c>
     </row>
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="C221" s="20">
-        <f>VALUE(IF(_input!$A222=0,0,_input!$A222*100/_input!$B222))</f>
+        <f>VALUE(IF(_input!$B222=0,0,_input!$A222*100/_input!$B222))</f>
         <v>0</v>
       </c>
     </row>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="C222" s="20">
-        <f>VALUE(IF(_input!$A223=0,0,_input!$A223*100/_input!$B223))</f>
+        <f>VALUE(IF(_input!$B223=0,0,_input!$A223*100/_input!$B223))</f>
         <v>0</v>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="C223" s="20">
-        <f>VALUE(IF(_input!$A224=0,0,_input!$A224*100/_input!$B224))</f>
+        <f>VALUE(IF(_input!$B224=0,0,_input!$A224*100/_input!$B224))</f>
         <v>0</v>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="C224" s="20">
-        <f>VALUE(IF(_input!$A225=0,0,_input!$A225*100/_input!$B225))</f>
+        <f>VALUE(IF(_input!$B225=0,0,_input!$A225*100/_input!$B225))</f>
         <v>0</v>
       </c>
     </row>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="C225" s="20">
-        <f>VALUE(IF(_input!$A226=0,0,_input!$A226*100/_input!$B226))</f>
+        <f>VALUE(IF(_input!$B226=0,0,_input!$A226*100/_input!$B226))</f>
         <v>0</v>
       </c>
     </row>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="C226" s="20">
-        <f>VALUE(IF(_input!$A227=0,0,_input!$A227*100/_input!$B227))</f>
+        <f>VALUE(IF(_input!$B227=0,0,_input!$A227*100/_input!$B227))</f>
         <v>0</v>
       </c>
     </row>
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="C227" s="20">
-        <f>VALUE(IF(_input!$A228=0,0,_input!$A228*100/_input!$B228))</f>
+        <f>VALUE(IF(_input!$B228=0,0,_input!$A228*100/_input!$B228))</f>
         <v>0</v>
       </c>
     </row>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="C228" s="20">
-        <f>VALUE(IF(_input!$A229=0,0,_input!$A229*100/_input!$B229))</f>
+        <f>VALUE(IF(_input!$B229=0,0,_input!$A229*100/_input!$B229))</f>
         <v>0</v>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="C229" s="20">
-        <f>VALUE(IF(_input!$A230=0,0,_input!$A230*100/_input!$B230))</f>
+        <f>VALUE(IF(_input!$B230=0,0,_input!$A230*100/_input!$B230))</f>
         <v>0</v>
       </c>
     </row>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="C230" s="20">
-        <f>VALUE(IF(_input!$A231=0,0,_input!$A231*100/_input!$B231))</f>
+        <f>VALUE(IF(_input!$B231=0,0,_input!$A231*100/_input!$B231))</f>
         <v>0</v>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="C231" s="20">
-        <f>VALUE(IF(_input!$A232=0,0,_input!$A232*100/_input!$B232))</f>
+        <f>VALUE(IF(_input!$B232=0,0,_input!$A232*100/_input!$B232))</f>
         <v>0</v>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="C232" s="20">
-        <f>VALUE(IF(_input!$A233=0,0,_input!$A233*100/_input!$B233))</f>
+        <f>VALUE(IF(_input!$B233=0,0,_input!$A233*100/_input!$B233))</f>
         <v>0</v>
       </c>
     </row>
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="C233" s="20">
-        <f>VALUE(IF(_input!$A234=0,0,_input!$A234*100/_input!$B234))</f>
+        <f>VALUE(IF(_input!$B234=0,0,_input!$A234*100/_input!$B234))</f>
         <v>0</v>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="C234" s="20">
-        <f>VALUE(IF(_input!$A235=0,0,_input!$A235*100/_input!$B235))</f>
+        <f>VALUE(IF(_input!$B235=0,0,_input!$A235*100/_input!$B235))</f>
         <v>0</v>
       </c>
     </row>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="C235" s="20">
-        <f>VALUE(IF(_input!$A236=0,0,_input!$A236*100/_input!$B236))</f>
+        <f>VALUE(IF(_input!$B236=0,0,_input!$A236*100/_input!$B236))</f>
         <v>0</v>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="C236" s="20">
-        <f>VALUE(IF(_input!$A237=0,0,_input!$A237*100/_input!$B237))</f>
+        <f>VALUE(IF(_input!$B237=0,0,_input!$A237*100/_input!$B237))</f>
         <v>0</v>
       </c>
     </row>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="C237" s="20">
-        <f>VALUE(IF(_input!$A238=0,0,_input!$A238*100/_input!$B238))</f>
+        <f>VALUE(IF(_input!$B238=0,0,_input!$A238*100/_input!$B238))</f>
         <v>0</v>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="C238" s="20">
-        <f>VALUE(IF(_input!$A239=0,0,_input!$A239*100/_input!$B239))</f>
+        <f>VALUE(IF(_input!$B239=0,0,_input!$A239*100/_input!$B239))</f>
         <v>0</v>
       </c>
     </row>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="C239" s="20">
-        <f>VALUE(IF(_input!$A240=0,0,_input!$A240*100/_input!$B240))</f>
+        <f>VALUE(IF(_input!$B240=0,0,_input!$A240*100/_input!$B240))</f>
         <v>0</v>
       </c>
     </row>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="C240" s="20">
-        <f>VALUE(IF(_input!$A241=0,0,_input!$A241*100/_input!$B241))</f>
+        <f>VALUE(IF(_input!$B241=0,0,_input!$A241*100/_input!$B241))</f>
         <v>0</v>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="C241" s="20">
-        <f>VALUE(IF(_input!$A242=0,0,_input!$A242*100/_input!$B242))</f>
+        <f>VALUE(IF(_input!$B242=0,0,_input!$A242*100/_input!$B242))</f>
         <v>0</v>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="C242" s="20">
-        <f>VALUE(IF(_input!$A243=0,0,_input!$A243*100/_input!$B243))</f>
+        <f>VALUE(IF(_input!$B243=0,0,_input!$A243*100/_input!$B243))</f>
         <v>0</v>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="C243" s="20">
-        <f>VALUE(IF(_input!$A244=0,0,_input!$A244*100/_input!$B244))</f>
+        <f>VALUE(IF(_input!$B244=0,0,_input!$A244*100/_input!$B244))</f>
         <v>0</v>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="C244" s="20">
-        <f>VALUE(IF(_input!$A245=0,0,_input!$A245*100/_input!$B245))</f>
+        <f>VALUE(IF(_input!$B245=0,0,_input!$A245*100/_input!$B245))</f>
         <v>0</v>
       </c>
     </row>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="C245" s="20">
-        <f>VALUE(IF(_input!$A246=0,0,_input!$A246*100/_input!$B246))</f>
+        <f>VALUE(IF(_input!$B246=0,0,_input!$A246*100/_input!$B246))</f>
         <v>0</v>
       </c>
     </row>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="C246" s="20">
-        <f>VALUE(IF(_input!$A247=0,0,_input!$A247*100/_input!$B247))</f>
+        <f>VALUE(IF(_input!$B247=0,0,_input!$A247*100/_input!$B247))</f>
         <v>0</v>
       </c>
     </row>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="C247" s="20">
-        <f>VALUE(IF(_input!$A248=0,0,_input!$A248*100/_input!$B248))</f>
+        <f>VALUE(IF(_input!$B248=0,0,_input!$A248*100/_input!$B248))</f>
         <v>0</v>
       </c>
     </row>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="C248" s="20">
-        <f>VALUE(IF(_input!$A249=0,0,_input!$A249*100/_input!$B249))</f>
+        <f>VALUE(IF(_input!$B249=0,0,_input!$A249*100/_input!$B249))</f>
         <v>0</v>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="C249" s="20">
-        <f>VALUE(IF(_input!$A250=0,0,_input!$A250*100/_input!$B250))</f>
+        <f>VALUE(IF(_input!$B250=0,0,_input!$A250*100/_input!$B250))</f>
         <v>0</v>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="C250" s="20">
-        <f>VALUE(IF(_input!$A251=0,0,_input!$A251*100/_input!$B251))</f>
+        <f>VALUE(IF(_input!$B251=0,0,_input!$A251*100/_input!$B251))</f>
         <v>0</v>
       </c>
     </row>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="C251" s="20">
-        <f>VALUE(IF(_input!$A252=0,0,_input!$A252*100/_input!$B252))</f>
+        <f>VALUE(IF(_input!$B252=0,0,_input!$A252*100/_input!$B252))</f>
         <v>0</v>
       </c>
     </row>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="C252" s="20">
-        <f>VALUE(IF(_input!$A253=0,0,_input!$A253*100/_input!$B253))</f>
+        <f>VALUE(IF(_input!$B253=0,0,_input!$A253*100/_input!$B253))</f>
         <v>0</v>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="C253" s="20">
-        <f>VALUE(IF(_input!$A254=0,0,_input!$A254*100/_input!$B254))</f>
+        <f>VALUE(IF(_input!$B254=0,0,_input!$A254*100/_input!$B254))</f>
         <v>0</v>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="C254" s="20">
-        <f>VALUE(IF(_input!$A255=0,0,_input!$A255*100/_input!$B255))</f>
+        <f>VALUE(IF(_input!$B255=0,0,_input!$A255*100/_input!$B255))</f>
         <v>0</v>
       </c>
     </row>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="C255" s="20">
-        <f>VALUE(IF(_input!$A256=0,0,_input!$A256*100/_input!$B256))</f>
+        <f>VALUE(IF(_input!$B256=0,0,_input!$A256*100/_input!$B256))</f>
         <v>0</v>
       </c>
     </row>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="C256" s="20">
-        <f>VALUE(IF(_input!$A257=0,0,_input!$A257*100/_input!$B257))</f>
+        <f>VALUE(IF(_input!$B257=0,0,_input!$A257*100/_input!$B257))</f>
         <v>0</v>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="C257" s="20">
-        <f>VALUE(IF(_input!$A258=0,0,_input!$A258*100/_input!$B258))</f>
+        <f>VALUE(IF(_input!$B258=0,0,_input!$A258*100/_input!$B258))</f>
         <v>0</v>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="C258" s="20">
-        <f>VALUE(IF(_input!$A259=0,0,_input!$A259*100/_input!$B259))</f>
+        <f>VALUE(IF(_input!$B259=0,0,_input!$A259*100/_input!$B259))</f>
         <v>0</v>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="C259" s="20">
-        <f>VALUE(IF(_input!$A260=0,0,_input!$A260*100/_input!$B260))</f>
+        <f>VALUE(IF(_input!$B260=0,0,_input!$A260*100/_input!$B260))</f>
         <v>0</v>
       </c>
     </row>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="C260" s="20">
-        <f>VALUE(IF(_input!$A261=0,0,_input!$A261*100/_input!$B261))</f>
+        <f>VALUE(IF(_input!$B261=0,0,_input!$A261*100/_input!$B261))</f>
         <v>0</v>
       </c>
     </row>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="C261" s="20">
-        <f>VALUE(IF(_input!$A262=0,0,_input!$A262*100/_input!$B262))</f>
+        <f>VALUE(IF(_input!$B262=0,0,_input!$A262*100/_input!$B262))</f>
         <v>0</v>
       </c>
     </row>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="C262" s="20">
-        <f>VALUE(IF(_input!$A263=0,0,_input!$A263*100/_input!$B263))</f>
+        <f>VALUE(IF(_input!$B263=0,0,_input!$A263*100/_input!$B263))</f>
         <v>0</v>
       </c>
     </row>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="C263" s="20">
-        <f>VALUE(IF(_input!$A264=0,0,_input!$A264*100/_input!$B264))</f>
+        <f>VALUE(IF(_input!$B264=0,0,_input!$A264*100/_input!$B264))</f>
         <v>0</v>
       </c>
     </row>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="C264" s="20">
-        <f>VALUE(IF(_input!$A265=0,0,_input!$A265*100/_input!$B265))</f>
+        <f>VALUE(IF(_input!$B265=0,0,_input!$A265*100/_input!$B265))</f>
         <v>0</v>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="C265" s="20">
-        <f>VALUE(IF(_input!$A266=0,0,_input!$A266*100/_input!$B266))</f>
+        <f>VALUE(IF(_input!$B266=0,0,_input!$A266*100/_input!$B266))</f>
         <v>0</v>
       </c>
     </row>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="C266" s="20">
-        <f>VALUE(IF(_input!$A267=0,0,_input!$A267*100/_input!$B267))</f>
+        <f>VALUE(IF(_input!$B267=0,0,_input!$A267*100/_input!$B267))</f>
         <v>0</v>
       </c>
     </row>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="C267" s="20">
-        <f>VALUE(IF(_input!$A268=0,0,_input!$A268*100/_input!$B268))</f>
+        <f>VALUE(IF(_input!$B268=0,0,_input!$A268*100/_input!$B268))</f>
         <v>0</v>
       </c>
     </row>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="C268" s="20">
-        <f>VALUE(IF(_input!$A269=0,0,_input!$A269*100/_input!$B269))</f>
+        <f>VALUE(IF(_input!$B269=0,0,_input!$A269*100/_input!$B269))</f>
         <v>0</v>
       </c>
     </row>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="C269" s="20">
-        <f>VALUE(IF(_input!$A270=0,0,_input!$A270*100/_input!$B270))</f>
+        <f>VALUE(IF(_input!$B270=0,0,_input!$A270*100/_input!$B270))</f>
         <v>0</v>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="C270" s="20">
-        <f>VALUE(IF(_input!$A271=0,0,_input!$A271*100/_input!$B271))</f>
+        <f>VALUE(IF(_input!$B271=0,0,_input!$A271*100/_input!$B271))</f>
         <v>0</v>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="C271" s="20">
-        <f>VALUE(IF(_input!$A272=0,0,_input!$A272*100/_input!$B272))</f>
+        <f>VALUE(IF(_input!$B272=0,0,_input!$A272*100/_input!$B272))</f>
         <v>0</v>
       </c>
     </row>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="C272" s="20">
-        <f>VALUE(IF(_input!$A273=0,0,_input!$A273*100/_input!$B273))</f>
+        <f>VALUE(IF(_input!$B273=0,0,_input!$A273*100/_input!$B273))</f>
         <v>0</v>
       </c>
     </row>
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="C273" s="20">
-        <f>VALUE(IF(_input!$A274=0,0,_input!$A274*100/_input!$B274))</f>
+        <f>VALUE(IF(_input!$B274=0,0,_input!$A274*100/_input!$B274))</f>
         <v>0</v>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="C274" s="20">
-        <f>VALUE(IF(_input!$A275=0,0,_input!$A275*100/_input!$B275))</f>
+        <f>VALUE(IF(_input!$B275=0,0,_input!$A275*100/_input!$B275))</f>
         <v>0</v>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="C275" s="20">
-        <f>VALUE(IF(_input!$A276=0,0,_input!$A276*100/_input!$B276))</f>
+        <f>VALUE(IF(_input!$B276=0,0,_input!$A276*100/_input!$B276))</f>
         <v>0</v>
       </c>
     </row>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="C276" s="20">
-        <f>VALUE(IF(_input!$A277=0,0,_input!$A277*100/_input!$B277))</f>
+        <f>VALUE(IF(_input!$B277=0,0,_input!$A277*100/_input!$B277))</f>
         <v>0</v>
       </c>
     </row>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="C277" s="20">
-        <f>VALUE(IF(_input!$A278=0,0,_input!$A278*100/_input!$B278))</f>
+        <f>VALUE(IF(_input!$B278=0,0,_input!$A278*100/_input!$B278))</f>
         <v>0</v>
       </c>
     </row>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="C278" s="20">
-        <f>VALUE(IF(_input!$A279=0,0,_input!$A279*100/_input!$B279))</f>
+        <f>VALUE(IF(_input!$B279=0,0,_input!$A279*100/_input!$B279))</f>
         <v>0</v>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="C279" s="20">
-        <f>VALUE(IF(_input!$A280=0,0,_input!$A280*100/_input!$B280))</f>
+        <f>VALUE(IF(_input!$B280=0,0,_input!$A280*100/_input!$B280))</f>
         <v>0</v>
       </c>
     </row>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="C280" s="20">
-        <f>VALUE(IF(_input!$A281=0,0,_input!$A281*100/_input!$B281))</f>
+        <f>VALUE(IF(_input!$B281=0,0,_input!$A281*100/_input!$B281))</f>
         <v>0</v>
       </c>
     </row>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="C281" s="20">
-        <f>VALUE(IF(_input!$A282=0,0,_input!$A282*100/_input!$B282))</f>
+        <f>VALUE(IF(_input!$B282=0,0,_input!$A282*100/_input!$B282))</f>
         <v>0</v>
       </c>
     </row>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="C282" s="20">
-        <f>VALUE(IF(_input!$A283=0,0,_input!$A283*100/_input!$B283))</f>
+        <f>VALUE(IF(_input!$B283=0,0,_input!$A283*100/_input!$B283))</f>
         <v>0</v>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="C283" s="20">
-        <f>VALUE(IF(_input!$A284=0,0,_input!$A284*100/_input!$B284))</f>
+        <f>VALUE(IF(_input!$B284=0,0,_input!$A284*100/_input!$B284))</f>
         <v>0</v>
       </c>
     </row>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="C284" s="20">
-        <f>VALUE(IF(_input!$A285=0,0,_input!$A285*100/_input!$B285))</f>
+        <f>VALUE(IF(_input!$B285=0,0,_input!$A285*100/_input!$B285))</f>
         <v>0</v>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="C285" s="20">
-        <f>VALUE(IF(_input!$A286=0,0,_input!$A286*100/_input!$B286))</f>
+        <f>VALUE(IF(_input!$B286=0,0,_input!$A286*100/_input!$B286))</f>
         <v>0</v>
       </c>
     </row>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="C286" s="20">
-        <f>VALUE(IF(_input!$A287=0,0,_input!$A287*100/_input!$B287))</f>
+        <f>VALUE(IF(_input!$B287=0,0,_input!$A287*100/_input!$B287))</f>
         <v>0</v>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="C287" s="20">
-        <f>VALUE(IF(_input!$A288=0,0,_input!$A288*100/_input!$B288))</f>
+        <f>VALUE(IF(_input!$B288=0,0,_input!$A288*100/_input!$B288))</f>
         <v>0</v>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="C288" s="20">
-        <f>VALUE(IF(_input!$A289=0,0,_input!$A289*100/_input!$B289))</f>
+        <f>VALUE(IF(_input!$B289=0,0,_input!$A289*100/_input!$B289))</f>
         <v>0</v>
       </c>
     </row>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="C289" s="20">
-        <f>VALUE(IF(_input!$A290=0,0,_input!$A290*100/_input!$B290))</f>
+        <f>VALUE(IF(_input!$B290=0,0,_input!$A290*100/_input!$B290))</f>
         <v>0</v>
       </c>
     </row>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="C290" s="20">
-        <f>VALUE(IF(_input!$A291=0,0,_input!$A291*100/_input!$B291))</f>
+        <f>VALUE(IF(_input!$B291=0,0,_input!$A291*100/_input!$B291))</f>
         <v>0</v>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="C291" s="20">
-        <f>VALUE(IF(_input!$A292=0,0,_input!$A292*100/_input!$B292))</f>
+        <f>VALUE(IF(_input!$B292=0,0,_input!$A292*100/_input!$B292))</f>
         <v>0</v>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="C292" s="20">
-        <f>VALUE(IF(_input!$A293=0,0,_input!$A293*100/_input!$B293))</f>
+        <f>VALUE(IF(_input!$B293=0,0,_input!$A293*100/_input!$B293))</f>
         <v>0</v>
       </c>
     </row>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="C293" s="20">
-        <f>VALUE(IF(_input!$A294=0,0,_input!$A294*100/_input!$B294))</f>
+        <f>VALUE(IF(_input!$B294=0,0,_input!$A294*100/_input!$B294))</f>
         <v>0</v>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="C294" s="20">
-        <f>VALUE(IF(_input!$A295=0,0,_input!$A295*100/_input!$B295))</f>
+        <f>VALUE(IF(_input!$B295=0,0,_input!$A295*100/_input!$B295))</f>
         <v>0</v>
       </c>
     </row>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="C295" s="20">
-        <f>VALUE(IF(_input!$A296=0,0,_input!$A296*100/_input!$B296))</f>
+        <f>VALUE(IF(_input!$B296=0,0,_input!$A296*100/_input!$B296))</f>
         <v>0</v>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="C296" s="20">
-        <f>VALUE(IF(_input!$A297=0,0,_input!$A297*100/_input!$B297))</f>
+        <f>VALUE(IF(_input!$B297=0,0,_input!$A297*100/_input!$B297))</f>
         <v>0</v>
       </c>
     </row>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="C297" s="20">
-        <f>VALUE(IF(_input!$A298=0,0,_input!$A298*100/_input!$B298))</f>
+        <f>VALUE(IF(_input!$B298=0,0,_input!$A298*100/_input!$B298))</f>
         <v>0</v>
       </c>
     </row>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="C298" s="20">
-        <f>VALUE(IF(_input!$A299=0,0,_input!$A299*100/_input!$B299))</f>
+        <f>VALUE(IF(_input!$B299=0,0,_input!$A299*100/_input!$B299))</f>
         <v>0</v>
       </c>
     </row>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="C299" s="20">
-        <f>VALUE(IF(_input!$A300=0,0,_input!$A300*100/_input!$B300))</f>
+        <f>VALUE(IF(_input!$B300=0,0,_input!$A300*100/_input!$B300))</f>
         <v>0</v>
       </c>
     </row>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="C300" s="20">
-        <f>VALUE(IF(_input!$A301=0,0,_input!$A301*100/_input!$B301))</f>
+        <f>VALUE(IF(_input!$B301=0,0,_input!$A301*100/_input!$B301))</f>
         <v>0</v>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="C301" s="20">
-        <f>VALUE(IF(_input!$A302=0,0,_input!$A302*100/_input!$B302))</f>
+        <f>VALUE(IF(_input!$B302=0,0,_input!$A302*100/_input!$B302))</f>
         <v>0</v>
       </c>
     </row>
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="C302" s="20">
-        <f>VALUE(IF(_input!$A303=0,0,_input!$A303*100/_input!$B303))</f>
+        <f>VALUE(IF(_input!$B303=0,0,_input!$A303*100/_input!$B303))</f>
         <v>0</v>
       </c>
     </row>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="C303" s="20">
-        <f>VALUE(IF(_input!$A304=0,0,_input!$A304*100/_input!$B304))</f>
+        <f>VALUE(IF(_input!$B304=0,0,_input!$A304*100/_input!$B304))</f>
         <v>0</v>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="C304" s="20">
-        <f>VALUE(IF(_input!$A305=0,0,_input!$A305*100/_input!$B305))</f>
+        <f>VALUE(IF(_input!$B305=0,0,_input!$A305*100/_input!$B305))</f>
         <v>0</v>
       </c>
     </row>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="C305" s="20">
-        <f>VALUE(IF(_input!$A306=0,0,_input!$A306*100/_input!$B306))</f>
+        <f>VALUE(IF(_input!$B306=0,0,_input!$A306*100/_input!$B306))</f>
         <v>0</v>
       </c>
     </row>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="C306" s="20">
-        <f>VALUE(IF(_input!$A307=0,0,_input!$A307*100/_input!$B307))</f>
+        <f>VALUE(IF(_input!$B307=0,0,_input!$A307*100/_input!$B307))</f>
         <v>0</v>
       </c>
     </row>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="C307" s="20">
-        <f>VALUE(IF(_input!$A308=0,0,_input!$A308*100/_input!$B308))</f>
+        <f>VALUE(IF(_input!$B308=0,0,_input!$A308*100/_input!$B308))</f>
         <v>0</v>
       </c>
     </row>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="C308" s="20">
-        <f>VALUE(IF(_input!$A309=0,0,_input!$A309*100/_input!$B309))</f>
+        <f>VALUE(IF(_input!$B309=0,0,_input!$A309*100/_input!$B309))</f>
         <v>0</v>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="C309" s="20">
-        <f>VALUE(IF(_input!$A310=0,0,_input!$A310*100/_input!$B310))</f>
+        <f>VALUE(IF(_input!$B310=0,0,_input!$A310*100/_input!$B310))</f>
         <v>0</v>
       </c>
     </row>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="C310" s="20">
-        <f>VALUE(IF(_input!$A311=0,0,_input!$A311*100/_input!$B311))</f>
+        <f>VALUE(IF(_input!$B311=0,0,_input!$A311*100/_input!$B311))</f>
         <v>0</v>
       </c>
     </row>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="C311" s="20">
-        <f>VALUE(IF(_input!$A312=0,0,_input!$A312*100/_input!$B312))</f>
+        <f>VALUE(IF(_input!$B312=0,0,_input!$A312*100/_input!$B312))</f>
         <v>0</v>
       </c>
     </row>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="C312" s="20">
-        <f>VALUE(IF(_input!$A313=0,0,_input!$A313*100/_input!$B313))</f>
+        <f>VALUE(IF(_input!$B313=0,0,_input!$A313*100/_input!$B313))</f>
         <v>0</v>
       </c>
     </row>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="C313" s="20">
-        <f>VALUE(IF(_input!$A314=0,0,_input!$A314*100/_input!$B314))</f>
+        <f>VALUE(IF(_input!$B314=0,0,_input!$A314*100/_input!$B314))</f>
         <v>0</v>
       </c>
     </row>
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="C314" s="20">
-        <f>VALUE(IF(_input!$A315=0,0,_input!$A315*100/_input!$B315))</f>
+        <f>VALUE(IF(_input!$B315=0,0,_input!$A315*100/_input!$B315))</f>
         <v>0</v>
       </c>
     </row>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="C315" s="20">
-        <f>VALUE(IF(_input!$A316=0,0,_input!$A316*100/_input!$B316))</f>
+        <f>VALUE(IF(_input!$B316=0,0,_input!$A316*100/_input!$B316))</f>
         <v>0</v>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="C316" s="20">
-        <f>VALUE(IF(_input!$A317=0,0,_input!$A317*100/_input!$B317))</f>
+        <f>VALUE(IF(_input!$B317=0,0,_input!$A317*100/_input!$B317))</f>
         <v>0</v>
       </c>
     </row>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="C317" s="20">
-        <f>VALUE(IF(_input!$A318=0,0,_input!$A318*100/_input!$B318))</f>
+        <f>VALUE(IF(_input!$B318=0,0,_input!$A318*100/_input!$B318))</f>
         <v>0</v>
       </c>
     </row>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="C318" s="20">
-        <f>VALUE(IF(_input!$A319=0,0,_input!$A319*100/_input!$B319))</f>
+        <f>VALUE(IF(_input!$B319=0,0,_input!$A319*100/_input!$B319))</f>
         <v>0</v>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="C319" s="20">
-        <f>VALUE(IF(_input!$A320=0,0,_input!$A320*100/_input!$B320))</f>
+        <f>VALUE(IF(_input!$B320=0,0,_input!$A320*100/_input!$B320))</f>
         <v>0</v>
       </c>
     </row>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="C320" s="20">
-        <f>VALUE(IF(_input!$A321=0,0,_input!$A321*100/_input!$B321))</f>
+        <f>VALUE(IF(_input!$B321=0,0,_input!$A321*100/_input!$B321))</f>
         <v>0</v>
       </c>
     </row>
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="C321" s="20">
-        <f>VALUE(IF(_input!$A322=0,0,_input!$A322*100/_input!$B322))</f>
+        <f>VALUE(IF(_input!$B322=0,0,_input!$A322*100/_input!$B322))</f>
         <v>0</v>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="C322" s="20">
-        <f>VALUE(IF(_input!$A323=0,0,_input!$A323*100/_input!$B323))</f>
+        <f>VALUE(IF(_input!$B323=0,0,_input!$A323*100/_input!$B323))</f>
         <v>0</v>
       </c>
     </row>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="C323" s="20">
-        <f>VALUE(IF(_input!$A324=0,0,_input!$A324*100/_input!$B324))</f>
+        <f>VALUE(IF(_input!$B324=0,0,_input!$A324*100/_input!$B324))</f>
         <v>0</v>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="C324" s="20">
-        <f>VALUE(IF(_input!$A325=0,0,_input!$A325*100/_input!$B325))</f>
+        <f>VALUE(IF(_input!$B325=0,0,_input!$A325*100/_input!$B325))</f>
         <v>0</v>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="C325" s="20">
-        <f>VALUE(IF(_input!$A326=0,0,_input!$A326*100/_input!$B326))</f>
+        <f>VALUE(IF(_input!$B326=0,0,_input!$A326*100/_input!$B326))</f>
         <v>0</v>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="C326" s="20">
-        <f>VALUE(IF(_input!$A327=0,0,_input!$A327*100/_input!$B327))</f>
+        <f>VALUE(IF(_input!$B327=0,0,_input!$A327*100/_input!$B327))</f>
         <v>0</v>
       </c>
     </row>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="C327" s="20">
-        <f>VALUE(IF(_input!$A328=0,0,_input!$A328*100/_input!$B328))</f>
+        <f>VALUE(IF(_input!$B328=0,0,_input!$A328*100/_input!$B328))</f>
         <v>0</v>
       </c>
     </row>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="C328" s="20">
-        <f>VALUE(IF(_input!$A329=0,0,_input!$A329*100/_input!$B329))</f>
+        <f>VALUE(IF(_input!$B329=0,0,_input!$A329*100/_input!$B329))</f>
         <v>0</v>
       </c>
     </row>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="C329" s="20">
-        <f>VALUE(IF(_input!$A330=0,0,_input!$A330*100/_input!$B330))</f>
+        <f>VALUE(IF(_input!$B330=0,0,_input!$A330*100/_input!$B330))</f>
         <v>0</v>
       </c>
     </row>
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="C330" s="20">
-        <f>VALUE(IF(_input!$A331=0,0,_input!$A331*100/_input!$B331))</f>
+        <f>VALUE(IF(_input!$B331=0,0,_input!$A331*100/_input!$B331))</f>
         <v>0</v>
       </c>
     </row>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="C331" s="20">
-        <f>VALUE(IF(_input!$A332=0,0,_input!$A332*100/_input!$B332))</f>
+        <f>VALUE(IF(_input!$B332=0,0,_input!$A332*100/_input!$B332))</f>
         <v>0</v>
       </c>
     </row>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="C332" s="20">
-        <f>VALUE(IF(_input!$A333=0,0,_input!$A333*100/_input!$B333))</f>
+        <f>VALUE(IF(_input!$B333=0,0,_input!$A333*100/_input!$B333))</f>
         <v>0</v>
       </c>
     </row>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="C333" s="20">
-        <f>VALUE(IF(_input!$A334=0,0,_input!$A334*100/_input!$B334))</f>
+        <f>VALUE(IF(_input!$B334=0,0,_input!$A334*100/_input!$B334))</f>
         <v>0</v>
       </c>
     </row>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="C334" s="20">
-        <f>VALUE(IF(_input!$A335=0,0,_input!$A335*100/_input!$B335))</f>
+        <f>VALUE(IF(_input!$B335=0,0,_input!$A335*100/_input!$B335))</f>
         <v>0</v>
       </c>
     </row>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="C335" s="20">
-        <f>VALUE(IF(_input!$A336=0,0,_input!$A336*100/_input!$B336))</f>
+        <f>VALUE(IF(_input!$B336=0,0,_input!$A336*100/_input!$B336))</f>
         <v>0</v>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="C336" s="20">
-        <f>VALUE(IF(_input!$A337=0,0,_input!$A337*100/_input!$B337))</f>
+        <f>VALUE(IF(_input!$B337=0,0,_input!$A337*100/_input!$B337))</f>
         <v>0</v>
       </c>
     </row>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="C337" s="20">
-        <f>VALUE(IF(_input!$A338=0,0,_input!$A338*100/_input!$B338))</f>
+        <f>VALUE(IF(_input!$B338=0,0,_input!$A338*100/_input!$B338))</f>
         <v>0</v>
       </c>
     </row>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="C338" s="20">
-        <f>VALUE(IF(_input!$A339=0,0,_input!$A339*100/_input!$B339))</f>
+        <f>VALUE(IF(_input!$B339=0,0,_input!$A339*100/_input!$B339))</f>
         <v>0</v>
       </c>
     </row>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="C339" s="20">
-        <f>VALUE(IF(_input!$A340=0,0,_input!$A340*100/_input!$B340))</f>
+        <f>VALUE(IF(_input!$B340=0,0,_input!$A340*100/_input!$B340))</f>
         <v>0</v>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="C340" s="20">
-        <f>VALUE(IF(_input!$A341=0,0,_input!$A341*100/_input!$B341))</f>
+        <f>VALUE(IF(_input!$B341=0,0,_input!$A341*100/_input!$B341))</f>
         <v>0</v>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="C341" s="20">
-        <f>VALUE(IF(_input!$A342=0,0,_input!$A342*100/_input!$B342))</f>
+        <f>VALUE(IF(_input!$B342=0,0,_input!$A342*100/_input!$B342))</f>
         <v>0</v>
       </c>
     </row>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="C342" s="20">
-        <f>VALUE(IF(_input!$A343=0,0,_input!$A343*100/_input!$B343))</f>
+        <f>VALUE(IF(_input!$B343=0,0,_input!$A343*100/_input!$B343))</f>
         <v>0</v>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="C343" s="20">
-        <f>VALUE(IF(_input!$A344=0,0,_input!$A344*100/_input!$B344))</f>
+        <f>VALUE(IF(_input!$B344=0,0,_input!$A344*100/_input!$B344))</f>
         <v>0</v>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="C344" s="20">
-        <f>VALUE(IF(_input!$A345=0,0,_input!$A345*100/_input!$B345))</f>
+        <f>VALUE(IF(_input!$B345=0,0,_input!$A345*100/_input!$B345))</f>
         <v>0</v>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="C345" s="20">
-        <f>VALUE(IF(_input!$A346=0,0,_input!$A346*100/_input!$B346))</f>
+        <f>VALUE(IF(_input!$B346=0,0,_input!$A346*100/_input!$B346))</f>
         <v>0</v>
       </c>
     </row>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="C346" s="20">
-        <f>VALUE(IF(_input!$A347=0,0,_input!$A347*100/_input!$B347))</f>
+        <f>VALUE(IF(_input!$B347=0,0,_input!$A347*100/_input!$B347))</f>
         <v>0</v>
       </c>
     </row>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="C347" s="20">
-        <f>VALUE(IF(_input!$A348=0,0,_input!$A348*100/_input!$B348))</f>
+        <f>VALUE(IF(_input!$B348=0,0,_input!$A348*100/_input!$B348))</f>
         <v>0</v>
       </c>
     </row>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="C348" s="20">
-        <f>VALUE(IF(_input!$A349=0,0,_input!$A349*100/_input!$B349))</f>
+        <f>VALUE(IF(_input!$B349=0,0,_input!$A349*100/_input!$B349))</f>
         <v>0</v>
       </c>
     </row>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="C349" s="20">
-        <f>VALUE(IF(_input!$A350=0,0,_input!$A350*100/_input!$B350))</f>
+        <f>VALUE(IF(_input!$B350=0,0,_input!$A350*100/_input!$B350))</f>
         <v>0</v>
       </c>
     </row>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="C350" s="20">
-        <f>VALUE(IF(_input!$A351=0,0,_input!$A351*100/_input!$B351))</f>
+        <f>VALUE(IF(_input!$B351=0,0,_input!$A351*100/_input!$B351))</f>
         <v>0</v>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="C351" s="20">
-        <f>VALUE(IF(_input!$A352=0,0,_input!$A352*100/_input!$B352))</f>
+        <f>VALUE(IF(_input!$B352=0,0,_input!$A352*100/_input!$B352))</f>
         <v>0</v>
       </c>
     </row>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="C352" s="20">
-        <f>VALUE(IF(_input!$A353=0,0,_input!$A353*100/_input!$B353))</f>
+        <f>VALUE(IF(_input!$B353=0,0,_input!$A353*100/_input!$B353))</f>
         <v>0</v>
       </c>
     </row>
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="C353" s="20">
-        <f>VALUE(IF(_input!$A354=0,0,_input!$A354*100/_input!$B354))</f>
+        <f>VALUE(IF(_input!$B354=0,0,_input!$A354*100/_input!$B354))</f>
         <v>0</v>
       </c>
     </row>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="C354" s="20">
-        <f>VALUE(IF(_input!$A355=0,0,_input!$A355*100/_input!$B355))</f>
+        <f>VALUE(IF(_input!$B355=0,0,_input!$A355*100/_input!$B355))</f>
         <v>0</v>
       </c>
     </row>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="C355" s="20">
-        <f>VALUE(IF(_input!$A356=0,0,_input!$A356*100/_input!$B356))</f>
+        <f>VALUE(IF(_input!$B356=0,0,_input!$A356*100/_input!$B356))</f>
         <v>0</v>
       </c>
     </row>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="C356" s="20">
-        <f>VALUE(IF(_input!$A357=0,0,_input!$A357*100/_input!$B357))</f>
+        <f>VALUE(IF(_input!$B357=0,0,_input!$A357*100/_input!$B357))</f>
         <v>0</v>
       </c>
     </row>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="C357" s="20">
-        <f>VALUE(IF(_input!$A358=0,0,_input!$A358*100/_input!$B358))</f>
+        <f>VALUE(IF(_input!$B358=0,0,_input!$A358*100/_input!$B358))</f>
         <v>0</v>
       </c>
     </row>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="C358" s="20">
-        <f>VALUE(IF(_input!$A359=0,0,_input!$A359*100/_input!$B359))</f>
+        <f>VALUE(IF(_input!$B359=0,0,_input!$A359*100/_input!$B359))</f>
         <v>0</v>
       </c>
     </row>
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="C359" s="20">
-        <f>VALUE(IF(_input!$A360=0,0,_input!$A360*100/_input!$B360))</f>
+        <f>VALUE(IF(_input!$B360=0,0,_input!$A360*100/_input!$B360))</f>
         <v>0</v>
       </c>
     </row>
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="C360" s="20">
-        <f>VALUE(IF(_input!$A361=0,0,_input!$A361*100/_input!$B361))</f>
+        <f>VALUE(IF(_input!$B361=0,0,_input!$A361*100/_input!$B361))</f>
         <v>0</v>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="C361" s="20">
-        <f>VALUE(IF(_input!$A362=0,0,_input!$A362*100/_input!$B362))</f>
+        <f>VALUE(IF(_input!$B362=0,0,_input!$A362*100/_input!$B362))</f>
         <v>0</v>
       </c>
     </row>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="C362" s="20">
-        <f>VALUE(IF(_input!$A363=0,0,_input!$A363*100/_input!$B363))</f>
+        <f>VALUE(IF(_input!$B363=0,0,_input!$A363*100/_input!$B363))</f>
         <v>0</v>
       </c>
     </row>
@@ -6462,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="C363" s="20">
-        <f>VALUE(IF(_input!$A364=0,0,_input!$A364*100/_input!$B364))</f>
+        <f>VALUE(IF(_input!$B364=0,0,_input!$A364*100/_input!$B364))</f>
         <v>0</v>
       </c>
     </row>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="C364" s="20">
-        <f>VALUE(IF(_input!$A365=0,0,_input!$A365*100/_input!$B365))</f>
+        <f>VALUE(IF(_input!$B365=0,0,_input!$A365*100/_input!$B365))</f>
         <v>0</v>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="C365" s="20">
-        <f>VALUE(IF(_input!$A366=0,0,_input!$A366*100/_input!$B366))</f>
+        <f>VALUE(IF(_input!$B366=0,0,_input!$A366*100/_input!$B366))</f>
         <v>0</v>
       </c>
     </row>
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="C366" s="20">
-        <f>VALUE(IF(_input!$A367=0,0,_input!$A367*100/_input!$B367))</f>
+        <f>VALUE(IF(_input!$B367=0,0,_input!$A367*100/_input!$B367))</f>
         <v>0</v>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="C367" s="20">
-        <f>VALUE(IF(_input!$A368=0,0,_input!$A368*100/_input!$B368))</f>
+        <f>VALUE(IF(_input!$B368=0,0,_input!$A368*100/_input!$B368))</f>
         <v>0</v>
       </c>
     </row>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="C368" s="20">
-        <f>VALUE(IF(_input!$A369=0,0,_input!$A369*100/_input!$B369))</f>
+        <f>VALUE(IF(_input!$B369=0,0,_input!$A369*100/_input!$B369))</f>
         <v>0</v>
       </c>
     </row>
@@ -6546,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="C369" s="20">
-        <f>VALUE(IF(_input!$A370=0,0,_input!$A370*100/_input!$B370))</f>
+        <f>VALUE(IF(_input!$B370=0,0,_input!$A370*100/_input!$B370))</f>
         <v>0</v>
       </c>
     </row>
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="C370" s="20">
-        <f>VALUE(IF(_input!$A371=0,0,_input!$A371*100/_input!$B371))</f>
+        <f>VALUE(IF(_input!$B371=0,0,_input!$A371*100/_input!$B371))</f>
         <v>0</v>
       </c>
     </row>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="C371" s="20">
-        <f>VALUE(IF(_input!$A372=0,0,_input!$A372*100/_input!$B372))</f>
+        <f>VALUE(IF(_input!$B372=0,0,_input!$A372*100/_input!$B372))</f>
         <v>0</v>
       </c>
     </row>
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="C372" s="20">
-        <f>VALUE(IF(_input!$A373=0,0,_input!$A373*100/_input!$B373))</f>
+        <f>VALUE(IF(_input!$B373=0,0,_input!$A373*100/_input!$B373))</f>
         <v>0</v>
       </c>
     </row>
@@ -6602,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="C373" s="20">
-        <f>VALUE(IF(_input!$A374=0,0,_input!$A374*100/_input!$B374))</f>
+        <f>VALUE(IF(_input!$B374=0,0,_input!$A374*100/_input!$B374))</f>
         <v>0</v>
       </c>
     </row>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="C374" s="20">
-        <f>VALUE(IF(_input!$A375=0,0,_input!$A375*100/_input!$B375))</f>
+        <f>VALUE(IF(_input!$B375=0,0,_input!$A375*100/_input!$B375))</f>
         <v>0</v>
       </c>
     </row>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="C375" s="20">
-        <f>VALUE(IF(_input!$A376=0,0,_input!$A376*100/_input!$B376))</f>
+        <f>VALUE(IF(_input!$B376=0,0,_input!$A376*100/_input!$B376))</f>
         <v>0</v>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="C376" s="20">
-        <f>VALUE(IF(_input!$A377=0,0,_input!$A377*100/_input!$B377))</f>
+        <f>VALUE(IF(_input!$B377=0,0,_input!$A377*100/_input!$B377))</f>
         <v>0</v>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="C377" s="20">
-        <f>VALUE(IF(_input!$A378=0,0,_input!$A378*100/_input!$B378))</f>
+        <f>VALUE(IF(_input!$B378=0,0,_input!$A378*100/_input!$B378))</f>
         <v>0</v>
       </c>
     </row>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="C378" s="20">
-        <f>VALUE(IF(_input!$A379=0,0,_input!$A379*100/_input!$B379))</f>
+        <f>VALUE(IF(_input!$B379=0,0,_input!$A379*100/_input!$B379))</f>
         <v>0</v>
       </c>
     </row>
@@ -6686,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="C379" s="20">
-        <f>VALUE(IF(_input!$A380=0,0,_input!$A380*100/_input!$B380))</f>
+        <f>VALUE(IF(_input!$B380=0,0,_input!$A380*100/_input!$B380))</f>
         <v>0</v>
       </c>
     </row>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="C380" s="20">
-        <f>VALUE(IF(_input!$A381=0,0,_input!$A381*100/_input!$B381))</f>
+        <f>VALUE(IF(_input!$B381=0,0,_input!$A381*100/_input!$B381))</f>
         <v>0</v>
       </c>
     </row>
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="C381" s="20">
-        <f>VALUE(IF(_input!$A382=0,0,_input!$A382*100/_input!$B382))</f>
+        <f>VALUE(IF(_input!$B382=0,0,_input!$A382*100/_input!$B382))</f>
         <v>0</v>
       </c>
     </row>
@@ -6728,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="C382" s="20">
-        <f>VALUE(IF(_input!$A383=0,0,_input!$A383*100/_input!$B383))</f>
+        <f>VALUE(IF(_input!$B383=0,0,_input!$A383*100/_input!$B383))</f>
         <v>0</v>
       </c>
     </row>
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="C383" s="20">
-        <f>VALUE(IF(_input!$A384=0,0,_input!$A384*100/_input!$B384))</f>
+        <f>VALUE(IF(_input!$B384=0,0,_input!$A384*100/_input!$B384))</f>
         <v>0</v>
       </c>
     </row>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="C384" s="20">
-        <f>VALUE(IF(_input!$A385=0,0,_input!$A385*100/_input!$B385))</f>
+        <f>VALUE(IF(_input!$B385=0,0,_input!$A385*100/_input!$B385))</f>
         <v>0</v>
       </c>
     </row>
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="C385" s="20">
-        <f>VALUE(IF(_input!$A386=0,0,_input!$A386*100/_input!$B386))</f>
+        <f>VALUE(IF(_input!$B386=0,0,_input!$A386*100/_input!$B386))</f>
         <v>0</v>
       </c>
     </row>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="C386" s="20">
-        <f>VALUE(IF(_input!$A387=0,0,_input!$A387*100/_input!$B387))</f>
+        <f>VALUE(IF(_input!$B387=0,0,_input!$A387*100/_input!$B387))</f>
         <v>0</v>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="C387" s="20">
-        <f>VALUE(IF(_input!$A388=0,0,_input!$A388*100/_input!$B388))</f>
+        <f>VALUE(IF(_input!$B388=0,0,_input!$A388*100/_input!$B388))</f>
         <v>0</v>
       </c>
     </row>
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="C388" s="20">
-        <f>VALUE(IF(_input!$A389=0,0,_input!$A389*100/_input!$B389))</f>
+        <f>VALUE(IF(_input!$B389=0,0,_input!$A389*100/_input!$B389))</f>
         <v>0</v>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="C389" s="20">
-        <f>VALUE(IF(_input!$A390=0,0,_input!$A390*100/_input!$B390))</f>
+        <f>VALUE(IF(_input!$B390=0,0,_input!$A390*100/_input!$B390))</f>
         <v>0</v>
       </c>
     </row>
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="C390" s="20">
-        <f>VALUE(IF(_input!$A391=0,0,_input!$A391*100/_input!$B391))</f>
+        <f>VALUE(IF(_input!$B391=0,0,_input!$A391*100/_input!$B391))</f>
         <v>0</v>
       </c>
     </row>
@@ -6854,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="C391" s="20">
-        <f>VALUE(IF(_input!$A392=0,0,_input!$A392*100/_input!$B392))</f>
+        <f>VALUE(IF(_input!$B392=0,0,_input!$A392*100/_input!$B392))</f>
         <v>0</v>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="C392" s="20">
-        <f>VALUE(IF(_input!$A393=0,0,_input!$A393*100/_input!$B393))</f>
+        <f>VALUE(IF(_input!$B393=0,0,_input!$A393*100/_input!$B393))</f>
         <v>0</v>
       </c>
     </row>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="C393" s="20">
-        <f>VALUE(IF(_input!$A394=0,0,_input!$A394*100/_input!$B394))</f>
+        <f>VALUE(IF(_input!$B394=0,0,_input!$A394*100/_input!$B394))</f>
         <v>0</v>
       </c>
     </row>
@@ -6896,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="C394" s="20">
-        <f>VALUE(IF(_input!$A395=0,0,_input!$A395*100/_input!$B395))</f>
+        <f>VALUE(IF(_input!$B395=0,0,_input!$A395*100/_input!$B395))</f>
         <v>0</v>
       </c>
     </row>
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="C395" s="20">
-        <f>VALUE(IF(_input!$A396=0,0,_input!$A396*100/_input!$B396))</f>
+        <f>VALUE(IF(_input!$B396=0,0,_input!$A396*100/_input!$B396))</f>
         <v>0</v>
       </c>
     </row>
@@ -6924,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="C396" s="20">
-        <f>VALUE(IF(_input!$A397=0,0,_input!$A397*100/_input!$B397))</f>
+        <f>VALUE(IF(_input!$B397=0,0,_input!$A397*100/_input!$B397))</f>
         <v>0</v>
       </c>
     </row>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="C397" s="20">
-        <f>VALUE(IF(_input!$A398=0,0,_input!$A398*100/_input!$B398))</f>
+        <f>VALUE(IF(_input!$B398=0,0,_input!$A398*100/_input!$B398))</f>
         <v>0</v>
       </c>
     </row>
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="C398" s="20">
-        <f>VALUE(IF(_input!$A399=0,0,_input!$A399*100/_input!$B399))</f>
+        <f>VALUE(IF(_input!$B399=0,0,_input!$A399*100/_input!$B399))</f>
         <v>0</v>
       </c>
     </row>
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="C399" s="20">
-        <f>VALUE(IF(_input!$A400=0,0,_input!$A400*100/_input!$B400))</f>
+        <f>VALUE(IF(_input!$B400=0,0,_input!$A400*100/_input!$B400))</f>
         <v>0</v>
       </c>
     </row>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="C400" s="20">
-        <f>VALUE(IF(_input!$A401=0,0,_input!$A401*100/_input!$B401))</f>
+        <f>VALUE(IF(_input!$B401=0,0,_input!$A401*100/_input!$B401))</f>
         <v>0</v>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="C401" s="20">
-        <f>VALUE(IF(_input!$A402=0,0,_input!$A402*100/_input!$B402))</f>
+        <f>VALUE(IF(_input!$B402=0,0,_input!$A402*100/_input!$B402))</f>
         <v>0</v>
       </c>
     </row>
@@ -7008,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="C402" s="20">
-        <f>VALUE(IF(_input!$A403=0,0,_input!$A403*100/_input!$B403))</f>
+        <f>VALUE(IF(_input!$B403=0,0,_input!$A403*100/_input!$B403))</f>
         <v>0</v>
       </c>
     </row>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="C403" s="20">
-        <f>VALUE(IF(_input!$A404=0,0,_input!$A404*100/_input!$B404))</f>
+        <f>VALUE(IF(_input!$B404=0,0,_input!$A404*100/_input!$B404))</f>
         <v>0</v>
       </c>
     </row>
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="C404" s="20">
-        <f>VALUE(IF(_input!$A405=0,0,_input!$A405*100/_input!$B405))</f>
+        <f>VALUE(IF(_input!$B405=0,0,_input!$A405*100/_input!$B405))</f>
         <v>0</v>
       </c>
     </row>
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="C405" s="20">
-        <f>VALUE(IF(_input!$A406=0,0,_input!$A406*100/_input!$B406))</f>
+        <f>VALUE(IF(_input!$B406=0,0,_input!$A406*100/_input!$B406))</f>
         <v>0</v>
       </c>
     </row>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="C406" s="20">
-        <f>VALUE(IF(_input!$A407=0,0,_input!$A407*100/_input!$B407))</f>
+        <f>VALUE(IF(_input!$B407=0,0,_input!$A407*100/_input!$B407))</f>
         <v>0</v>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="C407" s="20">
-        <f>VALUE(IF(_input!$A408=0,0,_input!$A408*100/_input!$B408))</f>
+        <f>VALUE(IF(_input!$B408=0,0,_input!$A408*100/_input!$B408))</f>
         <v>0</v>
       </c>
     </row>
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="C408" s="20">
-        <f>VALUE(IF(_input!$A409=0,0,_input!$A409*100/_input!$B409))</f>
+        <f>VALUE(IF(_input!$B409=0,0,_input!$A409*100/_input!$B409))</f>
         <v>0</v>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="C409" s="20">
-        <f>VALUE(IF(_input!$A410=0,0,_input!$A410*100/_input!$B410))</f>
+        <f>VALUE(IF(_input!$B410=0,0,_input!$A410*100/_input!$B410))</f>
         <v>0</v>
       </c>
     </row>
@@ -7120,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="C410" s="20">
-        <f>VALUE(IF(_input!$A411=0,0,_input!$A411*100/_input!$B411))</f>
+        <f>VALUE(IF(_input!$B411=0,0,_input!$A411*100/_input!$B411))</f>
         <v>0</v>
       </c>
     </row>
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="C411" s="20">
-        <f>VALUE(IF(_input!$A412=0,0,_input!$A412*100/_input!$B412))</f>
+        <f>VALUE(IF(_input!$B412=0,0,_input!$A412*100/_input!$B412))</f>
         <v>0</v>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="C412" s="20">
-        <f>VALUE(IF(_input!$A413=0,0,_input!$A413*100/_input!$B413))</f>
+        <f>VALUE(IF(_input!$B413=0,0,_input!$A413*100/_input!$B413))</f>
         <v>0</v>
       </c>
     </row>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="C413" s="20">
-        <f>VALUE(IF(_input!$A414=0,0,_input!$A414*100/_input!$B414))</f>
+        <f>VALUE(IF(_input!$B414=0,0,_input!$A414*100/_input!$B414))</f>
         <v>0</v>
       </c>
     </row>
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="C414" s="20">
-        <f>VALUE(IF(_input!$A415=0,0,_input!$A415*100/_input!$B415))</f>
+        <f>VALUE(IF(_input!$B415=0,0,_input!$A415*100/_input!$B415))</f>
         <v>0</v>
       </c>
     </row>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="C415" s="20">
-        <f>VALUE(IF(_input!$A416=0,0,_input!$A416*100/_input!$B416))</f>
+        <f>VALUE(IF(_input!$B416=0,0,_input!$A416*100/_input!$B416))</f>
         <v>0</v>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="C416" s="20">
-        <f>VALUE(IF(_input!$A417=0,0,_input!$A417*100/_input!$B417))</f>
+        <f>VALUE(IF(_input!$B417=0,0,_input!$A417*100/_input!$B417))</f>
         <v>0</v>
       </c>
     </row>
@@ -7218,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="C417" s="20">
-        <f>VALUE(IF(_input!$A418=0,0,_input!$A418*100/_input!$B418))</f>
+        <f>VALUE(IF(_input!$B418=0,0,_input!$A418*100/_input!$B418))</f>
         <v>0</v>
       </c>
     </row>
@@ -7232,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="C418" s="20">
-        <f>VALUE(IF(_input!$A419=0,0,_input!$A419*100/_input!$B419))</f>
+        <f>VALUE(IF(_input!$B419=0,0,_input!$A419*100/_input!$B419))</f>
         <v>0</v>
       </c>
     </row>
@@ -7246,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="C419" s="20">
-        <f>VALUE(IF(_input!$A420=0,0,_input!$A420*100/_input!$B420))</f>
+        <f>VALUE(IF(_input!$B420=0,0,_input!$A420*100/_input!$B420))</f>
         <v>0</v>
       </c>
     </row>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="C420" s="20">
-        <f>VALUE(IF(_input!$A421=0,0,_input!$A421*100/_input!$B421))</f>
+        <f>VALUE(IF(_input!$B421=0,0,_input!$A421*100/_input!$B421))</f>
         <v>0</v>
       </c>
     </row>
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="C421" s="20">
-        <f>VALUE(IF(_input!$A422=0,0,_input!$A422*100/_input!$B422))</f>
+        <f>VALUE(IF(_input!$B422=0,0,_input!$A422*100/_input!$B422))</f>
         <v>0</v>
       </c>
     </row>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="C422" s="20">
-        <f>VALUE(IF(_input!$A423=0,0,_input!$A423*100/_input!$B423))</f>
+        <f>VALUE(IF(_input!$B423=0,0,_input!$A423*100/_input!$B423))</f>
         <v>0</v>
       </c>
     </row>
@@ -7302,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="C423" s="20">
-        <f>VALUE(IF(_input!$A424=0,0,_input!$A424*100/_input!$B424))</f>
+        <f>VALUE(IF(_input!$B424=0,0,_input!$A424*100/_input!$B424))</f>
         <v>0</v>
       </c>
     </row>
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="C424" s="20">
-        <f>VALUE(IF(_input!$A425=0,0,_input!$A425*100/_input!$B425))</f>
+        <f>VALUE(IF(_input!$B425=0,0,_input!$A425*100/_input!$B425))</f>
         <v>0</v>
       </c>
     </row>
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="C425" s="20">
-        <f>VALUE(IF(_input!$A426=0,0,_input!$A426*100/_input!$B426))</f>
+        <f>VALUE(IF(_input!$B426=0,0,_input!$A426*100/_input!$B426))</f>
         <v>0</v>
       </c>
     </row>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="C426" s="20">
-        <f>VALUE(IF(_input!$A427=0,0,_input!$A427*100/_input!$B427))</f>
+        <f>VALUE(IF(_input!$B427=0,0,_input!$A427*100/_input!$B427))</f>
         <v>0</v>
       </c>
     </row>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="C427" s="20">
-        <f>VALUE(IF(_input!$A428=0,0,_input!$A428*100/_input!$B428))</f>
+        <f>VALUE(IF(_input!$B428=0,0,_input!$A428*100/_input!$B428))</f>
         <v>0</v>
       </c>
     </row>
@@ -7372,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="C428" s="20">
-        <f>VALUE(IF(_input!$A429=0,0,_input!$A429*100/_input!$B429))</f>
+        <f>VALUE(IF(_input!$B429=0,0,_input!$A429*100/_input!$B429))</f>
         <v>0</v>
       </c>
     </row>
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="C429" s="20">
-        <f>VALUE(IF(_input!$A430=0,0,_input!$A430*100/_input!$B430))</f>
+        <f>VALUE(IF(_input!$B430=0,0,_input!$A430*100/_input!$B430))</f>
         <v>0</v>
       </c>
     </row>
@@ -7400,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="C430" s="20">
-        <f>VALUE(IF(_input!$A431=0,0,_input!$A431*100/_input!$B431))</f>
+        <f>VALUE(IF(_input!$B431=0,0,_input!$A431*100/_input!$B431))</f>
         <v>0</v>
       </c>
     </row>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="C431" s="20">
-        <f>VALUE(IF(_input!$A432=0,0,_input!$A432*100/_input!$B432))</f>
+        <f>VALUE(IF(_input!$B432=0,0,_input!$A432*100/_input!$B432))</f>
         <v>0</v>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="C432" s="20">
-        <f>VALUE(IF(_input!$A433=0,0,_input!$A433*100/_input!$B433))</f>
+        <f>VALUE(IF(_input!$B433=0,0,_input!$A433*100/_input!$B433))</f>
         <v>0</v>
       </c>
     </row>
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="C433" s="20">
-        <f>VALUE(IF(_input!$A434=0,0,_input!$A434*100/_input!$B434))</f>
+        <f>VALUE(IF(_input!$B434=0,0,_input!$A434*100/_input!$B434))</f>
         <v>0</v>
       </c>
     </row>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="C434" s="20">
-        <f>VALUE(IF(_input!$A435=0,0,_input!$A435*100/_input!$B435))</f>
+        <f>VALUE(IF(_input!$B435=0,0,_input!$A435*100/_input!$B435))</f>
         <v>0</v>
       </c>
     </row>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="C435" s="20">
-        <f>VALUE(IF(_input!$A436=0,0,_input!$A436*100/_input!$B436))</f>
+        <f>VALUE(IF(_input!$B436=0,0,_input!$A436*100/_input!$B436))</f>
         <v>0</v>
       </c>
     </row>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="C436" s="20">
-        <f>VALUE(IF(_input!$A437=0,0,_input!$A437*100/_input!$B437))</f>
+        <f>VALUE(IF(_input!$B437=0,0,_input!$A437*100/_input!$B437))</f>
         <v>0</v>
       </c>
     </row>
@@ -7498,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="C437" s="20">
-        <f>VALUE(IF(_input!$A438=0,0,_input!$A438*100/_input!$B438))</f>
+        <f>VALUE(IF(_input!$B438=0,0,_input!$A438*100/_input!$B438))</f>
         <v>0</v>
       </c>
     </row>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="C438" s="20">
-        <f>VALUE(IF(_input!$A439=0,0,_input!$A439*100/_input!$B439))</f>
+        <f>VALUE(IF(_input!$B439=0,0,_input!$A439*100/_input!$B439))</f>
         <v>0</v>
       </c>
     </row>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="C439" s="20">
-        <f>VALUE(IF(_input!$A440=0,0,_input!$A440*100/_input!$B440))</f>
+        <f>VALUE(IF(_input!$B440=0,0,_input!$A440*100/_input!$B440))</f>
         <v>0</v>
       </c>
     </row>
@@ -7540,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="C440" s="20">
-        <f>VALUE(IF(_input!$A441=0,0,_input!$A441*100/_input!$B441))</f>
+        <f>VALUE(IF(_input!$B441=0,0,_input!$A441*100/_input!$B441))</f>
         <v>0</v>
       </c>
     </row>
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="C441" s="20">
-        <f>VALUE(IF(_input!$A442=0,0,_input!$A442*100/_input!$B442))</f>
+        <f>VALUE(IF(_input!$B442=0,0,_input!$A442*100/_input!$B442))</f>
         <v>0</v>
       </c>
     </row>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="C442" s="20">
-        <f>VALUE(IF(_input!$A443=0,0,_input!$A443*100/_input!$B443))</f>
+        <f>VALUE(IF(_input!$B443=0,0,_input!$A443*100/_input!$B443))</f>
         <v>0</v>
       </c>
     </row>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="C443" s="20">
-        <f>VALUE(IF(_input!$A444=0,0,_input!$A444*100/_input!$B444))</f>
+        <f>VALUE(IF(_input!$B444=0,0,_input!$A444*100/_input!$B444))</f>
         <v>0</v>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="C444" s="20">
-        <f>VALUE(IF(_input!$A445=0,0,_input!$A445*100/_input!$B445))</f>
+        <f>VALUE(IF(_input!$B445=0,0,_input!$A445*100/_input!$B445))</f>
         <v>0</v>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="C445" s="20">
-        <f>VALUE(IF(_input!$A446=0,0,_input!$A446*100/_input!$B446))</f>
+        <f>VALUE(IF(_input!$B446=0,0,_input!$A446*100/_input!$B446))</f>
         <v>0</v>
       </c>
     </row>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="C446" s="20">
-        <f>VALUE(IF(_input!$A447=0,0,_input!$A447*100/_input!$B447))</f>
+        <f>VALUE(IF(_input!$B447=0,0,_input!$A447*100/_input!$B447))</f>
         <v>0</v>
       </c>
     </row>
@@ -7638,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="C447" s="20">
-        <f>VALUE(IF(_input!$A448=0,0,_input!$A448*100/_input!$B448))</f>
+        <f>VALUE(IF(_input!$B448=0,0,_input!$A448*100/_input!$B448))</f>
         <v>0</v>
       </c>
     </row>
@@ -7652,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="C448" s="20">
-        <f>VALUE(IF(_input!$A449=0,0,_input!$A449*100/_input!$B449))</f>
+        <f>VALUE(IF(_input!$B449=0,0,_input!$A449*100/_input!$B449))</f>
         <v>0</v>
       </c>
     </row>
@@ -7666,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="C449" s="20">
-        <f>VALUE(IF(_input!$A450=0,0,_input!$A450*100/_input!$B450))</f>
+        <f>VALUE(IF(_input!$B450=0,0,_input!$A450*100/_input!$B450))</f>
         <v>0</v>
       </c>
     </row>
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="C450" s="20">
-        <f>VALUE(IF(_input!$A451=0,0,_input!$A451*100/_input!$B451))</f>
+        <f>VALUE(IF(_input!$B451=0,0,_input!$A451*100/_input!$B451))</f>
         <v>0</v>
       </c>
     </row>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="C451" s="20">
-        <f>VALUE(IF(_input!$A452=0,0,_input!$A452*100/_input!$B452))</f>
+        <f>VALUE(IF(_input!$B452=0,0,_input!$A452*100/_input!$B452))</f>
         <v>0</v>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="C452" s="20">
-        <f>VALUE(IF(_input!$A453=0,0,_input!$A453*100/_input!$B453))</f>
+        <f>VALUE(IF(_input!$B453=0,0,_input!$A453*100/_input!$B453))</f>
         <v>0</v>
       </c>
     </row>
@@ -7722,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="C453" s="20">
-        <f>VALUE(IF(_input!$A454=0,0,_input!$A454*100/_input!$B454))</f>
+        <f>VALUE(IF(_input!$B454=0,0,_input!$A454*100/_input!$B454))</f>
         <v>0</v>
       </c>
     </row>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="C454" s="20">
-        <f>VALUE(IF(_input!$A455=0,0,_input!$A455*100/_input!$B455))</f>
+        <f>VALUE(IF(_input!$B455=0,0,_input!$A455*100/_input!$B455))</f>
         <v>0</v>
       </c>
     </row>
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="C455" s="20">
-        <f>VALUE(IF(_input!$A456=0,0,_input!$A456*100/_input!$B456))</f>
+        <f>VALUE(IF(_input!$B456=0,0,_input!$A456*100/_input!$B456))</f>
         <v>0</v>
       </c>
     </row>
@@ -7764,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="C456" s="20">
-        <f>VALUE(IF(_input!$A457=0,0,_input!$A457*100/_input!$B457))</f>
+        <f>VALUE(IF(_input!$B457=0,0,_input!$A457*100/_input!$B457))</f>
         <v>0</v>
       </c>
     </row>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="C457" s="20">
-        <f>VALUE(IF(_input!$A458=0,0,_input!$A458*100/_input!$B458))</f>
+        <f>VALUE(IF(_input!$B458=0,0,_input!$A458*100/_input!$B458))</f>
         <v>0</v>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="C458" s="20">
-        <f>VALUE(IF(_input!$A459=0,0,_input!$A459*100/_input!$B459))</f>
+        <f>VALUE(IF(_input!$B459=0,0,_input!$A459*100/_input!$B459))</f>
         <v>0</v>
       </c>
     </row>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="C459" s="20">
-        <f>VALUE(IF(_input!$A460=0,0,_input!$A460*100/_input!$B460))</f>
+        <f>VALUE(IF(_input!$B460=0,0,_input!$A460*100/_input!$B460))</f>
         <v>0</v>
       </c>
     </row>
@@ -7820,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="C460" s="20">
-        <f>VALUE(IF(_input!$A461=0,0,_input!$A461*100/_input!$B461))</f>
+        <f>VALUE(IF(_input!$B461=0,0,_input!$A461*100/_input!$B461))</f>
         <v>0</v>
       </c>
     </row>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="C461" s="20">
-        <f>VALUE(IF(_input!$A462=0,0,_input!$A462*100/_input!$B462))</f>
+        <f>VALUE(IF(_input!$B462=0,0,_input!$A462*100/_input!$B462))</f>
         <v>0</v>
       </c>
     </row>
@@ -7848,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="C462" s="20">
-        <f>VALUE(IF(_input!$A463=0,0,_input!$A463*100/_input!$B463))</f>
+        <f>VALUE(IF(_input!$B463=0,0,_input!$A463*100/_input!$B463))</f>
         <v>0</v>
       </c>
     </row>
@@ -7862,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="C463" s="20">
-        <f>VALUE(IF(_input!$A464=0,0,_input!$A464*100/_input!$B464))</f>
+        <f>VALUE(IF(_input!$B464=0,0,_input!$A464*100/_input!$B464))</f>
         <v>0</v>
       </c>
     </row>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="C464" s="20">
-        <f>VALUE(IF(_input!$A465=0,0,_input!$A465*100/_input!$B465))</f>
+        <f>VALUE(IF(_input!$B465=0,0,_input!$A465*100/_input!$B465))</f>
         <v>0</v>
       </c>
     </row>
@@ -7890,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="C465" s="20">
-        <f>VALUE(IF(_input!$A466=0,0,_input!$A466*100/_input!$B466))</f>
+        <f>VALUE(IF(_input!$B466=0,0,_input!$A466*100/_input!$B466))</f>
         <v>0</v>
       </c>
     </row>
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="C466" s="20">
-        <f>VALUE(IF(_input!$A467=0,0,_input!$A467*100/_input!$B467))</f>
+        <f>VALUE(IF(_input!$B467=0,0,_input!$A467*100/_input!$B467))</f>
         <v>0</v>
       </c>
     </row>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="C467" s="20">
-        <f>VALUE(IF(_input!$A468=0,0,_input!$A468*100/_input!$B468))</f>
+        <f>VALUE(IF(_input!$B468=0,0,_input!$A468*100/_input!$B468))</f>
         <v>0</v>
       </c>
     </row>
@@ -7932,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="C468" s="20">
-        <f>VALUE(IF(_input!$A469=0,0,_input!$A469*100/_input!$B469))</f>
+        <f>VALUE(IF(_input!$B469=0,0,_input!$A469*100/_input!$B469))</f>
         <v>0</v>
       </c>
     </row>
@@ -7946,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="C469" s="20">
-        <f>VALUE(IF(_input!$A470=0,0,_input!$A470*100/_input!$B470))</f>
+        <f>VALUE(IF(_input!$B470=0,0,_input!$A470*100/_input!$B470))</f>
         <v>0</v>
       </c>
     </row>
@@ -7960,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="C470" s="20">
-        <f>VALUE(IF(_input!$A471=0,0,_input!$A471*100/_input!$B471))</f>
+        <f>VALUE(IF(_input!$B471=0,0,_input!$A471*100/_input!$B471))</f>
         <v>0</v>
       </c>
     </row>
@@ -7974,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="C471" s="20">
-        <f>VALUE(IF(_input!$A472=0,0,_input!$A472*100/_input!$B472))</f>
+        <f>VALUE(IF(_input!$B472=0,0,_input!$A472*100/_input!$B472))</f>
         <v>0</v>
       </c>
     </row>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="C472" s="20">
-        <f>VALUE(IF(_input!$A473=0,0,_input!$A473*100/_input!$B473))</f>
+        <f>VALUE(IF(_input!$B473=0,0,_input!$A473*100/_input!$B473))</f>
         <v>0</v>
       </c>
     </row>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="C473" s="20">
-        <f>VALUE(IF(_input!$A474=0,0,_input!$A474*100/_input!$B474))</f>
+        <f>VALUE(IF(_input!$B474=0,0,_input!$A474*100/_input!$B474))</f>
         <v>0</v>
       </c>
     </row>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="C474" s="20">
-        <f>VALUE(IF(_input!$A475=0,0,_input!$A475*100/_input!$B475))</f>
+        <f>VALUE(IF(_input!$B475=0,0,_input!$A475*100/_input!$B475))</f>
         <v>0</v>
       </c>
     </row>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="C475" s="20">
-        <f>VALUE(IF(_input!$A476=0,0,_input!$A476*100/_input!$B476))</f>
+        <f>VALUE(IF(_input!$B476=0,0,_input!$A476*100/_input!$B476))</f>
         <v>0</v>
       </c>
     </row>
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="C476" s="20">
-        <f>VALUE(IF(_input!$A477=0,0,_input!$A477*100/_input!$B477))</f>
+        <f>VALUE(IF(_input!$B477=0,0,_input!$A477*100/_input!$B477))</f>
         <v>0</v>
       </c>
     </row>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="C477" s="20">
-        <f>VALUE(IF(_input!$A478=0,0,_input!$A478*100/_input!$B478))</f>
+        <f>VALUE(IF(_input!$B478=0,0,_input!$A478*100/_input!$B478))</f>
         <v>0</v>
       </c>
     </row>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="C478" s="20">
-        <f>VALUE(IF(_input!$A479=0,0,_input!$A479*100/_input!$B479))</f>
+        <f>VALUE(IF(_input!$B479=0,0,_input!$A479*100/_input!$B479))</f>
         <v>0</v>
       </c>
     </row>
@@ -8086,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="C479" s="20">
-        <f>VALUE(IF(_input!$A480=0,0,_input!$A480*100/_input!$B480))</f>
+        <f>VALUE(IF(_input!$B480=0,0,_input!$A480*100/_input!$B480))</f>
         <v>0</v>
       </c>
     </row>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="C480" s="20">
-        <f>VALUE(IF(_input!$A481=0,0,_input!$A481*100/_input!$B481))</f>
+        <f>VALUE(IF(_input!$B481=0,0,_input!$A481*100/_input!$B481))</f>
         <v>0</v>
       </c>
     </row>
@@ -8114,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="C481" s="20">
-        <f>VALUE(IF(_input!$A482=0,0,_input!$A482*100/_input!$B482))</f>
+        <f>VALUE(IF(_input!$B482=0,0,_input!$A482*100/_input!$B482))</f>
         <v>0</v>
       </c>
     </row>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="C482" s="20">
-        <f>VALUE(IF(_input!$A483=0,0,_input!$A483*100/_input!$B483))</f>
+        <f>VALUE(IF(_input!$B483=0,0,_input!$A483*100/_input!$B483))</f>
         <v>0</v>
       </c>
     </row>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="C483" s="20">
-        <f>VALUE(IF(_input!$A484=0,0,_input!$A484*100/_input!$B484))</f>
+        <f>VALUE(IF(_input!$B484=0,0,_input!$A484*100/_input!$B484))</f>
         <v>0</v>
       </c>
     </row>
@@ -8156,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="C484" s="20">
-        <f>VALUE(IF(_input!$A485=0,0,_input!$A485*100/_input!$B485))</f>
+        <f>VALUE(IF(_input!$B485=0,0,_input!$A485*100/_input!$B485))</f>
         <v>0</v>
       </c>
     </row>
@@ -8170,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="C485" s="20">
-        <f>VALUE(IF(_input!$A486=0,0,_input!$A486*100/_input!$B486))</f>
+        <f>VALUE(IF(_input!$B486=0,0,_input!$A486*100/_input!$B486))</f>
         <v>0</v>
       </c>
     </row>
@@ -8184,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="C486" s="20">
-        <f>VALUE(IF(_input!$A487=0,0,_input!$A487*100/_input!$B487))</f>
+        <f>VALUE(IF(_input!$B487=0,0,_input!$A487*100/_input!$B487))</f>
         <v>0</v>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="C487" s="20">
-        <f>VALUE(IF(_input!$A488=0,0,_input!$A488*100/_input!$B488))</f>
+        <f>VALUE(IF(_input!$B488=0,0,_input!$A488*100/_input!$B488))</f>
         <v>0</v>
       </c>
     </row>
@@ -8212,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="C488" s="20">
-        <f>VALUE(IF(_input!$A489=0,0,_input!$A489*100/_input!$B489))</f>
+        <f>VALUE(IF(_input!$B489=0,0,_input!$A489*100/_input!$B489))</f>
         <v>0</v>
       </c>
     </row>
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="C489" s="20">
-        <f>VALUE(IF(_input!$A490=0,0,_input!$A490*100/_input!$B490))</f>
+        <f>VALUE(IF(_input!$B490=0,0,_input!$A490*100/_input!$B490))</f>
         <v>0</v>
       </c>
     </row>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="C490" s="20">
-        <f>VALUE(IF(_input!$A491=0,0,_input!$A491*100/_input!$B491))</f>
+        <f>VALUE(IF(_input!$B491=0,0,_input!$A491*100/_input!$B491))</f>
         <v>0</v>
       </c>
     </row>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="C491" s="20">
-        <f>VALUE(IF(_input!$A492=0,0,_input!$A492*100/_input!$B492))</f>
+        <f>VALUE(IF(_input!$B492=0,0,_input!$A492*100/_input!$B492))</f>
         <v>0</v>
       </c>
     </row>
@@ -8268,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="C492" s="20">
-        <f>VALUE(IF(_input!$A493=0,0,_input!$A493*100/_input!$B493))</f>
+        <f>VALUE(IF(_input!$B493=0,0,_input!$A493*100/_input!$B493))</f>
         <v>0</v>
       </c>
     </row>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="C493" s="20">
-        <f>VALUE(IF(_input!$A494=0,0,_input!$A494*100/_input!$B494))</f>
+        <f>VALUE(IF(_input!$B494=0,0,_input!$A494*100/_input!$B494))</f>
         <v>0</v>
       </c>
     </row>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="C494" s="20">
-        <f>VALUE(IF(_input!$A495=0,0,_input!$A495*100/_input!$B495))</f>
+        <f>VALUE(IF(_input!$B495=0,0,_input!$A495*100/_input!$B495))</f>
         <v>0</v>
       </c>
     </row>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="C495" s="20">
-        <f>VALUE(IF(_input!$A496=0,0,_input!$A496*100/_input!$B496))</f>
+        <f>VALUE(IF(_input!$B496=0,0,_input!$A496*100/_input!$B496))</f>
         <v>0</v>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="C496" s="20">
-        <f>VALUE(IF(_input!$A497=0,0,_input!$A497*100/_input!$B497))</f>
+        <f>VALUE(IF(_input!$B497=0,0,_input!$A497*100/_input!$B497))</f>
         <v>0</v>
       </c>
     </row>
@@ -8338,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="C497" s="20">
-        <f>VALUE(IF(_input!$A498=0,0,_input!$A498*100/_input!$B498))</f>
+        <f>VALUE(IF(_input!$B498=0,0,_input!$A498*100/_input!$B498))</f>
         <v>0</v>
       </c>
     </row>
@@ -8352,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="C498" s="20">
-        <f>VALUE(IF(_input!$A499=0,0,_input!$A499*100/_input!$B499))</f>
+        <f>VALUE(IF(_input!$B499=0,0,_input!$A499*100/_input!$B499))</f>
         <v>0</v>
       </c>
     </row>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="C499" s="20">
-        <f>VALUE(IF(_input!$A500=0,0,_input!$A500*100/_input!$B500))</f>
+        <f>VALUE(IF(_input!$B500=0,0,_input!$A500*100/_input!$B500))</f>
         <v>0</v>
       </c>
     </row>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="C500" s="20">
-        <f>VALUE(IF(_input!$A501=0,0,_input!$A501*100/_input!$B501))</f>
+        <f>VALUE(IF(_input!$B501=0,0,_input!$A501*100/_input!$B501))</f>
         <v>0</v>
       </c>
     </row>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="C501" s="20">
-        <f>VALUE(IF(_input!$A502=0,0,_input!$A502*100/_input!$B502))</f>
+        <f>VALUE(IF(_input!$B502=0,0,_input!$A502*100/_input!$B502))</f>
         <v>0</v>
       </c>
     </row>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="C502" s="20">
-        <f>VALUE(IF(_input!$A503=0,0,_input!$A503*100/_input!$B503))</f>
+        <f>VALUE(IF(_input!$B503=0,0,_input!$A503*100/_input!$B503))</f>
         <v>0</v>
       </c>
     </row>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="C503" s="20">
-        <f>VALUE(IF(_input!$A504=0,0,_input!$A504*100/_input!$B504))</f>
+        <f>VALUE(IF(_input!$B504=0,0,_input!$A504*100/_input!$B504))</f>
         <v>0</v>
       </c>
     </row>
@@ -8436,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="C504" s="20">
-        <f>VALUE(IF(_input!$A505=0,0,_input!$A505*100/_input!$B505))</f>
+        <f>VALUE(IF(_input!$B505=0,0,_input!$A505*100/_input!$B505))</f>
         <v>0</v>
       </c>
     </row>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="C505" s="20">
-        <f>VALUE(IF(_input!$A506=0,0,_input!$A506*100/_input!$B506))</f>
+        <f>VALUE(IF(_input!$B506=0,0,_input!$A506*100/_input!$B506))</f>
         <v>0</v>
       </c>
     </row>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="C506" s="20">
-        <f>VALUE(IF(_input!$A507=0,0,_input!$A507*100/_input!$B507))</f>
+        <f>VALUE(IF(_input!$B507=0,0,_input!$A507*100/_input!$B507))</f>
         <v>0</v>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="C507" s="20">
-        <f>VALUE(IF(_input!$A508=0,0,_input!$A508*100/_input!$B508))</f>
+        <f>VALUE(IF(_input!$B508=0,0,_input!$A508*100/_input!$B508))</f>
         <v>0</v>
       </c>
     </row>
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="C508" s="20">
-        <f>VALUE(IF(_input!$A509=0,0,_input!$A509*100/_input!$B509))</f>
+        <f>VALUE(IF(_input!$B509=0,0,_input!$A509*100/_input!$B509))</f>
         <v>0</v>
       </c>
     </row>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="C509" s="20">
-        <f>VALUE(IF(_input!$A510=0,0,_input!$A510*100/_input!$B510))</f>
+        <f>VALUE(IF(_input!$B510=0,0,_input!$A510*100/_input!$B510))</f>
         <v>0</v>
       </c>
     </row>
@@ -8520,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="C510" s="20">
-        <f>VALUE(IF(_input!$A511=0,0,_input!$A511*100/_input!$B511))</f>
+        <f>VALUE(IF(_input!$B511=0,0,_input!$A511*100/_input!$B511))</f>
         <v>0</v>
       </c>
     </row>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="C511" s="20">
-        <f>VALUE(IF(_input!$A512=0,0,_input!$A512*100/_input!$B512))</f>
+        <f>VALUE(IF(_input!$B512=0,0,_input!$A512*100/_input!$B512))</f>
         <v>0</v>
       </c>
     </row>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="C512" s="20">
-        <f>VALUE(IF(_input!$A513=0,0,_input!$A513*100/_input!$B513))</f>
+        <f>VALUE(IF(_input!$B513=0,0,_input!$A513*100/_input!$B513))</f>
         <v>0</v>
       </c>
     </row>
@@ -8562,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="C513" s="20">
-        <f>VALUE(IF(_input!$A514=0,0,_input!$A514*100/_input!$B514))</f>
+        <f>VALUE(IF(_input!$B514=0,0,_input!$A514*100/_input!$B514))</f>
         <v>0</v>
       </c>
     </row>
@@ -8576,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="C514" s="20">
-        <f>VALUE(IF(_input!$A515=0,0,_input!$A515*100/_input!$B515))</f>
+        <f>VALUE(IF(_input!$B515=0,0,_input!$A515*100/_input!$B515))</f>
         <v>0</v>
       </c>
     </row>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="C515" s="20">
-        <f>VALUE(IF(_input!$A516=0,0,_input!$A516*100/_input!$B516))</f>
+        <f>VALUE(IF(_input!$B516=0,0,_input!$A516*100/_input!$B516))</f>
         <v>0</v>
       </c>
     </row>
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="C516" s="20">
-        <f>VALUE(IF(_input!$A517=0,0,_input!$A517*100/_input!$B517))</f>
+        <f>VALUE(IF(_input!$B517=0,0,_input!$A517*100/_input!$B517))</f>
         <v>0</v>
       </c>
     </row>
@@ -8618,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="C517" s="20">
-        <f>VALUE(IF(_input!$A518=0,0,_input!$A518*100/_input!$B518))</f>
+        <f>VALUE(IF(_input!$B518=0,0,_input!$A518*100/_input!$B518))</f>
         <v>0</v>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="C518" s="20">
-        <f>VALUE(IF(_input!$A519=0,0,_input!$A519*100/_input!$B519))</f>
+        <f>VALUE(IF(_input!$B519=0,0,_input!$A519*100/_input!$B519))</f>
         <v>0</v>
       </c>
     </row>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="C519" s="20">
-        <f>VALUE(IF(_input!$A520=0,0,_input!$A520*100/_input!$B520))</f>
+        <f>VALUE(IF(_input!$B520=0,0,_input!$A520*100/_input!$B520))</f>
         <v>0</v>
       </c>
     </row>
@@ -8660,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="C520" s="20">
-        <f>VALUE(IF(_input!$A521=0,0,_input!$A521*100/_input!$B521))</f>
+        <f>VALUE(IF(_input!$B521=0,0,_input!$A521*100/_input!$B521))</f>
         <v>0</v>
       </c>
     </row>
@@ -8674,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="C521" s="20">
-        <f>VALUE(IF(_input!$A522=0,0,_input!$A522*100/_input!$B522))</f>
+        <f>VALUE(IF(_input!$B522=0,0,_input!$A522*100/_input!$B522))</f>
         <v>0</v>
       </c>
     </row>
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="C522" s="20">
-        <f>VALUE(IF(_input!$A523=0,0,_input!$A523*100/_input!$B523))</f>
+        <f>VALUE(IF(_input!$B523=0,0,_input!$A523*100/_input!$B523))</f>
         <v>0</v>
       </c>
     </row>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="C523" s="20">
-        <f>VALUE(IF(_input!$A524=0,0,_input!$A524*100/_input!$B524))</f>
+        <f>VALUE(IF(_input!$B524=0,0,_input!$A524*100/_input!$B524))</f>
         <v>0</v>
       </c>
     </row>
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="C524" s="20">
-        <f>VALUE(IF(_input!$A525=0,0,_input!$A525*100/_input!$B525))</f>
+        <f>VALUE(IF(_input!$B525=0,0,_input!$A525*100/_input!$B525))</f>
         <v>0</v>
       </c>
     </row>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="C525" s="20">
-        <f>VALUE(IF(_input!$A526=0,0,_input!$A526*100/_input!$B526))</f>
+        <f>VALUE(IF(_input!$B526=0,0,_input!$A526*100/_input!$B526))</f>
         <v>0</v>
       </c>
     </row>
@@ -8744,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="C526" s="20">
-        <f>VALUE(IF(_input!$A527=0,0,_input!$A527*100/_input!$B527))</f>
+        <f>VALUE(IF(_input!$B527=0,0,_input!$A527*100/_input!$B527))</f>
         <v>0</v>
       </c>
     </row>
@@ -8758,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="C527" s="20">
-        <f>VALUE(IF(_input!$A528=0,0,_input!$A528*100/_input!$B528))</f>
+        <f>VALUE(IF(_input!$B528=0,0,_input!$A528*100/_input!$B528))</f>
         <v>0</v>
       </c>
     </row>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="C528" s="20">
-        <f>VALUE(IF(_input!$A529=0,0,_input!$A529*100/_input!$B529))</f>
+        <f>VALUE(IF(_input!$B529=0,0,_input!$A529*100/_input!$B529))</f>
         <v>0</v>
       </c>
     </row>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="C529" s="20">
-        <f>VALUE(IF(_input!$A530=0,0,_input!$A530*100/_input!$B530))</f>
+        <f>VALUE(IF(_input!$B530=0,0,_input!$A530*100/_input!$B530))</f>
         <v>0</v>
       </c>
     </row>
@@ -8800,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="C530" s="20">
-        <f>VALUE(IF(_input!$A531=0,0,_input!$A531*100/_input!$B531))</f>
+        <f>VALUE(IF(_input!$B531=0,0,_input!$A531*100/_input!$B531))</f>
         <v>0</v>
       </c>
     </row>
@@ -8814,7 +8814,7 @@
         <v>0</v>
       </c>
       <c r="C531" s="20">
-        <f>VALUE(IF(_input!$A532=0,0,_input!$A532*100/_input!$B532))</f>
+        <f>VALUE(IF(_input!$B532=0,0,_input!$A532*100/_input!$B532))</f>
         <v>0</v>
       </c>
     </row>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="C532" s="20">
-        <f>VALUE(IF(_input!$A533=0,0,_input!$A533*100/_input!$B533))</f>
+        <f>VALUE(IF(_input!$B533=0,0,_input!$A533*100/_input!$B533))</f>
         <v>0</v>
       </c>
     </row>
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="C533" s="20">
-        <f>VALUE(IF(_input!$A534=0,0,_input!$A534*100/_input!$B534))</f>
+        <f>VALUE(IF(_input!$B534=0,0,_input!$A534*100/_input!$B534))</f>
         <v>0</v>
       </c>
     </row>
@@ -8856,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="C534" s="20">
-        <f>VALUE(IF(_input!$A535=0,0,_input!$A535*100/_input!$B535))</f>
+        <f>VALUE(IF(_input!$B535=0,0,_input!$A535*100/_input!$B535))</f>
         <v>0</v>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="C535" s="20">
-        <f>VALUE(IF(_input!$A536=0,0,_input!$A536*100/_input!$B536))</f>
+        <f>VALUE(IF(_input!$B536=0,0,_input!$A536*100/_input!$B536))</f>
         <v>0</v>
       </c>
     </row>
@@ -8884,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="C536" s="20">
-        <f>VALUE(IF(_input!$A537=0,0,_input!$A537*100/_input!$B537))</f>
+        <f>VALUE(IF(_input!$B537=0,0,_input!$A537*100/_input!$B537))</f>
         <v>0</v>
       </c>
     </row>
@@ -8898,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="C537" s="20">
-        <f>VALUE(IF(_input!$A538=0,0,_input!$A538*100/_input!$B538))</f>
+        <f>VALUE(IF(_input!$B538=0,0,_input!$A538*100/_input!$B538))</f>
         <v>0</v>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="C538" s="20">
-        <f>VALUE(IF(_input!$A539=0,0,_input!$A539*100/_input!$B539))</f>
+        <f>VALUE(IF(_input!$B539=0,0,_input!$A539*100/_input!$B539))</f>
         <v>0</v>
       </c>
     </row>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="C539" s="20">
-        <f>VALUE(IF(_input!$A540=0,0,_input!$A540*100/_input!$B540))</f>
+        <f>VALUE(IF(_input!$B540=0,0,_input!$A540*100/_input!$B540))</f>
         <v>0</v>
       </c>
     </row>
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="C540" s="20">
-        <f>VALUE(IF(_input!$A541=0,0,_input!$A541*100/_input!$B541))</f>
+        <f>VALUE(IF(_input!$B541=0,0,_input!$A541*100/_input!$B541))</f>
         <v>0</v>
       </c>
     </row>
@@ -8954,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="C541" s="20">
-        <f>VALUE(IF(_input!$A542=0,0,_input!$A542*100/_input!$B542))</f>
+        <f>VALUE(IF(_input!$B542=0,0,_input!$A542*100/_input!$B542))</f>
         <v>0</v>
       </c>
     </row>
@@ -8968,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="C542" s="20">
-        <f>VALUE(IF(_input!$A543=0,0,_input!$A543*100/_input!$B543))</f>
+        <f>VALUE(IF(_input!$B543=0,0,_input!$A543*100/_input!$B543))</f>
         <v>0</v>
       </c>
     </row>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="C543" s="20">
-        <f>VALUE(IF(_input!$A544=0,0,_input!$A544*100/_input!$B544))</f>
+        <f>VALUE(IF(_input!$B544=0,0,_input!$A544*100/_input!$B544))</f>
         <v>0</v>
       </c>
     </row>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="C544" s="20">
-        <f>VALUE(IF(_input!$A545=0,0,_input!$A545*100/_input!$B545))</f>
+        <f>VALUE(IF(_input!$B545=0,0,_input!$A545*100/_input!$B545))</f>
         <v>0</v>
       </c>
     </row>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="C545" s="20">
-        <f>VALUE(IF(_input!$A546=0,0,_input!$A546*100/_input!$B546))</f>
+        <f>VALUE(IF(_input!$B546=0,0,_input!$A546*100/_input!$B546))</f>
         <v>0</v>
       </c>
     </row>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="C546" s="20">
-        <f>VALUE(IF(_input!$A547=0,0,_input!$A547*100/_input!$B547))</f>
+        <f>VALUE(IF(_input!$B547=0,0,_input!$A547*100/_input!$B547))</f>
         <v>0</v>
       </c>
     </row>
@@ -9038,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="C547" s="20">
-        <f>VALUE(IF(_input!$A548=0,0,_input!$A548*100/_input!$B548))</f>
+        <f>VALUE(IF(_input!$B548=0,0,_input!$A548*100/_input!$B548))</f>
         <v>0</v>
       </c>
     </row>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="C548" s="20">
-        <f>VALUE(IF(_input!$A549=0,0,_input!$A549*100/_input!$B549))</f>
+        <f>VALUE(IF(_input!$B549=0,0,_input!$A549*100/_input!$B549))</f>
         <v>0</v>
       </c>
     </row>
@@ -9066,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="C549" s="20">
-        <f>VALUE(IF(_input!$A550=0,0,_input!$A550*100/_input!$B550))</f>
+        <f>VALUE(IF(_input!$B550=0,0,_input!$A550*100/_input!$B550))</f>
         <v>0</v>
       </c>
     </row>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="C550" s="20">
-        <f>VALUE(IF(_input!$A551=0,0,_input!$A551*100/_input!$B551))</f>
+        <f>VALUE(IF(_input!$B551=0,0,_input!$A551*100/_input!$B551))</f>
         <v>0</v>
       </c>
     </row>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="C551" s="20">
-        <f>VALUE(IF(_input!$A552=0,0,_input!$A552*100/_input!$B552))</f>
+        <f>VALUE(IF(_input!$B552=0,0,_input!$A552*100/_input!$B552))</f>
         <v>0</v>
       </c>
     </row>
@@ -9108,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="C552" s="20">
-        <f>VALUE(IF(_input!$A553=0,0,_input!$A553*100/_input!$B553))</f>
+        <f>VALUE(IF(_input!$B553=0,0,_input!$A553*100/_input!$B553))</f>
         <v>0</v>
       </c>
     </row>

--- a/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-trend-2.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-trend-2.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,15 +170,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>custId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ims/cs/baidu/cust/lineChart.action</t>
+  </si>
+  <si>
+    <t>hasRenderredParam</t>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -398,7 +405,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,6 +482,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -705,11 +715,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81929728"/>
-        <c:axId val="81931264"/>
+        <c:axId val="85402752"/>
+        <c:axId val="85404288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81929728"/>
+        <c:axId val="85402752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,14 +728,14 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81931264"/>
+        <c:crossAx val="85404288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81931264"/>
+        <c:axId val="85404288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,7 +744,7 @@
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81929728"/>
+        <c:crossAx val="85402752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -752,7 +762,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000001232" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001232" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000001266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -794,8 +804,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="paramTable" displayName="paramTable" ref="A8:G14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A8:G14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="paramTable" displayName="paramTable" ref="A8:G15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A8:G15"/>
   <tableColumns count="7">
     <tableColumn id="1" name="参数" dataDxfId="6"/>
     <tableColumn id="2" name="名称" dataDxfId="5"/>
@@ -1096,7 +1106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N18"/>
+  <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1131,7 +1141,12 @@
     </row>
     <row r="18" spans="14:14">
       <c r="N18" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="14:14">
+      <c r="N20" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1146,7 +1161,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1226,10 +1241,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -1300,18 +1315,31 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="11" t="str">
-        <f>"CS趋势_"&amp;_input!$A2</f>
-        <v>CS趋势_分子</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="12"/>
+      <c r="C15" s="11" t="str">
+        <f ca="1">"CS趋势_"&amp;input!$E1</f>
+        <v>CS趋势_-</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1340,7 +1368,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" thickBot="1">
@@ -1377,13 +1405,13 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:D552"/>
+  <dimension ref="A1:E552"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:5" ht="18" customHeight="1" thickBot="1">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1397,8 +1425,12 @@
         <f>COUNTA(_input!$A:$A)-1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" thickBot="1">
+      <c r="E1" t="str">
+        <f ca="1">IF($D1&gt;2,$A2&amp;"~"&amp;OFFSET($A1,$D1 - 1,0),$A2)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1">
       <c r="A2" s="21" t="str">
         <f>_input!C3</f>
         <v>-</v>
@@ -1412,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" thickBot="1">
+    <row r="3" spans="1:5" ht="14.25" thickBot="1">
       <c r="A3" s="21">
         <f>_input!C4</f>
         <v>0</v>
@@ -1426,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1">
       <c r="A4" s="21">
         <f>_input!C5</f>
         <v>0</v>
@@ -1440,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25" thickBot="1">
+    <row r="5" spans="1:5" ht="14.25" thickBot="1">
       <c r="A5" s="21">
         <f>_input!C6</f>
         <v>0</v>
@@ -1454,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" thickBot="1">
+    <row r="6" spans="1:5" ht="14.25" thickBot="1">
       <c r="A6" s="21">
         <f>_input!C7</f>
         <v>0</v>
@@ -1468,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" thickBot="1">
+    <row r="7" spans="1:5" ht="14.25" thickBot="1">
       <c r="A7" s="21">
         <f>_input!C8</f>
         <v>0</v>
@@ -1482,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.25" thickBot="1">
+    <row r="8" spans="1:5" ht="14.25" thickBot="1">
       <c r="A8" s="21">
         <f>_input!C9</f>
         <v>0</v>
@@ -1496,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25" thickBot="1">
+    <row r="9" spans="1:5" ht="14.25" thickBot="1">
       <c r="A9" s="21">
         <f>_input!C10</f>
         <v>0</v>
@@ -1510,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" thickBot="1">
+    <row r="10" spans="1:5" ht="14.25" thickBot="1">
       <c r="A10" s="21">
         <f>_input!C11</f>
         <v>0</v>
@@ -1524,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" thickBot="1">
+    <row r="11" spans="1:5" ht="14.25" thickBot="1">
       <c r="A11" s="21">
         <f>_input!C12</f>
         <v>0</v>
@@ -1538,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25" thickBot="1">
+    <row r="12" spans="1:5" ht="14.25" thickBot="1">
       <c r="A12" s="21">
         <f>_input!C13</f>
         <v>0</v>
@@ -1552,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25" thickBot="1">
+    <row r="13" spans="1:5" ht="14.25" thickBot="1">
       <c r="A13" s="21">
         <f>_input!C14</f>
         <v>0</v>
@@ -1566,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25" thickBot="1">
+    <row r="14" spans="1:5" ht="14.25" thickBot="1">
       <c r="A14" s="21">
         <f>_input!C15</f>
         <v>0</v>
@@ -1580,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" thickBot="1">
+    <row r="15" spans="1:5" ht="14.25" thickBot="1">
       <c r="A15" s="21">
         <f>_input!C16</f>
         <v>0</v>
@@ -1594,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" thickBot="1">
+    <row r="16" spans="1:5" ht="14.25" thickBot="1">
       <c r="A16" s="21">
         <f>_input!C17</f>
         <v>0</v>
